--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1426.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1426.xlsx
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0187302732321927</v>
+        <v>0.04495147693225329</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007387847568810764</v>
+        <v>0.001169733419910263</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03361197136024226</v>
+        <v>0.05812856077594462</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007742213599386423</v>
+        <v>0.001512629280087569</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.06945587414107646</v>
+        <v>0.06593856000000003</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007417877334322978</v>
+        <v>0.0009948915691489369</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.09463394320605439</v>
+        <v>0.09593856000000001</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007840775410623858</v>
+        <v>0.001016519646739131</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.04495147693225329</v>
+        <v>0.09439810155773191</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001169733419910263</v>
+        <v>0.00350920025973079</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.07187712</v>
+        <v>0.08682466756812517</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00187039615</v>
+        <v>0.003220838160474879</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.13187712</v>
+        <v>0.1716850450677652</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001731848287037037</v>
+        <v>0.00298467470744681</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1654422415590678</v>
+        <v>0.231584396335637</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001568155082124772</v>
+        <v>0.003049558940217391</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0706035515542013</v>
+        <v>0.09357517855481461</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002216354270643229</v>
+        <v>0.004799568976537406</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.08166520907470952</v>
+        <v>0.1117856937998935</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002322664079815927</v>
+        <v>0.005611188450000001</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1472046581836514</v>
+        <v>0.1938646095853483</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002225363200296893</v>
+        <v>0.004791661556151215</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.19187712</v>
+        <v>0.262217982670278</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002033039293478261</v>
+        <v>0.004792639710414087</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.07548231188988865</v>
+        <v>0.09576945875817851</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002955139027524306</v>
+        <v>0.006399425302049874</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.09632992682552548</v>
+        <v>0.1176163100968993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003096885439754569</v>
+        <v>0.006441676320949758</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1716850450677652</v>
+        <v>0.2136475436459053</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003220882019461814</v>
+        <v>0.006388882074868287</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.231584396335637</v>
+        <v>0.2843202519437227</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00350536975737979</v>
+        <v>0.006390186280552118</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.04495147693225329</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.09439810155773191</v>
+        <v>0.1157470607489619</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00350920025973079</v>
+        <v>0.007999281627562343</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1117856937998935</v>
+        <v>0.127690914152556</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004155574945295518</v>
+        <v>0.008052095401187198</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1753997973386007</v>
+        <v>0.2286065663521045</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003708938667161489</v>
+        <v>0.007986102593585358</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2371804697086384</v>
+        <v>0.3095054675957022</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003920387705311929</v>
+        <v>0.007987732850690148</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.09303981533445264</v>
+        <v>0.1246084185129406</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004432708541286458</v>
+        <v>0.009599137953074812</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1150404847661045</v>
+        <v>0.137654142789429</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004645328159631854</v>
+        <v>0.009662514481424639</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1875729498534695</v>
+        <v>0.2414801372973862</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004450726400593787</v>
+        <v>0.009583323112302431</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2483327657805228</v>
+        <v>0.3256802814118721</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004704465246374315</v>
+        <v>0.009585279420828175</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1079020938803469</v>
+        <v>0.1214539660358907</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005171493298167534</v>
+        <v>0.01119899427858728</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.12222952896579</v>
+        <v>0.145732408412213</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005419549519570496</v>
+        <v>0.01127293356166208</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1979615999283095</v>
+        <v>0.2546067160751904</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005192514134026084</v>
+        <v>0.0111805436310195</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2626525625083667</v>
+        <v>0.3413513451778886</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005488542787436701</v>
+        <v>0.01118282599096621</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1075422654333896</v>
+        <v>0.1303841373035881</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005910278055048611</v>
+        <v>0.01279885060409975</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.128926012460345</v>
+        <v>0.1540521234256029</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006193770879509139</v>
+        <v>0.01288335264189952</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2056611495258039</v>
+        <v>0.2650247622789573</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005934301867458382</v>
+        <v>0.01277776414973657</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2739202166861425</v>
+        <v>0.3555253106794075</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006272620328499086</v>
+        <v>0.01278037256110424</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1029611808796749</v>
+        <v>0.1374993663018085</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006649062811929687</v>
+        <v>0.01439870692961222</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1362244650478029</v>
+        <v>0.1618397002342934</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00696799223944778</v>
+        <v>0.01449377172213696</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2132670006086359</v>
+        <v>0.2722727355021268</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00667608960089068</v>
+        <v>0.01437498466845365</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2849160851078227</v>
+        <v>0.3688088297020846</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007056697869561472</v>
+        <v>0.01437791913124226</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.107159691105297</v>
+        <v>0.1399000870163282</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007387847568810763</v>
+        <v>0.01599856325512469</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1412194165261974</v>
+        <v>0.1682215512429794</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007742213599386423</v>
+        <v>0.0161041908023744</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2233745551394887</v>
+        <v>0.2800890953381391</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007417877334322978</v>
+        <v>0.01597220518717072</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2983205245673799</v>
+        <v>0.3782085540315757</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007840775410623857</v>
+        <v>0.0159754657013803</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.12213864699635</v>
+        <v>0.1466867334329227</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00812663232569184</v>
+        <v>0.01759841958063715</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1480053966935618</v>
+        <v>0.1762240888563557</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008516434959325065</v>
+        <v>0.01771460988261184</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2309792150810454</v>
+        <v>0.2854123013804343</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008159665067755275</v>
+        <v>0.01756942570588779</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3113138918587866</v>
+        <v>0.386831135453537</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008624852951686243</v>
+        <v>0.01757301227151832</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1158988994389279</v>
+        <v>0.1459597395373682</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008865417082572916</v>
+        <v>0.01919827590614962</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1530769353479295</v>
+        <v>0.1816737254791169</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009290656319263709</v>
+        <v>0.01932502896284928</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2405763823959893</v>
+        <v>0.2908808132224522</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008901452801187574</v>
+        <v>0.01916664622460486</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3225765437760147</v>
+        <v>0.3946832257536241</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009408930492748629</v>
+        <v>0.01917055884165635</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1254412993191248</v>
+        <v>0.1498195393154405</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009604201839453992</v>
+        <v>0.02079813223166209</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1585285622873341</v>
+        <v>0.1848968735159579</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01006487767920235</v>
+        <v>0.02093544804308671</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2473614590470035</v>
+        <v>0.2951330904576332</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00964324053461987</v>
+        <v>0.02076386674332193</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3307888371130374</v>
+        <v>0.3994714767174931</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01019300803381101</v>
+        <v>0.02076810541179438</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1417666975230349</v>
+        <v>0.1583665667529155</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01034298659633507</v>
+        <v>0.02239798855717456</v>
       </c>
       <c r="J79" t="n">
-        <v>0.163654807309809</v>
+        <v>0.1892199453715736</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01083909903914099</v>
+        <v>0.02254586712332415</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2557298469967711</v>
+        <v>0.3017075926794172</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01038502826805217</v>
+        <v>0.022361087262039</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3459311286638267</v>
+        <v>0.4074025401307998</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0109770855748734</v>
+        <v>0.02236565198193241</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1348759449367524</v>
+        <v>0.1677012558355693</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01108177135321615</v>
+        <v>0.02399784488268703</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1692502002133876</v>
+        <v>0.1928693534506588</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01161332039907964</v>
+        <v>0.02415628620356159</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2619769482079754</v>
+        <v>0.3050427794812444</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01112681600148447</v>
+        <v>0.02395830778075608</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3526837752223552</v>
+        <v>0.4088830677792001</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01176116311593579</v>
+        <v>0.02396319855207044</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1327698924463712</v>
+        <v>0.1609251346855265</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01182055611009722</v>
+        <v>0.0255977012081995</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1745092707961035</v>
+        <v>0.196971510157908</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01238754175901828</v>
+        <v>0.02576670528379903</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2693981646432997</v>
+        <v>0.3088476124222703</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01186860373491676</v>
+        <v>0.02555552829947315</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3632271335825954</v>
+        <v>0.4140908411482862</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01254524065699817</v>
+        <v>0.02556074512220847</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1454493909379855</v>
+        <v>0.1690897623071128</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0125593408669783</v>
+        <v>0.02719755753371197</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1804265488559902</v>
+        <v>0.198998882050765</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01316176311895692</v>
+        <v>0.02737712436403647</v>
       </c>
       <c r="L82" t="n">
-        <v>0.278088898265427</v>
+        <v>0.3141421229909128</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01261039146834906</v>
+        <v>0.02715274881819022</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3733415605385196</v>
+        <v>0.4192513379159916</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01332931819806056</v>
+        <v>0.0271582916923465</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1579152912976894</v>
+        <v>0.1721838326218368</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01329812562385937</v>
+        <v>0.02879741385922444</v>
       </c>
       <c r="J83" t="n">
-        <v>0.182996564191081</v>
+        <v>0.2013938638098527</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01393598447889556</v>
+        <v>0.02898754344427391</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2825445510370405</v>
+        <v>0.3171012379730573</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01335217920178136</v>
+        <v>0.02874996933690729</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3825074128841005</v>
+        <v>0.4273303770362402</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01411339573912294</v>
+        <v>0.02875583826248453</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1531684444115771</v>
+        <v>0.1761935601981415</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01403691038074045</v>
+        <v>0.0303972701847369</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1870138465994095</v>
+        <v>0.2037074108614743</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0147102058388342</v>
+        <v>0.03059796252451135</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2889605249208235</v>
+        <v>0.3201000090509482</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01409396693521366</v>
+        <v>0.03034718985562436</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3911050474133103</v>
+        <v>0.4321942853366605</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01489747328018533</v>
+        <v>0.03035338483262255</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1602097011657426</v>
+        <v>0.161105159604469</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01477569513762153</v>
+        <v>0.03199712651024937</v>
       </c>
       <c r="J85" t="n">
-        <v>0.191172925879009</v>
+        <v>0.2070228730956417</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01548442719877285</v>
+        <v>0.03220838160474879</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2944322218794591</v>
+        <v>0.3215134879068296</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01483575466864596</v>
+        <v>0.03194441037434143</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3977148209201218</v>
+        <v>0.4337093896448806</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01568155082124771</v>
+        <v>0.03195093140276059</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1520399124462801</v>
+        <v>0.1629048454092622</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0155144798945026</v>
+        <v>0.03359698283576184</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1952683318279131</v>
+        <v>0.2090236004023667</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01625864855871149</v>
+        <v>0.03381880068498624</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2989550438756305</v>
+        <v>0.3258167262229456</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01557754240207825</v>
+        <v>0.0335416308930585</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4085170901985069</v>
+        <v>0.4419420167885288</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0164656283623101</v>
+        <v>0.03354847797289862</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1516599291392836</v>
+        <v>0.1755788321809636</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01625326465138368</v>
+        <v>0.03519683916127431</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1991945942441553</v>
+        <v>0.2107929426716608</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01703286991865013</v>
+        <v>0.03542921976522367</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3048243928720208</v>
+        <v>0.3297847756815406</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01631933013551055</v>
+        <v>0.03513885141177558</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4139922120424389</v>
+        <v>0.4423584935952336</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01724970590337249</v>
+        <v>0.03514602454303665</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1550706021308472</v>
+        <v>0.1791133344880159</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01699204940826475</v>
+        <v>0.03679669548678678</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2020462429257691</v>
+        <v>0.213314249793536</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01780709127858877</v>
+        <v>0.03703963884546111</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3072356708313134</v>
+        <v>0.3316926879648588</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01706111786894285</v>
+        <v>0.03673607193049265</v>
       </c>
       <c r="N88" t="n">
-        <v>0.4206205432458893</v>
+        <v>0.4492251468926234</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01803378344443487</v>
+        <v>0.03674357111317467</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1632727823070652</v>
+        <v>0.1674945668988614</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01773083416514583</v>
+        <v>0.03839655181229925</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2059178076707878</v>
+        <v>0.2158708716580039</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01858131263852742</v>
+        <v>0.03865005792569855</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3113842797161913</v>
+        <v>0.3338155147551444</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01780290560237515</v>
+        <v>0.03833329244920972</v>
       </c>
       <c r="N89" t="n">
-        <v>0.4242824406028312</v>
+        <v>0.4510083035083261</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01881786098549726</v>
+        <v>0.0383411176833127</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1712673205540314</v>
+        <v>0.1807087439819431</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01846961892202691</v>
+        <v>0.03999640813781171</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2067038182772449</v>
+        <v>0.2167461581550762</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01935553399846606</v>
+        <v>0.04026047700593599</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3155656214893375</v>
+        <v>0.3365283077346415</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01854469333580745</v>
+        <v>0.0399305129679268</v>
       </c>
       <c r="N90" t="n">
-        <v>0.4293582609072366</v>
+        <v>0.4561742902699706</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01960193852655964</v>
+        <v>0.03993866425345074</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1770550677578403</v>
+        <v>0.1747420803057034</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01920840367890798</v>
+        <v>0.04159626446332419</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2097988045431739</v>
+        <v>0.2195234591747648</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0201297553584047</v>
+        <v>0.04187089608617343</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3218750981134357</v>
+        <v>0.3395061185855947</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01928648106923974</v>
+        <v>0.04152773348664387</v>
       </c>
       <c r="N91" t="n">
-        <v>0.4376283609530786</v>
+        <v>0.4586894340051849</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02038601606762203</v>
+        <v>0.04153621082358876</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1776368748045857</v>
+        <v>0.1695807904385848</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01994718843578906</v>
+        <v>0.04319612078883665</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2131972962666083</v>
+        <v>0.2196861246070812</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02090397671834334</v>
+        <v>0.04348131516641087</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3231081115511686</v>
+        <v>0.3414239989902478</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02002826880267204</v>
+        <v>0.04312495400536093</v>
       </c>
       <c r="N92" t="n">
-        <v>0.4380730975343291</v>
+        <v>0.4593200615415974</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02117009360868442</v>
+        <v>0.0431337573937268</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1700135925803618</v>
+        <v>0.17721108894903</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02068597319267014</v>
+        <v>0.04479597711434912</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2144938232455816</v>
+        <v>0.2219175043420374</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02167819807828198</v>
+        <v>0.04509173424664831</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3262600637652198</v>
+        <v>0.3421570006308454</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02077005653610434</v>
+        <v>0.04472217452407801</v>
       </c>
       <c r="N93" t="n">
-        <v>0.441272827444961</v>
+        <v>0.4601324997068365</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0219541711497468</v>
+        <v>0.04473130396386482</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1741860719712628</v>
+        <v>0.1887962031154639</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02142475794955121</v>
+        <v>0.04639583343986159</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2156829152781272</v>
+        <v>0.222100948269645</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02245241943822063</v>
+        <v>0.04670215332688575</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3283263567182722</v>
+        <v>0.3433700901355304</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02151184426953663</v>
+        <v>0.04631939504279509</v>
       </c>
       <c r="N94" t="n">
-        <v>0.4447079074789464</v>
+        <v>0.463168792671274</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02273824869080919</v>
+        <v>0.04632885053400285</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1771551638633826</v>
+        <v>0.1747913093763823</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02216354270643229</v>
+        <v>0.04799568976537406</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2173591021622786</v>
+        <v>0.223571387599787</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02322664079815927</v>
+        <v>0.04831257240712319</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3313023923730091</v>
+        <v>0.3419693494743865</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02225363200296893</v>
+        <v>0.04791661556151215</v>
       </c>
       <c r="N95" t="n">
-        <v>0.4468586944302578</v>
+        <v>0.4605684612232984</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02352232623187157</v>
+        <v>0.04792639710414088</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1839217191428155</v>
+        <v>0.1767569552470328</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02290232746331337</v>
+        <v>0.04959554609088652</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2160169136960692</v>
+        <v>0.2225574282628612</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02400086215809791</v>
+        <v>0.04992299148736063</v>
       </c>
       <c r="L96" t="n">
-        <v>0.3328835726921136</v>
+        <v>0.3425417097455426</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02299541973640123</v>
+        <v>0.04951383608022922</v>
       </c>
       <c r="N96" t="n">
-        <v>0.446805545092868</v>
+        <v>0.4604063206895128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02430640377293396</v>
+        <v>0.04952394367427891</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1814865886956555</v>
+        <v>0.1866022041755424</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02364111222019444</v>
+        <v>0.05119540241639899</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2173508796775325</v>
+        <v>0.2230359582116693</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02477508351803655</v>
+        <v>0.05153341056759807</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3337652996382688</v>
+        <v>0.3399039568038794</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02373720746983353</v>
+        <v>0.0511110565989463</v>
       </c>
       <c r="N97" t="n">
-        <v>0.4518288162607489</v>
+        <v>0.460260036129133</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02509048131399634</v>
+        <v>0.05112149024441694</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.172850623407997</v>
+        <v>0.1793367987085337</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02437989697707552</v>
+        <v>0.05279525874191146</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2166516400478806</v>
+        <v>0.2227650662391758</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0255493048779752</v>
+        <v>0.0531438296478355</v>
       </c>
       <c r="L98" t="n">
-        <v>0.3316429751741582</v>
+        <v>0.3402692391323235</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02447899520326582</v>
+        <v>0.05270827711766337</v>
       </c>
       <c r="N98" t="n">
-        <v>0.4499771243731184</v>
+        <v>0.4617473542750792</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02587455885505873</v>
+        <v>0.05271903681455497</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1690146741659335</v>
+        <v>0.1859680041659872</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0251186817339566</v>
+        <v>0.05439511506742394</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2167855708901892</v>
+        <v>0.2225605652189676</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02632352623791384</v>
+        <v>0.05475424872807295</v>
       </c>
       <c r="L99" t="n">
-        <v>0.334912001262465</v>
+        <v>0.3405507052138017</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02522078293669813</v>
+        <v>0.05430549763638044</v>
       </c>
       <c r="N99" t="n">
-        <v>0.4475849189151611</v>
+        <v>0.4600860218602718</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02665863639612112</v>
+        <v>0.05431658338469299</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.177998675480006</v>
+        <v>0.1795030858678834</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02585746649083767</v>
+        <v>0.0559949713929364</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2164469976064652</v>
+        <v>0.2215312302391712</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02709774759785248</v>
+        <v>0.05636466780831039</v>
       </c>
       <c r="L100" t="n">
-        <v>0.3340781822696665</v>
+        <v>0.340261503531241</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02596257067013042</v>
+        <v>0.05590271815509751</v>
       </c>
       <c r="N100" t="n">
-        <v>0.4467063058361448</v>
+        <v>0.4572937856176312</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0274427139371835</v>
+        <v>0.05591412995483103</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1728669845949095</v>
+        <v>0.176949309134203</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02659625124771875</v>
+        <v>0.05759482771844887</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2141151477446223</v>
+        <v>0.221085836387913</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02787196895779112</v>
+        <v>0.05797508688854782</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3341783845959868</v>
+        <v>0.3384147825675684</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02670435840356272</v>
+        <v>0.05749993867381459</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4464781354523332</v>
+        <v>0.4569883922800777</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02822679147824589</v>
+        <v>0.05751167652496906</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1806323380928975</v>
+        <v>0.1693139392849264</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02733503600459983</v>
+        <v>0.05919468404396134</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2146692488525735</v>
+        <v>0.2193331587533193</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02864619031772976</v>
+        <v>0.05958550596878526</v>
       </c>
       <c r="L102" t="n">
-        <v>0.3324490230002009</v>
+        <v>0.3354236908057105</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02744614613699502</v>
+        <v>0.05909715919253165</v>
       </c>
       <c r="N102" t="n">
-        <v>0.4452372580799898</v>
+        <v>0.4543875885805314</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02901086901930827</v>
+        <v>0.05910922309510708</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1713032487053958</v>
+        <v>0.1736042416400342</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0280738207614809</v>
+        <v>0.0607945403694738</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2122885284782322</v>
+        <v>0.2185819724235164</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02942041167766841</v>
+        <v>0.06119592504902271</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3306263329759148</v>
+        <v>0.3360013767285944</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02818793387042731</v>
+        <v>0.06069437971124873</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4417205240353781</v>
+        <v>0.4521091212519129</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02979494656037066</v>
+        <v>0.06070676966524511</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.17188822916383</v>
+        <v>0.1778274815195071</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02881260551836198</v>
+        <v>0.06239439669498627</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2105522141695115</v>
+        <v>0.2187410524866308</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03019463303760705</v>
+        <v>0.06280634412926016</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3288465500167341</v>
+        <v>0.3353609888191469</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02892972160385961</v>
+        <v>0.06229160022996581</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4437647836347618</v>
+        <v>0.4522707370271425</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03057902410143304</v>
+        <v>0.06230431623538315</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1813957921996261</v>
+        <v>0.1759909242433255</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02955139027524305</v>
+        <v>0.06399425302049874</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2089395334743249</v>
+        <v>0.2172191740307889</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03096885439754569</v>
+        <v>0.06441676320949759</v>
       </c>
       <c r="L105" t="n">
-        <v>0.3297459096162643</v>
+        <v>0.333715675560295</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02967150933729191</v>
+        <v>0.06388882074868286</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4398068871944045</v>
+        <v>0.4497901826391405</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03136310164249543</v>
+        <v>0.06390186280552118</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1798344505442097</v>
+        <v>0.1831018351314699</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03029017503212413</v>
+        <v>0.06559410934601122</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2060297139405855</v>
+        <v>0.2168251121441169</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03174307575748433</v>
+        <v>0.06602718228973503</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3261606472681115</v>
+        <v>0.3310785854349654</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03041329707072421</v>
+        <v>0.06548604126739994</v>
       </c>
       <c r="N106" t="n">
-        <v>0.4374836850305698</v>
+        <v>0.445385204820827</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03214717918355782</v>
+        <v>0.06549940937565921</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1812127169290066</v>
+        <v>0.1821674795039211</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03102895978900521</v>
+        <v>0.06719396567152368</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2049019831162067</v>
+        <v>0.2163676419147413</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03251729711742297</v>
+        <v>0.06763760136997247</v>
       </c>
       <c r="L107" t="n">
-        <v>0.322726998465881</v>
+        <v>0.329262866926085</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03115508480415651</v>
+        <v>0.06708326178611701</v>
       </c>
       <c r="N107" t="n">
-        <v>0.4323320274595214</v>
+        <v>0.4433735503051225</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0329312567246202</v>
+        <v>0.06709695594579723</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1735391040854428</v>
+        <v>0.1681951226806594</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03176774454588629</v>
+        <v>0.06879382199703614</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2010355685491017</v>
+        <v>0.2141555384307884</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03329151847736161</v>
+        <v>0.0692480204502099</v>
       </c>
       <c r="L108" t="n">
-        <v>0.3223811987031788</v>
+        <v>0.3274816685165809</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03189687253758881</v>
+        <v>0.06868048230483409</v>
       </c>
       <c r="N108" t="n">
-        <v>0.4293887647975225</v>
+        <v>0.4402729658249473</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03371533426568259</v>
+        <v>0.06869450251593526</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1668221247449438</v>
+        <v>0.1741920299816655</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03250652930276736</v>
+        <v>0.07039367832254861</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2014096977871837</v>
+        <v>0.2141975767803845</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03406573983730026</v>
+        <v>0.07085843953044735</v>
       </c>
       <c r="L109" t="n">
-        <v>0.3193594834736106</v>
+        <v>0.32624813868938</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0326386602710211</v>
+        <v>0.07027770282355116</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4272907473608371</v>
+        <v>0.4377011981132218</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03449941180674497</v>
+        <v>0.0702920490860733</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1660702916389356</v>
+        <v>0.16816546672692</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03324531405964844</v>
+        <v>0.07199353464806109</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1994035983783661</v>
+        <v>0.2126025320516561</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0348399611972389</v>
+        <v>0.07246885861068479</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3182980882707819</v>
+        <v>0.3236754259274088</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0333804480044534</v>
+        <v>0.07187492334226823</v>
       </c>
       <c r="N110" t="n">
-        <v>0.4255748254657286</v>
+        <v>0.4380759939028662</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03528348934780736</v>
+        <v>0.07188959565621132</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1712921174988439</v>
+        <v>0.1711226982364032</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03398409881652951</v>
+        <v>0.07359339097357356</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1982964978705622</v>
+        <v>0.2114791793327295</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03561418255717754</v>
+        <v>0.07407927769092222</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3159332485882985</v>
+        <v>0.3217766787135946</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0341222357378857</v>
+        <v>0.0734721438609853</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4227778494284606</v>
+        <v>0.4327150999268008</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03606756688886974</v>
+        <v>0.07348714222634935</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1604961150560944</v>
+        <v>0.168070989830096</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03472288357341059</v>
+        <v>0.07519324729908602</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1985676238116851</v>
+        <v>0.2106362937117311</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03638840391711619</v>
+        <v>0.07568969677115966</v>
       </c>
       <c r="L112" t="n">
-        <v>0.3123011999197664</v>
+        <v>0.3203650455308641</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03486402347131799</v>
+        <v>0.07506936437970237</v>
       </c>
       <c r="N112" t="n">
-        <v>0.4210366695652967</v>
+        <v>0.4333362629179461</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03685164442993213</v>
+        <v>0.07508468879648737</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.163690797042113</v>
+        <v>0.1600176068279788</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03546166833029166</v>
+        <v>0.0767931036245985</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1988033762498094</v>
+        <v>0.2083826502767872</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03716262527705484</v>
+        <v>0.07730011585139711</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3128381777587908</v>
+        <v>0.3163536748621442</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03560581120475029</v>
+        <v>0.07666658489841945</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4160881361925004</v>
+        <v>0.4272572296092222</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03763572197099452</v>
+        <v>0.0766822353666254</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1698846761883255</v>
+        <v>0.1709698145500321</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03620045308717274</v>
+        <v>0.07839295995011096</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1982389813232427</v>
+        <v>0.2079270241160243</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03793684663699348</v>
+        <v>0.07891053493163454</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3099804175989777</v>
+        <v>0.3171557151903617</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03634759893818259</v>
+        <v>0.07826380541713651</v>
       </c>
       <c r="N114" t="n">
-        <v>0.4167690996263357</v>
+        <v>0.4282957467335495</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0384197995120569</v>
+        <v>0.07827978193676344</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1630862652261576</v>
+        <v>0.1709332296325252</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03693923784405382</v>
+        <v>0.07999281627562342</v>
       </c>
       <c r="J115" t="n">
-        <v>0.197766415189904</v>
+        <v>0.2062781903175685</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03871106799693212</v>
+        <v>0.08052095401187198</v>
       </c>
       <c r="L115" t="n">
-        <v>0.3063641549339327</v>
+        <v>0.3126598737912136</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03708938667161489</v>
+        <v>0.07986102593585359</v>
       </c>
       <c r="N115" t="n">
-        <v>0.4155164101830656</v>
+        <v>0.4259416638933969</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03920387705311928</v>
+        <v>0.07987732850690148</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1753040768870351</v>
+        <v>0.1598016889917368</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0376780226009349</v>
+        <v>0.0815926726011359</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1983805887907431</v>
+        <v>0.2053422363656405</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03948528935687076</v>
+        <v>0.08213137309210942</v>
       </c>
       <c r="L116" t="n">
-        <v>0.3062256252572615</v>
+        <v>0.3116368497853264</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03783117440504719</v>
+        <v>0.08145824645457066</v>
       </c>
       <c r="N116" t="n">
-        <v>0.4122669181789541</v>
+        <v>0.4224885860538226</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03998795459418168</v>
+        <v>0.0814748750770395</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1735466239023838</v>
+        <v>0.1715250319260301</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03841680735781597</v>
+        <v>0.08319252892664837</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2000764130667102</v>
+        <v>0.2034885567716377</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0402595107168094</v>
+        <v>0.08374179217234685</v>
       </c>
       <c r="L117" t="n">
-        <v>0.3050010640625702</v>
+        <v>0.308761229456121</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03857296213847948</v>
+        <v>0.08305546697328774</v>
       </c>
       <c r="N117" t="n">
-        <v>0.4111574739302647</v>
+        <v>0.4199928976624474</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04077203213524406</v>
+        <v>0.08307242164717753</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1698224190036296</v>
+        <v>0.1691269297163633</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03915559211469705</v>
+        <v>0.08479238525216085</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1994487989587553</v>
+        <v>0.2029615912187802</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04103373207674804</v>
+        <v>0.0853522112525843</v>
       </c>
       <c r="L118" t="n">
-        <v>0.3040267068434638</v>
+        <v>0.3080758521326801</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03931474987191178</v>
+        <v>0.0846526874920048</v>
       </c>
       <c r="N118" t="n">
-        <v>0.407324927753261</v>
+        <v>0.4130124196964856</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04155610967630644</v>
+        <v>0.08466996821731557</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1701399749221981</v>
+        <v>0.1526310536436949</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03989437687157812</v>
+        <v>0.08639224157767331</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2000926574078283</v>
+        <v>0.2013899299931155</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04180795343668669</v>
+        <v>0.08696263033282174</v>
       </c>
       <c r="L119" t="n">
-        <v>0.3025387890935485</v>
+        <v>0.3034235571440863</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04005653760534408</v>
+        <v>0.08624990801072187</v>
       </c>
       <c r="N119" t="n">
-        <v>0.4071061299642065</v>
+        <v>0.4123049731331512</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04234018721736883</v>
+        <v>0.08626751478745359</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1685078043895151</v>
+        <v>0.1540610749889832</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0406331616284592</v>
+        <v>0.08799209790318577</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2010028993548793</v>
+        <v>0.1980021633806917</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04258217479662533</v>
+        <v>0.08857304941305917</v>
       </c>
       <c r="L120" t="n">
-        <v>0.30097354630643</v>
+        <v>0.3004471838194221</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04079832533877638</v>
+        <v>0.08784712852943895</v>
       </c>
       <c r="N120" t="n">
-        <v>0.4081379308793647</v>
+        <v>0.4060283789496584</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04312426475843122</v>
+        <v>0.08786506135759162</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1649344201370065</v>
+        <v>0.1634406650331864</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04137194638534027</v>
+        <v>0.08959195422869824</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2012744357408583</v>
+        <v>0.1958268816675564</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04335639615656397</v>
+        <v>0.09018346849329661</v>
       </c>
       <c r="L121" t="n">
-        <v>0.3012672139757138</v>
+        <v>0.2983895714877704</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04154011307220867</v>
+        <v>0.08944434904815601</v>
       </c>
       <c r="N121" t="n">
-        <v>0.4054571808149994</v>
+        <v>0.4042404581232212</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04390834229949361</v>
+        <v>0.08946260792772964</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1564283348960981</v>
+        <v>0.1457934950572628</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04211073114222136</v>
+        <v>0.0911918105542107</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2020021775067153</v>
+        <v>0.1938926751397575</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04413061751650262</v>
+        <v>0.09179388757353406</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3026084436726822</v>
+        <v>0.2952935594782136</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04228190080564097</v>
+        <v>0.09104156956687309</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4060051761041257</v>
+        <v>0.3991990316310537</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04469241984055599</v>
+        <v>0.09106015449786767</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1549980613982155</v>
+        <v>0.1521432363421708</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04284951589910243</v>
+        <v>0.09279166687972318</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2032810355934004</v>
+        <v>0.192828134083343</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04490483887644126</v>
+        <v>0.0934043066537715</v>
       </c>
       <c r="L123" t="n">
-        <v>0.3008406441995156</v>
+        <v>0.2923019871198346</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04302368853907327</v>
+        <v>0.09263879008559017</v>
       </c>
       <c r="N123" t="n">
-        <v>0.4081425354538252</v>
+        <v>0.3960619204503699</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04547649738161837</v>
+        <v>0.09265770106800571</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1576521123747846</v>
+        <v>0.1605135601688686</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04358830065598351</v>
+        <v>0.09439152320523565</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2050059209418636</v>
+        <v>0.1905618487843604</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0456790602363799</v>
+        <v>0.09501472573400893</v>
       </c>
       <c r="L124" t="n">
-        <v>0.3049411455990271</v>
+        <v>0.2893576937417159</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04376547627250557</v>
+        <v>0.09423601060430724</v>
       </c>
       <c r="N124" t="n">
-        <v>0.4082476167311376</v>
+        <v>0.3929869455583843</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04626057492268076</v>
+        <v>0.09425524763814373</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1663990005572312</v>
+        <v>0.1509281378183147</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04432708541286458</v>
+        <v>0.09599137953074811</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2043717444930547</v>
+        <v>0.1883224095288578</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04645328159631854</v>
+        <v>0.09662514481424637</v>
       </c>
       <c r="L125" t="n">
-        <v>0.3038873359834324</v>
+        <v>0.2860035186729402</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04450726400593787</v>
+        <v>0.0958332311230243</v>
       </c>
       <c r="N125" t="n">
-        <v>0.4104807949152269</v>
+        <v>0.3860319279323106</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04704465246374314</v>
+        <v>0.09585279420828176</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1522472386769811</v>
+        <v>0.1514106405714672</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04506587016974566</v>
+        <v>0.09759123585626059</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2057734171879241</v>
+        <v>0.1876384066028829</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04722750295625718</v>
+        <v>0.09823556389448382</v>
       </c>
       <c r="L126" t="n">
-        <v>0.3053566034649469</v>
+        <v>0.2852819220211713</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04524905173937016</v>
+        <v>0.09743045164174137</v>
       </c>
       <c r="N126" t="n">
-        <v>0.4114024449852572</v>
+        <v>0.382954646074564</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04782873000480553</v>
+        <v>0.09745034077841978</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1622065251291798</v>
+        <v>0.1558974911250304</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04580465492662673</v>
+        <v>0.09919109218177305</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2077058499674215</v>
+        <v>0.1851384302924836</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04800172431619582</v>
+        <v>0.09984598297472126</v>
       </c>
       <c r="L127" t="n">
-        <v>0.3068263361557864</v>
+        <v>0.2811784936919059</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04599083947280246</v>
+        <v>0.09902767216045845</v>
       </c>
       <c r="N127" t="n">
-        <v>0.4135729419203927</v>
+        <v>0.3815828939616328</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04861280754586792</v>
+        <v>0.09904788734855782</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1523590503139717</v>
+        <v>0.1522453112055127</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04654343968350781</v>
+        <v>0.1007909485072855</v>
       </c>
       <c r="J128" t="n">
-        <v>0.206863953772497</v>
+        <v>0.1827203171594663</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04877594567613447</v>
+        <v>0.1014564020549587</v>
       </c>
       <c r="L128" t="n">
-        <v>0.3070739221681664</v>
+        <v>0.2764283322724462</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04673262720623476</v>
+        <v>0.1006248926791755</v>
       </c>
       <c r="N128" t="n">
-        <v>0.4148526606997972</v>
+        <v>0.3729758755776355</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0493968850869303</v>
+        <v>0.1006454339186958</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1557341583102099</v>
+        <v>0.1504832582928508</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04728222444038889</v>
+        <v>0.102390804832798</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2090426395441007</v>
+        <v>0.1824352134414874</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04955016703607311</v>
+        <v>0.1030668211351961</v>
       </c>
       <c r="L129" t="n">
-        <v>0.3094767496143023</v>
+        <v>0.2746927622749238</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04747441493966706</v>
+        <v>0.1022221131978926</v>
       </c>
       <c r="N129" t="n">
-        <v>0.416401976302635</v>
+        <v>0.3719163616683928</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05018096262799269</v>
+        <v>0.1022429804888339</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1683082733453247</v>
+        <v>0.1496452178326713</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04802100919726996</v>
+        <v>0.1039906611583105</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2093368182231826</v>
+        <v>0.1781226940913904</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05032438839601175</v>
+        <v>0.1046772402154336</v>
       </c>
       <c r="L130" t="n">
-        <v>0.3116122066064098</v>
+        <v>0.2708331082114701</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04821620267309936</v>
+        <v>0.1038193337166097</v>
       </c>
       <c r="N130" t="n">
-        <v>0.4209812637080701</v>
+        <v>0.3662871229797253</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05096504016905507</v>
+        <v>0.1038405270589719</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1680578196467467</v>
+        <v>0.1407650752706004</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04875979395415104</v>
+        <v>0.1055905174838229</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2116414007506926</v>
+        <v>0.1762236861120281</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0510986097559504</v>
+        <v>0.106287659295671</v>
       </c>
       <c r="L131" t="n">
-        <v>0.3145576812567044</v>
+        <v>0.2694106945942171</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04895799040653165</v>
+        <v>0.1054165542353267</v>
       </c>
       <c r="N131" t="n">
-        <v>0.4233508978952664</v>
+        <v>0.3624709302574536</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05174911771011746</v>
+        <v>0.1054380736291099</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1609592214419062</v>
+        <v>0.1348767160522645</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04949857871103212</v>
+        <v>0.1071903738093354</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2110512980675808</v>
+        <v>0.1747791165062538</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05187283111588904</v>
+        <v>0.1078980783759085</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3140905616774017</v>
+        <v>0.2632868459352963</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04969977813996395</v>
+        <v>0.1070137747540438</v>
       </c>
       <c r="N132" t="n">
-        <v>0.427771253843388</v>
+        <v>0.3566505542473987</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05253319525117985</v>
+        <v>0.107035620199248</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1639889029582337</v>
+        <v>0.13301402562329</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05023736346791319</v>
+        <v>0.1087902301348479</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2122614211147972</v>
+        <v>0.1723299122769203</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05264705247582768</v>
+        <v>0.1095084974561459</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3182882359807173</v>
+        <v>0.2600228867468393</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05044156587339625</v>
+        <v>0.1086109952727609</v>
       </c>
       <c r="N133" t="n">
-        <v>0.428002706531599</v>
+        <v>0.3525087656953813</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05331727279224224</v>
+        <v>0.108633166769386</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1581232884231597</v>
+        <v>0.1272108894293032</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05097614822479427</v>
+        <v>0.1103900864603603</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2130666808332919</v>
+        <v>0.1701170004268809</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05342127383576632</v>
+        <v>0.1111189165363833</v>
       </c>
       <c r="L134" t="n">
-        <v>0.3213280922788666</v>
+        <v>0.2583801415409778</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05118335360682855</v>
+        <v>0.1102082157914779</v>
       </c>
       <c r="N134" t="n">
-        <v>0.4351056309390636</v>
+        <v>0.3484283353472217</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05410135033330461</v>
+        <v>0.110230713339524</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1633388020641146</v>
+        <v>0.1325011929159304</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05171493298167534</v>
+        <v>0.1119899427858728</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2138619881640147</v>
+        <v>0.1680813079589884</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05419549519570496</v>
+        <v>0.1127293356166208</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3233875186840651</v>
+        <v>0.2567199348298434</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05192514134026085</v>
+        <v>0.111805436310195</v>
       </c>
       <c r="N135" t="n">
-        <v>0.4362404020449455</v>
+        <v>0.343792033948741</v>
       </c>
       <c r="O135" t="n">
-        <v>0.054885427874367</v>
+        <v>0.1118282599096621</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1736118681085289</v>
+        <v>0.128918821528798</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05245371773855642</v>
+        <v>0.1135897991113853</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2149422540479159</v>
+        <v>0.1666637618760958</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0549697165556436</v>
+        <v>0.1143397546968582</v>
       </c>
       <c r="L136" t="n">
-        <v>0.3226439033085286</v>
+        <v>0.2509035911255677</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05266692907369314</v>
+        <v>0.1134026568289121</v>
       </c>
       <c r="N136" t="n">
-        <v>0.4380673948284092</v>
+        <v>0.3390826322457599</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05566950541542939</v>
+        <v>0.1134258064798001</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.177918910783833</v>
+        <v>0.1264976607135324</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05319250249543749</v>
+        <v>0.1151896554368977</v>
       </c>
       <c r="J137" t="n">
-        <v>0.2167023894259454</v>
+        <v>0.1646052891810563</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05574393791558224</v>
+        <v>0.1159501737770956</v>
       </c>
       <c r="L137" t="n">
-        <v>0.3252746342644724</v>
+        <v>0.2489924349402826</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05340871680712544</v>
+        <v>0.1149998773476292</v>
       </c>
       <c r="N137" t="n">
-        <v>0.4443469842686184</v>
+        <v>0.3364829009840989</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05645358295649178</v>
+        <v>0.1150233530499381</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1762363543174573</v>
+        <v>0.1342715959157599</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05393128725231857</v>
+        <v>0.1167895117624102</v>
       </c>
       <c r="J138" t="n">
-        <v>0.2167373052390531</v>
+        <v>0.1621468168767228</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05651815927552089</v>
+        <v>0.1175605928573331</v>
       </c>
       <c r="L138" t="n">
-        <v>0.3275570996641123</v>
+        <v>0.2461477907861195</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05415050454055773</v>
+        <v>0.1165970978663462</v>
       </c>
       <c r="N138" t="n">
-        <v>0.4484395453447373</v>
+        <v>0.3323756109095789</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05723766049755417</v>
+        <v>0.1166208996200761</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1725406229368324</v>
+        <v>0.1192745125811068</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05467007200919966</v>
+        <v>0.1183893680879227</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2179419124281893</v>
+        <v>0.1610292719659484</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05729238063545953</v>
+        <v>0.1191710119375705</v>
       </c>
       <c r="L139" t="n">
-        <v>0.3291686876196638</v>
+        <v>0.2463309831752102</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05489229227399004</v>
+        <v>0.1181943183850633</v>
       </c>
       <c r="N139" t="n">
-        <v>0.4489054530359299</v>
+        <v>0.3321435327680206</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05802173803861654</v>
+        <v>0.1182184461902142</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1758081408693886</v>
+        <v>0.1215402961551994</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05540885676608073</v>
+        <v>0.1199892244134352</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2189111219343036</v>
+        <v>0.160093581451586</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05806660199539817</v>
+        <v>0.120781431017808</v>
       </c>
       <c r="L140" t="n">
-        <v>0.3332867862433425</v>
+        <v>0.2451033366196863</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05563408000742234</v>
+        <v>0.1197915389037804</v>
       </c>
       <c r="N140" t="n">
-        <v>0.4517050823213603</v>
+        <v>0.3314694373052444</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05880581557967893</v>
+        <v>0.1198159927603522</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1660153323425563</v>
+        <v>0.1301028320836642</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0561476415229618</v>
+        <v>0.1215890807389476</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2195398446983464</v>
+        <v>0.1603806723364887</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05884082335533682</v>
+        <v>0.1223918500980454</v>
       </c>
       <c r="L141" t="n">
-        <v>0.3350887836473636</v>
+        <v>0.2440261756316794</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05637586774085462</v>
+        <v>0.1213887594224975</v>
       </c>
       <c r="N141" t="n">
-        <v>0.4548988081801925</v>
+        <v>0.3289360952670716</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05958989312074131</v>
+        <v>0.1214135393304902</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1731386215837663</v>
+        <v>0.1219902562901183</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05688642627984288</v>
+        <v>0.1231889370644601</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2212229916612675</v>
+        <v>0.1598314716235095</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05961504471527546</v>
+        <v>0.1240022691782829</v>
       </c>
       <c r="L142" t="n">
-        <v>0.336952067943943</v>
+        <v>0.2450169439378299</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05711765547428693</v>
+        <v>0.1229859799412145</v>
       </c>
       <c r="N142" t="n">
-        <v>0.4580470055915906</v>
+        <v>0.3267743689965878</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0603739706618037</v>
+        <v>0.1230110859006283</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1741544328204485</v>
+        <v>0.1310257385629161</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05762521103672396</v>
+        <v>0.1247887933899725</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2216554737640171</v>
+        <v>0.1585583173680592</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0603892660752141</v>
+        <v>0.1256126882585203</v>
       </c>
       <c r="L143" t="n">
-        <v>0.3365540272452962</v>
+        <v>0.2445996260093142</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05785944320771923</v>
+        <v>0.1245832004599316</v>
       </c>
       <c r="N143" t="n">
-        <v>0.463168792671274</v>
+        <v>0.3267828873788315</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06115804820286608</v>
+        <v>0.1246086324707663</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1690391902800338</v>
+        <v>0.1201104499550514</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05836399579360504</v>
+        <v>0.126388649715485</v>
       </c>
       <c r="J144" t="n">
-        <v>0.223571387599787</v>
+        <v>0.1594128481811355</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06116348743515274</v>
+        <v>0.1272231073387577</v>
       </c>
       <c r="L144" t="n">
-        <v>0.3393720496636388</v>
+        <v>0.242870648202053</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05860123094115152</v>
+        <v>0.1261804209786486</v>
       </c>
       <c r="N144" t="n">
-        <v>0.4643758595937333</v>
+        <v>0.3310107657999607</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06194212574392848</v>
+        <v>0.1262061790409043</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1827693181899525</v>
+        <v>0.1222419005763228</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0591027805504861</v>
+        <v>0.1279885060409975</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2232786618226713</v>
+        <v>0.1597258275800193</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06193770879509138</v>
+        <v>0.1288335264189952</v>
       </c>
       <c r="L145" t="n">
-        <v>0.3408835233111863</v>
+        <v>0.2457255044132336</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05934301867458382</v>
+        <v>0.1277776414973657</v>
       </c>
       <c r="N145" t="n">
-        <v>0.466101478365286</v>
+        <v>0.3302519222957226</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06272620328499086</v>
+        <v>0.1278037256110424</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.184321240777635</v>
+        <v>0.1184176005365292</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05984156530736719</v>
+        <v>0.1295883623665099</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2236559034342273</v>
+        <v>0.1585942482634494</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06271193015503003</v>
+        <v>0.1304439454992326</v>
       </c>
       <c r="L146" t="n">
-        <v>0.3397658363001541</v>
+        <v>0.2460596885400431</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06008480640801612</v>
+        <v>0.1293748620160828</v>
       </c>
       <c r="N146" t="n">
-        <v>0.464983250456394</v>
+        <v>0.3323002749018656</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06351028082605324</v>
+        <v>0.1294012721811804</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1806713822705118</v>
+        <v>0.1296350599454693</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06058035006424826</v>
+        <v>0.1311882186920224</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2251597947762168</v>
+        <v>0.1598151029301644</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06348615151496867</v>
+        <v>0.1320543645794701</v>
       </c>
       <c r="L147" t="n">
-        <v>0.340296376742758</v>
+        <v>0.2450686944796687</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06082659414144841</v>
+        <v>0.1309720825347999</v>
       </c>
       <c r="N147" t="n">
-        <v>0.4691074054296307</v>
+        <v>0.3306497416541376</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06429435836711564</v>
+        <v>0.1309988187513184</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1887962031154639</v>
+        <v>0.1268917889129418</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06131913482112934</v>
+        <v>0.1327880750175349</v>
       </c>
       <c r="J148" t="n">
-        <v>0.2260838359347702</v>
+        <v>0.1591853842789032</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06426037287490731</v>
+        <v>0.1336647836597075</v>
       </c>
       <c r="L148" t="n">
-        <v>0.3433700901355304</v>
+        <v>0.2464480161292972</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06156838187488072</v>
+        <v>0.1325693030535169</v>
       </c>
       <c r="N148" t="n">
-        <v>0.4725601728475688</v>
+        <v>0.3308942405882859</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06507843590817801</v>
+        <v>0.1325963653214564</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1717962031154638</v>
+        <v>0.1331852975487456</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06205791957801041</v>
+        <v>0.1343879313430474</v>
       </c>
       <c r="J149" t="n">
-        <v>0.2262215269960174</v>
+        <v>0.1588020850084045</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06503459423484595</v>
+        <v>0.1352752027399449</v>
       </c>
       <c r="L149" t="n">
-        <v>0.3405654910806801</v>
+        <v>0.2443931473861161</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06231016960831302</v>
+        <v>0.134166523572234</v>
       </c>
       <c r="N149" t="n">
-        <v>0.471427782272782</v>
+        <v>0.3302276897400589</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06586251344924041</v>
+        <v>0.1341939118915945</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1867962031154639</v>
+        <v>0.1255130959626793</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06279670433489148</v>
+        <v>0.1359877876685598</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2274663680460882</v>
+        <v>0.160762197817407</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06580881559478459</v>
+        <v>0.1368856218201824</v>
       </c>
       <c r="L150" t="n">
-        <v>0.3422555860330599</v>
+        <v>0.2480995821473124</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0630519573417453</v>
+        <v>0.1357637440909511</v>
       </c>
       <c r="N150" t="n">
-        <v>0.4747964632678432</v>
+        <v>0.334944007145204</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06664659099030279</v>
+        <v>0.1357914584617325</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1757962031154638</v>
+        <v>0.1258726942645418</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06353548909177258</v>
+        <v>0.1375876439940723</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2280118591711127</v>
+        <v>0.1612627154046496</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06658303695472323</v>
+        <v>0.1384960409004198</v>
       </c>
       <c r="L151" t="n">
-        <v>0.3433368141182081</v>
+        <v>0.2457628143100732</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06379374507517761</v>
+        <v>0.1373609646096682</v>
       </c>
       <c r="N151" t="n">
-        <v>0.4785524453953255</v>
+        <v>0.3322371108394693</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06743066853136517</v>
+        <v>0.1373890050318705</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1827962031154639</v>
+        <v>0.1312616025641318</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06427427384865365</v>
+        <v>0.1391875003195848</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2288515004572207</v>
+        <v>0.1608006304688711</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06735725831466188</v>
+        <v>0.1401064599806572</v>
       </c>
       <c r="L152" t="n">
-        <v>0.34130870034321</v>
+        <v>0.2487783377715857</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06453553280860991</v>
+        <v>0.1389581851283853</v>
       </c>
       <c r="N152" t="n">
-        <v>0.4796819582178025</v>
+        <v>0.3351009188586026</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06821474607242757</v>
+        <v>0.1389865516020086</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1707962031154638</v>
+        <v>0.1346773309712481</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06501305860553472</v>
+        <v>0.1407873566450972</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2293787919905426</v>
+        <v>0.1612729357088101</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06813147967460052</v>
+        <v>0.1417168790608947</v>
       </c>
       <c r="L153" t="n">
-        <v>0.3430707697151507</v>
+        <v>0.2483416464290369</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0652773205420422</v>
+        <v>0.1405554056471023</v>
       </c>
       <c r="N153" t="n">
-        <v>0.4802712312978469</v>
+        <v>0.3374293492383516</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06899882361348994</v>
+        <v>0.1405840981721466</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1827962031154639</v>
+        <v>0.1311173895956894</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0657518433624158</v>
+        <v>0.1423872129706097</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2305872338572079</v>
+        <v>0.1631766238232055</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06890570103453916</v>
+        <v>0.1433272981411321</v>
       </c>
       <c r="L154" t="n">
-        <v>0.343422547241116</v>
+        <v>0.2480511855172697</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06601910827547451</v>
+        <v>0.1421526261658194</v>
       </c>
       <c r="N154" t="n">
-        <v>0.484906494198032</v>
+        <v>0.336618475216437</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06978290115455234</v>
+        <v>0.1421816447422846</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1737962031154638</v>
+        <v>0.1327558131671787</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06649062811929687</v>
+        <v>0.1439870692961222</v>
       </c>
       <c r="J155" t="n">
-        <v>0.2309703261433468</v>
+        <v>0.1633176899104704</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0696799223944778</v>
+        <v>0.1449377172213696</v>
       </c>
       <c r="L155" t="n">
-        <v>0.3422635579281915</v>
+        <v>0.2494503182813892</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06676089600890681</v>
+        <v>0.1437498466845365</v>
       </c>
       <c r="N155" t="n">
-        <v>0.4884739764809313</v>
+        <v>0.3392475491814771</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07056697869561472</v>
+        <v>0.1437791913124226</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1797962031154638</v>
+        <v>0.1258002029010526</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06722941287617795</v>
+        <v>0.1455869256216346</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2317215689350894</v>
+        <v>0.1630231977018294</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07045414375441644</v>
+        <v>0.146548136301607</v>
       </c>
       <c r="L156" t="n">
-        <v>0.3454933267834622</v>
+        <v>0.2524647533180976</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0675026837423391</v>
+        <v>0.1453470672032535</v>
       </c>
       <c r="N156" t="n">
-        <v>0.4877599077091175</v>
+        <v>0.3393459662761596</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0713510562366771</v>
+        <v>0.1453767378825607</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1827962031154639</v>
+        <v>0.1271775227358011</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06796819763305902</v>
+        <v>0.1471867819471471</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2322344623185654</v>
+        <v>0.1652924909342431</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07122836511435508</v>
+        <v>0.1481585553818444</v>
       </c>
       <c r="L157" t="n">
-        <v>0.3429113788140137</v>
+        <v>0.2572584622593413</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0682444714757714</v>
+        <v>0.1469442877219706</v>
       </c>
       <c r="N157" t="n">
-        <v>0.4888505174451643</v>
+        <v>0.3434301266790564</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07213513377773949</v>
+        <v>0.1469742844526987</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1877962031154639</v>
+        <v>0.1378126088958131</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06870698238994011</v>
+        <v>0.1487866382726596</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2324025063799049</v>
+        <v>0.1677347864410151</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07200258647429374</v>
+        <v>0.1497689744620819</v>
       </c>
       <c r="L158" t="n">
-        <v>0.3452172390269316</v>
+        <v>0.2575954167370665</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06898625920920369</v>
+        <v>0.1485415082406877</v>
       </c>
       <c r="N158" t="n">
-        <v>0.4931320352516445</v>
+        <v>0.3504164305687382</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07291921131880187</v>
+        <v>0.1485718310228367</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1757962031154638</v>
+        <v>0.1446302976054774</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06944576714682119</v>
+        <v>0.150386494598172</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2314192012052379</v>
+        <v>0.169059301055449</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07277680783423238</v>
+        <v>0.1513793935423193</v>
       </c>
       <c r="L159" t="n">
-        <v>0.3459104324293015</v>
+        <v>0.2636395883832198</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06972804694263599</v>
+        <v>0.1501387287594047</v>
       </c>
       <c r="N159" t="n">
-        <v>0.4926906906911314</v>
+        <v>0.3555212781237763</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07370328885986427</v>
+        <v>0.1501693775929747</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1817962031154639</v>
+        <v>0.134555425089183</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07018455190370226</v>
+        <v>0.1519863509236845</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2329780468806943</v>
+        <v>0.1718752516108483</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07355102919417102</v>
+        <v>0.1529898126225568</v>
       </c>
       <c r="L160" t="n">
-        <v>0.3462904840282083</v>
+        <v>0.2663549488297471</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07046983467606828</v>
+        <v>0.1517359492781218</v>
       </c>
       <c r="N160" t="n">
-        <v>0.4977127133261982</v>
+        <v>0.3572610695227422</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07448736640092664</v>
+        <v>0.1517669241631128</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1807962031154638</v>
+        <v>0.1345128275713187</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07092333666058333</v>
+        <v>0.153586207249197</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2342725434924041</v>
+        <v>0.1739918549405166</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07432525055410967</v>
+        <v>0.1546002317027942</v>
       </c>
       <c r="L161" t="n">
-        <v>0.344856918830738</v>
+        <v>0.269705469708595</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07121162240950059</v>
+        <v>0.1533331697968389</v>
       </c>
       <c r="N161" t="n">
-        <v>0.498184332719418</v>
+        <v>0.3639522049442067</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07527144394198904</v>
+        <v>0.1533644707332508</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1787962031154638</v>
+        <v>0.1494273412762734</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07166212141746441</v>
+        <v>0.1551860635747095</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2337961911264974</v>
+        <v>0.1748183278777575</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07509947191404831</v>
+        <v>0.1562106507830316</v>
       </c>
       <c r="L162" t="n">
-        <v>0.3446092618439759</v>
+        <v>0.2709551226517099</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07195341014293288</v>
+        <v>0.154930390315556</v>
       </c>
       <c r="N162" t="n">
-        <v>0.5000917784333642</v>
+        <v>0.3660110845667415</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07605552148305142</v>
+        <v>0.1549620173033888</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1857962031154639</v>
+        <v>0.151223802428436</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07240090617434548</v>
+        <v>0.1567859199002219</v>
       </c>
       <c r="J163" t="n">
-        <v>0.232942489869104</v>
+        <v>0.1784638872558745</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07587369327398695</v>
+        <v>0.1578210698632691</v>
       </c>
       <c r="L163" t="n">
-        <v>0.3446470380750072</v>
+        <v>0.2755678792910378</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07269519787636518</v>
+        <v>0.156527610834273</v>
       </c>
       <c r="N163" t="n">
-        <v>0.4997212800306098</v>
+        <v>0.3720541085689175</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0768395990241138</v>
+        <v>0.1565595638735269</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1727962031154638</v>
+        <v>0.1408270472521955</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07313969093122656</v>
+        <v>0.1583857762257344</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2334049398063539</v>
+        <v>0.1799377499081714</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07664791463392559</v>
+        <v>0.1594314889435065</v>
       </c>
       <c r="L164" t="n">
-        <v>0.3468697725309177</v>
+        <v>0.2768077112585251</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07343698560979749</v>
+        <v>0.1581248313529901</v>
       </c>
       <c r="N164" t="n">
-        <v>0.4978590670737281</v>
+        <v>0.374697677129306</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07762367656517619</v>
+        <v>0.1581571104436649</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1877962031154639</v>
+        <v>0.1462232857860979</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07387847568810764</v>
+        <v>0.1599856325512468</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2351770410243772</v>
+        <v>0.1819491659497192</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07742213599386423</v>
+        <v>0.161041908023744</v>
       </c>
       <c r="L165" t="n">
-        <v>0.3466769902187928</v>
+        <v>0.2803139882139643</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07417877334322978</v>
+        <v>0.1597220518717072</v>
       </c>
       <c r="N165" t="n">
-        <v>0.501991369125292</v>
+        <v>0.3769830196178036</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07840775410623857</v>
+        <v>0.159754657013803</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1807962031154638</v>
+        <v>0.1495716072444201</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07461726044498872</v>
+        <v>0.1615854888767593</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2333512266029653</v>
+        <v>0.1823825971333811</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07819635735380288</v>
+        <v>0.1626523271039814</v>
       </c>
       <c r="L166" t="n">
-        <v>0.3442682161457176</v>
+        <v>0.2817525072410194</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07492056107666208</v>
+        <v>0.1613192723904243</v>
       </c>
       <c r="N166" t="n">
-        <v>0.4988044157478752</v>
+        <v>0.3806745942548162</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07919183164730097</v>
+        <v>0.161352203583941</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1797962031154638</v>
+        <v>0.1488880813454675</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0753560452018698</v>
+        <v>0.1631853452022718</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2329244381752446</v>
+        <v>0.1850759640613898</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07897057871374152</v>
+        <v>0.1642627461842188</v>
       </c>
       <c r="L167" t="n">
-        <v>0.3454429753187779</v>
+        <v>0.2874339929689249</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07566234881009437</v>
+        <v>0.1629164929091413</v>
       </c>
       <c r="N167" t="n">
-        <v>0.5001844365040504</v>
+        <v>0.3858890892863067</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07997590918836335</v>
+        <v>0.162949750154079</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1797962031154638</v>
+        <v>0.156175092510429</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07609482995875086</v>
+        <v>0.1647852015277843</v>
       </c>
       <c r="J168" t="n">
-        <v>0.2349018862456158</v>
+        <v>0.1854321466490306</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07974480007368016</v>
+        <v>0.1658731652644563</v>
       </c>
       <c r="L168" t="n">
-        <v>0.3446007927450592</v>
+        <v>0.2892627606269316</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07640413654352667</v>
+        <v>0.1645137134278584</v>
       </c>
       <c r="N168" t="n">
-        <v>0.5007973469548653</v>
+        <v>0.3907323290512067</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08075998672942573</v>
+        <v>0.164547296724217</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1887962031154639</v>
+        <v>0.1514350251604937</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07683361471563194</v>
+        <v>0.1663850578532967</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2330890324820054</v>
+        <v>0.1874540248115886</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0805190214336188</v>
+        <v>0.1674835843446937</v>
       </c>
       <c r="L169" t="n">
-        <v>0.3451411934316468</v>
+        <v>0.2920431254442902</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07714592427695896</v>
+        <v>0.1661109339465755</v>
       </c>
       <c r="N169" t="n">
-        <v>0.5023982042820098</v>
+        <v>0.3894101378884477</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08154406427048812</v>
+        <v>0.1661448432943551</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1767962031154638</v>
+        <v>0.1546702637168508</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07757239947251302</v>
+        <v>0.1679849141788092</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2337913385523396</v>
+        <v>0.1892444784643492</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08129324279355744</v>
+        <v>0.1690940034249312</v>
       </c>
       <c r="L170" t="n">
-        <v>0.344763702385626</v>
+        <v>0.2934794026502512</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07788771201039127</v>
+        <v>0.1677081544652925</v>
       </c>
       <c r="N170" t="n">
-        <v>0.4989025788030389</v>
+        <v>0.3932283401369612</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0823281418115505</v>
+        <v>0.1677423898644931</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1707962031154638</v>
+        <v>0.1448831926006892</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07831118422939409</v>
+        <v>0.1695847705043217</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2327142661245447</v>
+        <v>0.1914063875225979</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08206746415349608</v>
+        <v>0.1707044225051686</v>
       </c>
       <c r="L171" t="n">
-        <v>0.3442662957731751</v>
+        <v>0.2945759074740651</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07862949974382356</v>
+        <v>0.1693053749840096</v>
       </c>
       <c r="N171" t="n">
-        <v>0.5002283004944721</v>
+        <v>0.3989927601356785</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08311221935261288</v>
+        <v>0.1693399364346311</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1757962031154638</v>
+        <v>0.1640761962331982</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07904996898627517</v>
+        <v>0.1711846268298341</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2315632768665472</v>
+        <v>0.1931426319016197</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08284168551343474</v>
+        <v>0.1723148415854061</v>
       </c>
       <c r="L172" t="n">
-        <v>0.3448208146096345</v>
+        <v>0.2979369551449828</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07937128747725586</v>
+        <v>0.1709025955027267</v>
       </c>
       <c r="N172" t="n">
-        <v>0.4990931993328287</v>
+        <v>0.399509222223531</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08389629689367528</v>
+        <v>0.1709374830047692</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1757962031154638</v>
+        <v>0.1472516590355668</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07978875374315625</v>
+        <v>0.1727844831553466</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2316438324462732</v>
+        <v>0.1930560915167001</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08361590687337338</v>
+        <v>0.1739252606656435</v>
       </c>
       <c r="L173" t="n">
-        <v>0.3462182452906137</v>
+        <v>0.2989668608922547</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08011307521068817</v>
+        <v>0.1724998160214437</v>
       </c>
       <c r="N173" t="n">
-        <v>0.4965151052946285</v>
+        <v>0.4016835507394503</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08468037443473767</v>
+        <v>0.1725350295749072</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1837962031154639</v>
+        <v>0.1554119654289839</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08052753850003733</v>
+        <v>0.1743843394808591</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2302613945316491</v>
+        <v>0.1958496462831242</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08439012823331202</v>
+        <v>0.1755356797458809</v>
       </c>
       <c r="L174" t="n">
-        <v>0.3470603271771104</v>
+        <v>0.3026699399451316</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08085486294412046</v>
+        <v>0.1740970365401608</v>
       </c>
       <c r="N174" t="n">
-        <v>0.4935118483563909</v>
+        <v>0.405521570022368</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08546445197580005</v>
+        <v>0.1741325761450452</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1887962031154639</v>
+        <v>0.1565594998346389</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0812663232569184</v>
+        <v>0.1759841958063715</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2298214247906014</v>
+        <v>0.1971261761161776</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08516434959325066</v>
+        <v>0.1771460988261183</v>
       </c>
       <c r="L175" t="n">
-        <v>0.3454487996301221</v>
+        <v>0.3017505075328639</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08159665067755276</v>
+        <v>0.1756942570588779</v>
       </c>
       <c r="N175" t="n">
-        <v>0.4945012584946353</v>
+        <v>0.4084291044112152</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08624852951686243</v>
+        <v>0.1757301227151832</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1717962031154638</v>
+        <v>0.1546976897592119</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08200510801379947</v>
+        <v>0.177584052131884</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2296293848910563</v>
+        <v>0.1970885609311454</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0859385709531893</v>
+        <v>0.1787565179063558</v>
       </c>
       <c r="L176" t="n">
-        <v>0.3432854020106469</v>
+        <v>0.30542060500656</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08233843841098505</v>
+        <v>0.177291477577595</v>
       </c>
       <c r="N176" t="n">
-        <v>0.4906011656858812</v>
+        <v>0.4110211506348219</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08703260705792482</v>
+        <v>0.1773276692853213</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1867962031154639</v>
+        <v>0.1688858681962529</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08274389277068055</v>
+        <v>0.1791839084573965</v>
       </c>
       <c r="J177" t="n">
-        <v>0.22869073650094</v>
+        <v>0.1997587523514078</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08671279231312794</v>
+        <v>0.1803669369865932</v>
       </c>
       <c r="L177" t="n">
-        <v>0.343471873679682</v>
+        <v>0.3061967479531838</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08308022614441735</v>
+        <v>0.178888698096312</v>
       </c>
       <c r="N177" t="n">
-        <v>0.489929399906648</v>
+        <v>0.4162541176411308</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08781668459898721</v>
+        <v>0.1789252158554593</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1767962031154638</v>
+        <v>0.1651280073396436</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08348267752756162</v>
+        <v>0.1807837647829089</v>
       </c>
       <c r="J178" t="n">
-        <v>0.228110941288179</v>
+        <v>0.2017086165578809</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08748701367306659</v>
+        <v>0.1819773560668307</v>
       </c>
       <c r="L178" t="n">
-        <v>0.3438099539982253</v>
+        <v>0.3107600653000348</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08382201387784964</v>
+        <v>0.1804859186150291</v>
       </c>
       <c r="N178" t="n">
-        <v>0.4866037911334553</v>
+        <v>0.4182064979649541</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08860076214004958</v>
+        <v>0.1805227624255973</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1777962031154638</v>
+        <v>0.1603831470388266</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08422146228444272</v>
+        <v>0.1823836211084214</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2259954609206997</v>
+        <v>0.2015019857423114</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08826123503300523</v>
+        <v>0.1835877751470681</v>
       </c>
       <c r="L179" t="n">
-        <v>0.3443013823272743</v>
+        <v>0.3137364290194795</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08456380161128195</v>
+        <v>0.1820831391337462</v>
       </c>
       <c r="N179" t="n">
-        <v>0.4825421693428228</v>
+        <v>0.4201782397360012</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08938483968111198</v>
+        <v>0.1821203089957353</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1787962031154638</v>
+        <v>0.1716103271432445</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08496024704132378</v>
+        <v>0.1839834774339339</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2261497570664283</v>
+        <v>0.202789388039486</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08903545639294387</v>
+        <v>0.1851981942273056</v>
       </c>
       <c r="L180" t="n">
-        <v>0.3442478980278267</v>
+        <v>0.3159517110838838</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08530558934471424</v>
+        <v>0.1836803596524633</v>
       </c>
       <c r="N180" t="n">
-        <v>0.4803623645112693</v>
+        <v>0.4219692910839802</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09016891722217436</v>
+        <v>0.1837178555658734</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1767962031154638</v>
+        <v>0.17376858750234</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08569903179820486</v>
+        <v>0.1855833337594464</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2242792913932911</v>
+        <v>0.2059213515841912</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08980967775288251</v>
+        <v>0.186808613307543</v>
       </c>
       <c r="L181" t="n">
-        <v>0.3436512404608802</v>
+        <v>0.316731783465614</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08604737707814654</v>
+        <v>0.1852775801711803</v>
       </c>
       <c r="N181" t="n">
-        <v>0.4765822066153151</v>
+        <v>0.4249796001386004</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09095299476323675</v>
+        <v>0.1853154021360114</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1847962031154639</v>
+        <v>0.1658169679655556</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08643781655508594</v>
+        <v>0.1871831900849588</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2245895255692146</v>
+        <v>0.2069484045112137</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09058389911282115</v>
+        <v>0.1884190323877804</v>
       </c>
       <c r="L182" t="n">
-        <v>0.3427131489874323</v>
+        <v>0.3171025181370365</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08678916481157883</v>
+        <v>0.1868748006898974</v>
       </c>
       <c r="N182" t="n">
-        <v>0.4758195256314792</v>
+        <v>0.4275091150295707</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09173707230429913</v>
+        <v>0.1869129487061494</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1767962031154638</v>
+        <v>0.1647145083823339</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08717660131196701</v>
+        <v>0.1887830464104713</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2215859212621249</v>
+        <v>0.20652107495534</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09135812047275979</v>
+        <v>0.1900294514680179</v>
       </c>
       <c r="L183" t="n">
-        <v>0.3413353629684808</v>
+        <v>0.3193897870705177</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08753095254501114</v>
+        <v>0.1884720212086145</v>
       </c>
       <c r="N183" t="n">
-        <v>0.4742921515362811</v>
+        <v>0.4322577838865999</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09252114984536151</v>
+        <v>0.1885104952762875</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1867962031154639</v>
+        <v>0.1604202486021176</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08791538606884808</v>
+        <v>0.1903829027359838</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2207739401399485</v>
+        <v>0.2085898910513567</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09213234183269843</v>
+        <v>0.1916398705482553</v>
       </c>
       <c r="L184" t="n">
-        <v>0.3417196217650234</v>
+        <v>0.3203194622384238</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08827274027844344</v>
+        <v>0.1900692417273315</v>
       </c>
       <c r="N184" t="n">
-        <v>0.4705179143062405</v>
+        <v>0.4311255548393967</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09330522738642391</v>
+        <v>0.1901080418464255</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1777962031154638</v>
+        <v>0.1749182429559785</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08865417082572917</v>
+        <v>0.1919827590614962</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2216590438706117</v>
+        <v>0.2096053809340505</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09290656319263708</v>
+        <v>0.1932502896284927</v>
       </c>
       <c r="L185" t="n">
-        <v>0.3415676647380575</v>
+        <v>0.3205939065130388</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08901452801187573</v>
+        <v>0.1916664622460486</v>
       </c>
       <c r="N185" t="n">
-        <v>0.4664146439178766</v>
+        <v>0.4358097794444058</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09408930492748628</v>
+        <v>0.1917055884165635</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1797887112916851</v>
+        <v>0.1683700128408682</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08939295558261025</v>
+        <v>0.1935826153870087</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2193466941220408</v>
+        <v>0.2088506739167943</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09368078455257572</v>
+        <v>0.1948607087087302</v>
       </c>
       <c r="L186" t="n">
-        <v>0.3412812312485811</v>
+        <v>0.3226119331565474</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08975631574530803</v>
+        <v>0.1932636827647657</v>
       </c>
       <c r="N186" t="n">
-        <v>0.461200170347709</v>
+        <v>0.4355138124042799</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09487338246854868</v>
+        <v>0.1933031349867015</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1857226355254269</v>
+        <v>0.1748120548612825</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09013174033949133</v>
+        <v>0.1951824717125212</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2178423525621621</v>
+        <v>0.2112835492784011</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09445500591251436</v>
+        <v>0.1964711277889676</v>
       </c>
       <c r="L187" t="n">
-        <v>0.3396620606575916</v>
+        <v>0.3220122905359865</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09049810347874032</v>
+        <v>0.1948609032834827</v>
       </c>
       <c r="N187" t="n">
-        <v>0.4585923235722572</v>
+        <v>0.4379940075843511</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09565746000961106</v>
+        <v>0.1949006815568396</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1825917906269913</v>
+        <v>0.1672442182783248</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09087052509637239</v>
+        <v>0.1967823280380336</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2181514808589021</v>
+        <v>0.2101046634239295</v>
       </c>
       <c r="K188" t="n">
-        <v>0.095229227272453</v>
+        <v>0.1980815468692051</v>
       </c>
       <c r="L188" t="n">
-        <v>0.3388118923260866</v>
+        <v>0.3259947058501833</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09123989121217262</v>
+        <v>0.1964581238021998</v>
       </c>
       <c r="N188" t="n">
-        <v>0.4551089335680408</v>
+        <v>0.4359499967801983</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09644153755067345</v>
+        <v>0.1964982281269776</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1874003663499302</v>
+        <v>0.1796663523530986</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09160930985325347</v>
+        <v>0.1983821843635461</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2173795406801869</v>
+        <v>0.2108138342902213</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09600344863239164</v>
+        <v>0.1996919659494425</v>
       </c>
       <c r="L189" t="n">
-        <v>0.3368324656150639</v>
+        <v>0.3263589062979651</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09198167894560492</v>
+        <v>0.1980553443209169</v>
       </c>
       <c r="N189" t="n">
-        <v>0.4545678303115791</v>
+        <v>0.4389814117874</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09722561509173584</v>
+        <v>0.1980957746971156</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1741525524477951</v>
+        <v>0.172078306346707</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09234809461013455</v>
+        <v>0.1999820406890586</v>
       </c>
       <c r="J190" t="n">
-        <v>0.214831993693943</v>
+        <v>0.2129108798141181</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09677766999233028</v>
+        <v>0.20130238502968</v>
       </c>
       <c r="L190" t="n">
-        <v>0.3379255198855212</v>
+        <v>0.3245046190781597</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09272346667903722</v>
+        <v>0.199652564839634</v>
       </c>
       <c r="N190" t="n">
-        <v>0.4531868437793917</v>
+        <v>0.439587884401535</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09800969263279821</v>
+        <v>0.1996933212672537</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1838525386741378</v>
+        <v>0.1654799295202535</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09308687936701562</v>
+        <v>0.201581897014571</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2143143015680967</v>
+        <v>0.2123956179324614</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09755189135226894</v>
+        <v>0.2029128041099174</v>
       </c>
       <c r="L191" t="n">
-        <v>0.3359927944984558</v>
+        <v>0.3276315713895946</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09346525441246951</v>
+        <v>0.201249785358351</v>
       </c>
       <c r="N191" t="n">
-        <v>0.4476838039479979</v>
+        <v>0.4413690464181814</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09879377017386061</v>
+        <v>0.2012908678373917</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1755045147825098</v>
+        <v>0.1728710711348413</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0938256641238967</v>
+        <v>0.2031817533400835</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2145319259705742</v>
+        <v>0.2124678665820929</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09832611271220758</v>
+        <v>0.2045232231901548</v>
       </c>
       <c r="L192" t="n">
-        <v>0.3349360288148658</v>
+        <v>0.3286394904310974</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09420704214590182</v>
+        <v>0.2028470058770681</v>
       </c>
       <c r="N192" t="n">
-        <v>0.4479765407939175</v>
+        <v>0.4437245296329183</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09957784771492299</v>
+        <v>0.2028884144075297</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1871126705264629</v>
+        <v>0.1662515804515741</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09456444888077778</v>
+        <v>0.204781609665596</v>
       </c>
       <c r="J193" t="n">
-        <v>0.212090328569302</v>
+        <v>0.2126274436998543</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09910033407214622</v>
+        <v>0.2061336422703923</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3343569621957487</v>
+        <v>0.3286281034014953</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09494882987933412</v>
+        <v>0.2044442263957852</v>
       </c>
       <c r="N193" t="n">
-        <v>0.4425828842936694</v>
+        <v>0.4426539658413239</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1003619252559854</v>
+        <v>0.2044859609776678</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1686811956595486</v>
+        <v>0.1776213067315548</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09530323363765886</v>
+        <v>0.2063814659911085</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2132949710322064</v>
+        <v>0.2141741672225873</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09987455543208486</v>
+        <v>0.2077440613506297</v>
       </c>
       <c r="L194" t="n">
-        <v>0.3348573340021019</v>
+        <v>0.3288971374996162</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09569061761276641</v>
+        <v>0.2060414469145023</v>
       </c>
       <c r="N194" t="n">
-        <v>0.4403206644237737</v>
+        <v>0.4411569868389773</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1011460027970478</v>
+        <v>0.2060835075478058</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1812142799353189</v>
+        <v>0.167980099235887</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09604201839453992</v>
+        <v>0.2079813223166209</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2124513150272136</v>
+        <v>0.2145078550871332</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1006487767920235</v>
+        <v>0.2093544804308672</v>
       </c>
       <c r="L195" t="n">
-        <v>0.3333388835949233</v>
+        <v>0.3308463199242874</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09643240534619872</v>
+        <v>0.2076386674332193</v>
       </c>
       <c r="N195" t="n">
-        <v>0.4362077111607499</v>
+        <v>0.4442332244214567</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1019300803381101</v>
+        <v>0.2076810541179438</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1737161131073252</v>
+        <v>0.1693278072256739</v>
       </c>
       <c r="G196" t="n">
-        <v>0.096780803151421</v>
+        <v>0.2095811786421334</v>
       </c>
       <c r="J196" t="n">
-        <v>0.2103648222222502</v>
+        <v>0.2139283252303339</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1014229981519621</v>
+        <v>0.2109648995111046</v>
       </c>
       <c r="L196" t="n">
-        <v>0.3304033503352106</v>
+        <v>0.3297753778743366</v>
       </c>
       <c r="M196" t="n">
-        <v>0.097174193079631</v>
+        <v>0.2092358879519364</v>
       </c>
       <c r="N196" t="n">
-        <v>0.4362618544811169</v>
+        <v>0.4463823103843408</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1027141578791725</v>
+        <v>0.2092786006880819</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1741908849291192</v>
+        <v>0.167664279962019</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09751958790830208</v>
+        <v>0.2111810349676458</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2109409542852422</v>
+        <v>0.215735395589031</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1021972195119008</v>
+        <v>0.212575318591342</v>
       </c>
       <c r="L197" t="n">
-        <v>0.3314524735839613</v>
+        <v>0.3289840385485911</v>
       </c>
       <c r="M197" t="n">
-        <v>0.0979159808130633</v>
+        <v>0.2108331084706535</v>
       </c>
       <c r="N197" t="n">
-        <v>0.4321009243613947</v>
+        <v>0.4437038765232085</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1034982354202349</v>
+        <v>0.2108761472582199</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1756427851542525</v>
+        <v>0.1799893667060256</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09825837266518316</v>
+        <v>0.2127808912931583</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2107851728841161</v>
+        <v>0.2159288841000661</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1029714408718394</v>
+        <v>0.2141857376715795</v>
       </c>
       <c r="L198" t="n">
-        <v>0.331087992702173</v>
+        <v>0.3324720291458788</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09865776854649561</v>
+        <v>0.2124303289893705</v>
       </c>
       <c r="N198" t="n">
-        <v>0.4338427507781023</v>
+        <v>0.448097554633638</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1042823129612973</v>
+        <v>0.2124736938283579</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.179076003536277</v>
+        <v>0.1723029167187969</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09899715742206423</v>
+        <v>0.2143807476186708</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2099029396867983</v>
+        <v>0.2155086087002808</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1037456622317781</v>
+        <v>0.2157961567518169</v>
       </c>
       <c r="L199" t="n">
-        <v>0.3273116470508435</v>
+        <v>0.3327390768650265</v>
       </c>
       <c r="M199" t="n">
-        <v>0.0993995562799279</v>
+        <v>0.2140275495080876</v>
       </c>
       <c r="N199" t="n">
-        <v>0.4302051637077597</v>
+        <v>0.4470629765112079</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1050663905023597</v>
+        <v>0.2140712403984959</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1764947298287441</v>
+        <v>0.1716047792614364</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09973594217894531</v>
+        <v>0.2159806039441833</v>
       </c>
       <c r="J200" t="n">
-        <v>0.209699716361215</v>
+        <v>0.2168743873265167</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1045198835917167</v>
+        <v>0.2174065758320544</v>
       </c>
       <c r="L200" t="n">
-        <v>0.3288251759909706</v>
+        <v>0.3326849089048625</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1001413440133602</v>
+        <v>0.2156247700268047</v>
       </c>
       <c r="N200" t="n">
-        <v>0.4306059931268862</v>
+        <v>0.4504997739514972</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1058504680434221</v>
+        <v>0.215668786968634</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1779031537852058</v>
+        <v>0.1708948035950474</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1004747269358264</v>
+        <v>0.2175804602696957</v>
       </c>
       <c r="J201" t="n">
-        <v>0.2091809645752926</v>
+        <v>0.2162260379156156</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1052941049516554</v>
+        <v>0.2190169949122918</v>
       </c>
       <c r="L201" t="n">
-        <v>0.3267303188835515</v>
+        <v>0.333909252464214</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1008831317467925</v>
+        <v>0.2172219905455218</v>
       </c>
       <c r="N201" t="n">
-        <v>0.427063069012001</v>
+        <v>0.4497075787500843</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1066345455844845</v>
+        <v>0.217266333538772</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1683054651592134</v>
+        <v>0.1791728389807332</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1012135116927075</v>
+        <v>0.2191803165952082</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2084521459969575</v>
+        <v>0.2163633784044189</v>
       </c>
       <c r="K202" t="n">
-        <v>0.106068326311594</v>
+        <v>0.2206274139925292</v>
       </c>
       <c r="L202" t="n">
-        <v>0.3257288150895841</v>
+        <v>0.3345118347419085</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1016249194802248</v>
+        <v>0.2188192110642388</v>
       </c>
       <c r="N202" t="n">
-        <v>0.4284851477276495</v>
+        <v>0.4487860227025477</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1074186231255468</v>
+        <v>0.21886388010891</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1657058537043187</v>
+        <v>0.1744387346795973</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1019522964495885</v>
+        <v>0.2207801729207207</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2085187222941359</v>
+        <v>0.2170862267297684</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1068425476715326</v>
+        <v>0.2222378330727667</v>
       </c>
       <c r="L203" t="n">
-        <v>0.324422403970066</v>
+        <v>0.3321923829367735</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1023667072136571</v>
+        <v>0.2204164315829559</v>
       </c>
       <c r="N203" t="n">
-        <v>0.4273915597322681</v>
+        <v>0.4483347376044661</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1082027006666092</v>
+        <v>0.2204614266790481</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1751085091740735</v>
+        <v>0.1696923399527427</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1026910812064696</v>
+        <v>0.2223800292462332</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2077843279128358</v>
+        <v>0.2175944008285056</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1076167690314713</v>
+        <v>0.2238482521530041</v>
       </c>
       <c r="L204" t="n">
-        <v>0.322212824885995</v>
+        <v>0.3359506242476367</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1031084949470894</v>
+        <v>0.222013652101673</v>
       </c>
       <c r="N204" t="n">
-        <v>0.4283058417173146</v>
+        <v>0.4494533552514181</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1089867782076716</v>
+        <v>0.2220589732491861</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1655176213220293</v>
+        <v>0.1769335040612731</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1034298659633507</v>
+        <v>0.2239798855717456</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2078844140226565</v>
+        <v>0.2183877186374722</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1083909903914099</v>
+        <v>0.2254586712332416</v>
       </c>
       <c r="L205" t="n">
-        <v>0.3234018171983685</v>
+        <v>0.3335862858733253</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1038502826805217</v>
+        <v>0.22361087262039</v>
       </c>
       <c r="N205" t="n">
-        <v>0.4235281063422763</v>
+        <v>0.4493415074389824</v>
       </c>
       <c r="O205" t="n">
-        <v>0.109770855748734</v>
+        <v>0.2236565198193241</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1649373799017379</v>
+        <v>0.1831620762662918</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1041686507202318</v>
+        <v>0.2255797418972581</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2083848688608513</v>
+        <v>0.2171659980935098</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1091652117513486</v>
+        <v>0.227069090313479</v>
       </c>
       <c r="L206" t="n">
-        <v>0.3220911202681845</v>
+        <v>0.3336990950126673</v>
       </c>
       <c r="M206" t="n">
-        <v>0.104592070413954</v>
+        <v>0.2252080931391071</v>
       </c>
       <c r="N206" t="n">
-        <v>0.4274584662666404</v>
+        <v>0.4529988259627374</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1105549332897964</v>
+        <v>0.2252540663894622</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1643719746667509</v>
+        <v>0.1853779058289019</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1049074354771128</v>
+        <v>0.2271795982227705</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2087860033258594</v>
+        <v>0.2190290571334602</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1099394331112872</v>
+        <v>0.2286795093937165</v>
       </c>
       <c r="L207" t="n">
-        <v>0.3193824734564403</v>
+        <v>0.3354887788644899</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1053338581473863</v>
+        <v>0.2268053136578242</v>
       </c>
       <c r="N207" t="n">
-        <v>0.4226970341498937</v>
+        <v>0.4506249426182618</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1113390108308588</v>
+        <v>0.2268516129596002</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1618255953706199</v>
+        <v>0.1705808420102069</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1056462202339939</v>
+        <v>0.228779454548283</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2084881283161198</v>
+        <v>0.2177767136941647</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1107136544712259</v>
+        <v>0.2302899284739539</v>
       </c>
       <c r="L208" t="n">
-        <v>0.3177776161241337</v>
+        <v>0.3350550646276205</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1060756458808186</v>
+        <v>0.2284025341765413</v>
       </c>
       <c r="N208" t="n">
-        <v>0.4236439226515232</v>
+        <v>0.4509194892011343</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1121230883719212</v>
+        <v>0.2284491595297382</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1653024317668966</v>
+        <v>0.1697707340713102</v>
       </c>
       <c r="G209" t="n">
-        <v>0.106385004990875</v>
+        <v>0.2303793108737955</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2082915547300717</v>
+        <v>0.2185087857124653</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1114878758311645</v>
+        <v>0.2319003475541913</v>
       </c>
       <c r="L209" t="n">
-        <v>0.3177782876322624</v>
+        <v>0.335697679500887</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1068174336142509</v>
+        <v>0.2299997546952584</v>
       </c>
       <c r="N209" t="n">
-        <v>0.4208992444310159</v>
+        <v>0.4526820975069336</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1129071659129836</v>
+        <v>0.2300467060998762</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1748066736091328</v>
+        <v>0.1769474312733151</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1071237897477561</v>
+        <v>0.2319791671993079</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2077965934661542</v>
+        <v>0.2200250911252034</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1122620971911031</v>
+        <v>0.2335107666344288</v>
       </c>
       <c r="L210" t="n">
-        <v>0.3167787482044919</v>
+        <v>0.3361163506831167</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1075592213476832</v>
+        <v>0.2315969752139754</v>
       </c>
       <c r="N210" t="n">
-        <v>0.4238631121478592</v>
+        <v>0.4553123993312379</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1136912434540459</v>
+        <v>0.2316442526700143</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1673292793939963</v>
+        <v>0.1731107828773248</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1078625745046371</v>
+        <v>0.2335790235248204</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2072035554228065</v>
+        <v>0.2185254478692206</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1130363185510418</v>
+        <v>0.2351211857146662</v>
       </c>
       <c r="L211" t="n">
-        <v>0.3162485924547312</v>
+        <v>0.335210805373137</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1083010090811155</v>
+        <v>0.2331941957326925</v>
       </c>
       <c r="N211" t="n">
-        <v>0.4210356384615398</v>
+        <v>0.4533100264696261</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1144753209951083</v>
+        <v>0.2332417992401523</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1768508682410861</v>
+        <v>0.1852606381444429</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1086013592615182</v>
+        <v>0.2351788798503329</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2091127514984676</v>
+        <v>0.2199096738813586</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1138105399109804</v>
+        <v>0.2367316047949037</v>
       </c>
       <c r="L212" t="n">
-        <v>0.3148846537229507</v>
+        <v>0.3360807707697755</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1090427968145478</v>
+        <v>0.2347914162514095</v>
       </c>
       <c r="N212" t="n">
-        <v>0.4211169360315449</v>
+        <v>0.4555746107176769</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1152593985361707</v>
+        <v>0.2348393458102903</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1733711653664839</v>
+        <v>0.1803968463357726</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1093401440183993</v>
+        <v>0.2367787361758454</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2082244925915769</v>
+        <v>0.219377587098459</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1145847612709191</v>
+        <v>0.2383420238751411</v>
       </c>
       <c r="L213" t="n">
-        <v>0.3148872516112405</v>
+        <v>0.3386259740718601</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1097845845479801</v>
+        <v>0.2363886367701266</v>
       </c>
       <c r="N213" t="n">
-        <v>0.4215071175173614</v>
+        <v>0.4552057838709688</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1160434760772331</v>
+        <v>0.2364368923804283</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1588901581643648</v>
+        <v>0.1795192567124172</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1100789287752804</v>
+        <v>0.2383785925013578</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2083390896005732</v>
+        <v>0.2187290054573636</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1153589826308577</v>
+        <v>0.2399524429553785</v>
       </c>
       <c r="L214" t="n">
-        <v>0.3116567057216909</v>
+        <v>0.3381461424782179</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1105263722814124</v>
+        <v>0.2379858572888437</v>
       </c>
       <c r="N214" t="n">
-        <v>0.4223062955784763</v>
+        <v>0.4534031777250801</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1168275536182955</v>
+        <v>0.2380344389505664</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1674078340289038</v>
+        <v>0.1766277185354801</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1108177135321615</v>
+        <v>0.2399784488268703</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2080568534238959</v>
+        <v>0.2192637468949137</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1161332039907963</v>
+        <v>0.2415628620356159</v>
       </c>
       <c r="L215" t="n">
-        <v>0.3106933356563918</v>
+        <v>0.3378410031876765</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1112681600148447</v>
+        <v>0.2395830778075607</v>
       </c>
       <c r="N215" t="n">
-        <v>0.4185145828743768</v>
+        <v>0.4552664240755898</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1176116311593579</v>
+        <v>0.2396319855207044</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.174924180354276</v>
+        <v>0.1737220810660646</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1115564982890425</v>
+        <v>0.2415783051523828</v>
       </c>
       <c r="J216" t="n">
-        <v>0.208178094959984</v>
+        <v>0.2190816293479512</v>
       </c>
       <c r="K216" t="n">
-        <v>0.116907425350735</v>
+        <v>0.2431732811158534</v>
       </c>
       <c r="L216" t="n">
-        <v>0.3090974610174338</v>
+        <v>0.3394102833990634</v>
       </c>
       <c r="M216" t="n">
-        <v>0.112009947748277</v>
+        <v>0.2411802983262778</v>
       </c>
       <c r="N216" t="n">
-        <v>0.4193320920645499</v>
+        <v>0.4562951547180765</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1183957087004203</v>
+        <v>0.2412295320908424</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1654391845346565</v>
+        <v>0.1778021935652742</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1122952830459236</v>
+        <v>0.2431781614778952</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2085031251072766</v>
+        <v>0.2201824707533176</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1176816467106736</v>
+        <v>0.2447837001960908</v>
       </c>
       <c r="L217" t="n">
-        <v>0.3103694014069066</v>
+        <v>0.3382537103112064</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1127517354817092</v>
+        <v>0.2427775188449949</v>
       </c>
       <c r="N217" t="n">
-        <v>0.4162589358084826</v>
+        <v>0.4555890014481186</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1191797862414826</v>
+        <v>0.2428270786609804</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1629528339642203</v>
+        <v>0.183867905294212</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1130340678028047</v>
+        <v>0.2447780178034077</v>
       </c>
       <c r="J218" t="n">
-        <v>0.208532254764213</v>
+        <v>0.2202660890478547</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1184558680706123</v>
+        <v>0.2463941192763283</v>
       </c>
       <c r="L218" t="n">
-        <v>0.3087094764269006</v>
+        <v>0.3386710111229327</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1134935232151416</v>
+        <v>0.244374739363712</v>
       </c>
       <c r="N218" t="n">
-        <v>0.4166952267656621</v>
+        <v>0.457347596061295</v>
       </c>
       <c r="O218" t="n">
-        <v>0.119963863782545</v>
+        <v>0.2444246252311185</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1584651160371426</v>
+        <v>0.1799190655139816</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1137728525596858</v>
+        <v>0.2463778741289201</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2084657948292322</v>
+        <v>0.2194323021684039</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1192300894305509</v>
+        <v>0.2480045383565657</v>
       </c>
       <c r="L219" t="n">
-        <v>0.305318005679506</v>
+        <v>0.3382619130330698</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1142353109485739</v>
+        <v>0.2459719598824291</v>
       </c>
       <c r="N219" t="n">
-        <v>0.4161410775955753</v>
+        <v>0.4555705703531838</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1207479413236074</v>
+        <v>0.2460221718012565</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1599760181475984</v>
+        <v>0.1709555234856861</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1145116373165668</v>
+        <v>0.2479777304544326</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2075040562007734</v>
+        <v>0.2208809280518069</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1200043107904896</v>
+        <v>0.2496149574368031</v>
       </c>
       <c r="L220" t="n">
-        <v>0.3065953087668128</v>
+        <v>0.3372261432404455</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1149770986820062</v>
+        <v>0.2475691804011461</v>
       </c>
       <c r="N220" t="n">
-        <v>0.4184966009577091</v>
+        <v>0.4573575561193642</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1215320188646698</v>
+        <v>0.2476197183713945</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1614855276897627</v>
+        <v>0.183977128470429</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1152504220734479</v>
+        <v>0.2495775867799451</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2080473497772757</v>
+        <v>0.2214117846349055</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1207785321504282</v>
+        <v>0.2512253765170406</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3027417052909114</v>
+        <v>0.3373634289438872</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1157188864154385</v>
+        <v>0.2491664009198632</v>
       </c>
       <c r="N221" t="n">
-        <v>0.4162619095115506</v>
+        <v>0.4560081851554143</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1223160964057322</v>
+        <v>0.2492172649415326</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1579936320578107</v>
+        <v>0.1839828175389026</v>
       </c>
       <c r="G222" t="n">
-        <v>0.115989206830329</v>
+        <v>0.2511774431054576</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2090959864571782</v>
+        <v>0.2208246898545411</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1215527535103668</v>
+        <v>0.252835795597278</v>
       </c>
       <c r="L222" t="n">
-        <v>0.3030575148538918</v>
+        <v>0.3386661808688279</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1164606741488707</v>
+        <v>0.2507636214385802</v>
       </c>
       <c r="N222" t="n">
-        <v>0.4144371159165871</v>
+        <v>0.4564134564254047</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1231001739467946</v>
+        <v>0.2508148115116706</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1665003186459174</v>
+        <v>0.1777225070327483</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1167279915872101</v>
+        <v>0.25277729943097</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2092502771389201</v>
+        <v>0.2190516826392637</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1223269748703055</v>
+        <v>0.2544462146775155</v>
       </c>
       <c r="L223" t="n">
-        <v>0.3004430570578443</v>
+        <v>0.3393374978060551</v>
       </c>
       <c r="M223" t="n">
-        <v>0.117202461882303</v>
+        <v>0.2523608419572973</v>
       </c>
       <c r="N223" t="n">
-        <v>0.4136223328323051</v>
+        <v>0.4563094964926684</v>
       </c>
       <c r="O223" t="n">
-        <v>0.123884251487857</v>
+        <v>0.2524123580818087</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1640055748482578</v>
+        <v>0.1740328783041667</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1174667763440912</v>
+        <v>0.2543771557564825</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2081105327209405</v>
+        <v>0.2192610203325467</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1231011962302441</v>
+        <v>0.2560566337577529</v>
       </c>
       <c r="L224" t="n">
-        <v>0.298498651504859</v>
+        <v>0.3360363238503629</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1179442496157353</v>
+        <v>0.2539580624760144</v>
       </c>
       <c r="N224" t="n">
-        <v>0.4130176729181924</v>
+        <v>0.4533621446393648</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1246683290289193</v>
+        <v>0.2540099046519467</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1665093880590072</v>
+        <v>0.1819609232066772</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1182055611009722</v>
+        <v>0.255977012081995</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2094770641016785</v>
+        <v>0.2175967204196153</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1238754175901828</v>
+        <v>0.2576670528379904</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2983246177970261</v>
+        <v>0.3354477029620113</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1186860373491676</v>
+        <v>0.2555552829947315</v>
       </c>
       <c r="N225" t="n">
-        <v>0.4120232488337354</v>
+        <v>0.4525861861572728</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1254524065699817</v>
+        <v>0.2556074512220847</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1620117456723404</v>
+        <v>0.1665536335937989</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1189443458578533</v>
+        <v>0.2575768684075075</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2091501821795733</v>
+        <v>0.2159155398852897</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1246496389501214</v>
+        <v>0.2592774719182278</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2975212755364356</v>
+        <v>0.3317566791012598</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1194278250825999</v>
+        <v>0.2571525035134485</v>
       </c>
       <c r="N226" t="n">
-        <v>0.4131391732384213</v>
+        <v>0.4479964063381714</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1262364841110441</v>
+        <v>0.2572049977922227</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1555126350824327</v>
+        <v>0.166858001319051</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1196831306147344</v>
+        <v>0.2591767247330199</v>
       </c>
       <c r="J227" t="n">
-        <v>0.209730197853064</v>
+        <v>0.2147742357143907</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1254238603100601</v>
+        <v>0.2608878909984652</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2958889443251779</v>
+        <v>0.3282482962283681</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1201696128160322</v>
+        <v>0.2587497240321656</v>
       </c>
       <c r="N227" t="n">
-        <v>0.4126655587917372</v>
+        <v>0.44170759047384</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1270205616521065</v>
+        <v>0.2588025443623608</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1650120436834591</v>
+        <v>0.164921018235953</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1204219153716155</v>
+        <v>0.2607765810585324</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2093174220205898</v>
+        <v>0.2121295648917386</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1261980816699987</v>
+        <v>0.2624983100787027</v>
       </c>
       <c r="L228" t="n">
-        <v>0.294327943765343</v>
+        <v>0.3252075983035959</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1209114005494645</v>
+        <v>0.2603469445508827</v>
       </c>
       <c r="N228" t="n">
-        <v>0.4106025181531702</v>
+        <v>0.4405345238560574</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1278046391931689</v>
+        <v>0.2604000909324988</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1615099588695946</v>
+        <v>0.1597896761980237</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1211607001284965</v>
+        <v>0.2623764373840449</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2099121655805897</v>
+        <v>0.2109382844021541</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1269723030299373</v>
+        <v>0.2641087291589401</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2914385934590212</v>
+        <v>0.3228196292872028</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1216531882828968</v>
+        <v>0.2619441650695998</v>
       </c>
       <c r="N229" t="n">
-        <v>0.4117501639822072</v>
+        <v>0.4351919917766028</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1285887167342313</v>
+        <v>0.2619976375026368</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1530063680350144</v>
+        <v>0.1655109670587827</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1218994848853776</v>
+        <v>0.2639762937095573</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2081147394315029</v>
+        <v>0.2062571512304575</v>
       </c>
       <c r="K230" t="n">
-        <v>0.127746524389876</v>
+        <v>0.2657191482391776</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2905212130083027</v>
+        <v>0.3175694331394486</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1223949760163291</v>
+        <v>0.2635413855883169</v>
       </c>
       <c r="N230" t="n">
-        <v>0.4101086089383355</v>
+        <v>0.4268947795272553</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1293727942752937</v>
+        <v>0.2635951840727748</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1625012585738934</v>
+        <v>0.171131882671749</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1226382696422587</v>
+        <v>0.2655761500350698</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2102254544717686</v>
+        <v>0.2041429223614694</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1285207457498146</v>
+        <v>0.267329567319415</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2893761220152775</v>
+        <v>0.314442053820593</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1231367637497614</v>
+        <v>0.2651386061070339</v>
       </c>
       <c r="N231" t="n">
-        <v>0.4095779656810417</v>
+        <v>0.4231576723997936</v>
       </c>
       <c r="O231" t="n">
-        <v>0.130156871816356</v>
+        <v>0.2651927306429129</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1509946178804069</v>
+        <v>0.1656994148904419</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1233770543991397</v>
+        <v>0.2671760063605823</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2087446215998259</v>
+        <v>0.2008523547800102</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1292949671097533</v>
+        <v>0.2689399863996524</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2876036400820356</v>
+        <v>0.3073225352908955</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1238785514831937</v>
+        <v>0.266735826625751</v>
       </c>
       <c r="N232" t="n">
-        <v>0.4125583468698131</v>
+        <v>0.4158954556859972</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1309409493574184</v>
+        <v>0.2667902772130509</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1574864333487297</v>
+        <v>0.1592605555683806</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1241158391560208</v>
+        <v>0.2687758626860947</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2084725517141138</v>
+        <v>0.1977422054709004</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1300691884696919</v>
+        <v>0.2705504054798899</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2848040868106678</v>
+        <v>0.3031959215106159</v>
       </c>
       <c r="M233" t="n">
-        <v>0.124620339216626</v>
+        <v>0.268333047144468</v>
       </c>
       <c r="N233" t="n">
-        <v>0.4089498651641367</v>
+        <v>0.409722914677645</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1317250268984808</v>
+        <v>0.2683878237831889</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1529766923730371</v>
+        <v>0.1638622965590846</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1248546239129019</v>
+        <v>0.2703757190116072</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2097095557130716</v>
+        <v>0.1967692314189606</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1308434098296306</v>
+        <v>0.2721608245601273</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2847777818032637</v>
+        <v>0.3013472564400139</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1253621269500583</v>
+        <v>0.2699302676631851</v>
       </c>
       <c r="N234" t="n">
-        <v>0.4081526332234997</v>
+        <v>0.4024548346665162</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1325091044395432</v>
+        <v>0.269985370353327</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.164465382347504</v>
+        <v>0.1555516297160727</v>
       </c>
       <c r="G235" t="n">
-        <v>0.125593408669783</v>
+        <v>0.2719755753371197</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2095559444951384</v>
+        <v>0.1936901896090112</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1316176311895692</v>
+        <v>0.2737712436403648</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2810250446619137</v>
+        <v>0.2950615840393492</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1261039146834906</v>
+        <v>0.2715274881819022</v>
       </c>
       <c r="N235" t="n">
-        <v>0.4101667637073888</v>
+        <v>0.3998060009443897</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1332931819806056</v>
+        <v>0.271582916923465</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1539524906663057</v>
+        <v>0.1513755468928644</v>
       </c>
       <c r="G236" t="n">
-        <v>0.126332193426664</v>
+        <v>0.2735754316626322</v>
       </c>
       <c r="J236" t="n">
-        <v>0.2090120289587533</v>
+        <v>0.1895618370258728</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1323918525495078</v>
+        <v>0.2753816627206022</v>
       </c>
       <c r="L236" t="n">
-        <v>0.281646194988708</v>
+        <v>0.2916239482688813</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1268457024169229</v>
+        <v>0.2731247087006193</v>
       </c>
       <c r="N236" t="n">
-        <v>0.4116923692752914</v>
+        <v>0.3911911988030445</v>
       </c>
       <c r="O236" t="n">
-        <v>0.134077259521668</v>
+        <v>0.273180463493603</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.151438004723617</v>
+        <v>0.148379644574662</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1270709781835452</v>
+        <v>0.2751752879881446</v>
       </c>
       <c r="J237" t="n">
-        <v>0.2100781200023555</v>
+        <v>0.1891409306543658</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1331660739094465</v>
+        <v>0.2769920818008396</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2787415523857367</v>
+        <v>0.2890143634554924</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1275874901503552</v>
+        <v>0.2747219292193364</v>
       </c>
       <c r="N237" t="n">
-        <v>0.4102295625866943</v>
+        <v>0.3890189072122775</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1348613370627303</v>
+        <v>0.274778010063741</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1629219119136132</v>
+        <v>0.1544625323697243</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1278097629404262</v>
+        <v>0.2767751443136571</v>
       </c>
       <c r="J238" t="n">
-        <v>0.210454528524384</v>
+        <v>0.186056535856008</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1339402952693851</v>
+        <v>0.2786025008810771</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2768114364550899</v>
+        <v>0.2831328322019755</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1283292778837875</v>
+        <v>0.2763191497380534</v>
       </c>
       <c r="N238" t="n">
-        <v>0.4072784563010845</v>
+        <v>0.3851218359112032</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1356454146037927</v>
+        <v>0.2763755566338791</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1564041996304693</v>
+        <v>0.1375383226839622</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1285485476973073</v>
+        <v>0.2783750006391695</v>
       </c>
       <c r="J239" t="n">
-        <v>0.2098415654232781</v>
+        <v>0.1830642870107377</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1347145166293238</v>
+        <v>0.2802129199613145</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2765561667988579</v>
+        <v>0.2808384263726418</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1290710656172198</v>
+        <v>0.2779163702567705</v>
       </c>
       <c r="N239" t="n">
-        <v>0.4083391630779492</v>
+        <v>0.3796073925638931</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1364294921448551</v>
+        <v>0.2779731032040171</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1598848552683603</v>
+        <v>0.150606904191932</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1292873324541884</v>
+        <v>0.2799748569646821</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2099395415974768</v>
+        <v>0.1802634104910742</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1354887379892624</v>
+        <v>0.2818233390415519</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2739760630191308</v>
+        <v>0.2762309444951956</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1298128533506521</v>
+        <v>0.2795135907754876</v>
       </c>
       <c r="N240" t="n">
-        <v>0.4065117955767752</v>
+        <v>0.3740753052397341</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1372135696859175</v>
+        <v>0.2795706497741552</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1523638662214614</v>
+        <v>0.1336681655681901</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1300261172110694</v>
+        <v>0.2815747132901945</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2105487679454192</v>
+        <v>0.1781537718376162</v>
       </c>
       <c r="K241" t="n">
-        <v>0.136262959349201</v>
+        <v>0.2834337581217894</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2705714447179988</v>
+        <v>0.2755101850973414</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1305546410840844</v>
+        <v>0.2811108112942046</v>
       </c>
       <c r="N241" t="n">
-        <v>0.40629646645705</v>
+        <v>0.3709253020081135</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1379976472269799</v>
+        <v>0.2811681963442932</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1488412198839474</v>
+        <v>0.1327219954872929</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1307649019679505</v>
+        <v>0.2831745696157069</v>
       </c>
       <c r="J242" t="n">
-        <v>0.2111695553655446</v>
+        <v>0.1766352365909616</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1370371807091397</v>
+        <v>0.2850441772020268</v>
       </c>
       <c r="L242" t="n">
-        <v>0.268442631497552</v>
+        <v>0.2691759467067835</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1312964288175167</v>
+        <v>0.2827080318129217</v>
       </c>
       <c r="N242" t="n">
-        <v>0.4074932883782602</v>
+        <v>0.3629571109384183</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1387817247680423</v>
+        <v>0.2827657429144312</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1543169036499938</v>
+        <v>0.1447682826237967</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1315036867248316</v>
+        <v>0.2847744259412194</v>
       </c>
       <c r="J243" t="n">
-        <v>0.2103022147562921</v>
+        <v>0.174707670291709</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1378114020690783</v>
+        <v>0.2866545962822643</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2688899429598805</v>
+        <v>0.2681280278512264</v>
       </c>
       <c r="M243" t="n">
-        <v>0.132038216550949</v>
+        <v>0.2843052523316388</v>
       </c>
       <c r="N243" t="n">
-        <v>0.406302373999893</v>
+        <v>0.3580704601000356</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1395658023091047</v>
+        <v>0.2843632894845692</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1487909049137753</v>
+        <v>0.1428069156522579</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1322424714817127</v>
+        <v>0.2863742822667319</v>
       </c>
       <c r="J244" t="n">
-        <v>0.2106470570161007</v>
+        <v>0.1727709384804561</v>
       </c>
       <c r="K244" t="n">
-        <v>0.138585623429017</v>
+        <v>0.2882650153625017</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2656136987070747</v>
+        <v>0.2650662270583745</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1327800042843813</v>
+        <v>0.2859024728503559</v>
       </c>
       <c r="N244" t="n">
-        <v>0.4050238359814354</v>
+        <v>0.3530650775623528</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1403498798501671</v>
+        <v>0.2859608360547073</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1552632110694672</v>
+        <v>0.1268377832472332</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1329812562385937</v>
+        <v>0.2879741385922444</v>
       </c>
       <c r="J245" t="n">
-        <v>0.2113043930434097</v>
+        <v>0.1694249066978015</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1393598447889556</v>
+        <v>0.2898754344427392</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2627142183412247</v>
+        <v>0.2580903428559321</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1335217920178136</v>
+        <v>0.2874996933690729</v>
       </c>
       <c r="N245" t="n">
-        <v>0.4056577869823744</v>
+        <v>0.3522406913947568</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1411339573912294</v>
+        <v>0.2875583826248453</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1467338095112445</v>
+        <v>0.1368607740832785</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1337200409954748</v>
+        <v>0.2895739949177568</v>
       </c>
       <c r="J246" t="n">
-        <v>0.2108745337366581</v>
+        <v>0.1675694404843434</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1401340661488943</v>
+        <v>0.2914858535229766</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2606918214644207</v>
+        <v>0.2560001737716038</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1342635797512459</v>
+        <v>0.28909691388779</v>
       </c>
       <c r="N246" t="n">
-        <v>0.4082043396621972</v>
+        <v>0.3462970296666346</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1419180349322918</v>
+        <v>0.2891559291949833</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1462026876332822</v>
+        <v>0.1338757768349506</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1344588257523559</v>
+        <v>0.2911738512432693</v>
       </c>
       <c r="J247" t="n">
-        <v>0.2111577899942851</v>
+        <v>0.1658044053806797</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1409082875088329</v>
+        <v>0.293096272603214</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2606468276787527</v>
+        <v>0.253895518333094</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1350053674846782</v>
+        <v>0.290694134406507</v>
       </c>
       <c r="N247" t="n">
-        <v>0.4037636066803905</v>
+        <v>0.3425338204473737</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1427021124733542</v>
+        <v>0.2907534757651213</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1476698328297555</v>
+        <v>0.1218826801768056</v>
       </c>
       <c r="G248" t="n">
-        <v>0.135197610509237</v>
+        <v>0.2927737075687817</v>
       </c>
       <c r="J248" t="n">
-        <v>0.2121544727147298</v>
+        <v>0.1632296669274089</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1416825088687715</v>
+        <v>0.2947066916834514</v>
       </c>
       <c r="L248" t="n">
-        <v>0.258679556586311</v>
+        <v>0.2497761750681071</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1357471552181105</v>
+        <v>0.2922913549252241</v>
       </c>
       <c r="N248" t="n">
-        <v>0.4043357006964419</v>
+        <v>0.335250791806361</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1434861900144166</v>
+        <v>0.2923510223352594</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1551352324948394</v>
+        <v>0.1178813727834001</v>
       </c>
       <c r="G249" t="n">
-        <v>0.135936395266118</v>
+        <v>0.2943735638942943</v>
       </c>
       <c r="J249" t="n">
-        <v>0.2135648927964314</v>
+        <v>0.1599450906651291</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1424567302287102</v>
+        <v>0.2963171107636889</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2549903277891857</v>
+        <v>0.2461419425043475</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1364889429515428</v>
+        <v>0.2938885754439412</v>
       </c>
       <c r="N249" t="n">
-        <v>0.4050207343698379</v>
+        <v>0.3298476718129837</v>
       </c>
       <c r="O249" t="n">
-        <v>0.144270267555479</v>
+        <v>0.2939485689053974</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.155598874022709</v>
+        <v>0.1308717433292904</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1366751800229991</v>
+        <v>0.2959734202198067</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2120893611378289</v>
+        <v>0.1576505421344386</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1432309515886488</v>
+        <v>0.2979275298439263</v>
       </c>
       <c r="L250" t="n">
-        <v>0.253679460889467</v>
+        <v>0.2406926191695197</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1372307306849751</v>
+        <v>0.2954857959626582</v>
       </c>
       <c r="N250" t="n">
-        <v>0.4072188203600657</v>
+        <v>0.3251241885366288</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1450543450965414</v>
+        <v>0.2955461154755354</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1510607448075393</v>
+        <v>0.130853680489033</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1374139647798802</v>
+        <v>0.2975732765453191</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2138281886373616</v>
+        <v>0.1557458868759355</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1440051729485875</v>
+        <v>0.2995379489241638</v>
       </c>
       <c r="L251" t="n">
-        <v>0.2517472754892451</v>
+        <v>0.2377280035913278</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1379725184184074</v>
+        <v>0.2970830164813753</v>
       </c>
       <c r="N251" t="n">
-        <v>0.4052300713266125</v>
+        <v>0.3224800700466838</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1458384226376037</v>
+        <v>0.2971436620456734</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1525208322435054</v>
+        <v>0.124827072937184</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1381527495367613</v>
+        <v>0.2991731328708316</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2140816861934686</v>
+        <v>0.1527309904302181</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1447793943085261</v>
+        <v>0.3011483680044012</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2497940911906102</v>
+        <v>0.2345478942974765</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1387143061518397</v>
+        <v>0.2986802370000924</v>
       </c>
       <c r="N252" t="n">
-        <v>0.4040545999289651</v>
+        <v>0.3151150444125355</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1466225001786661</v>
+        <v>0.2987412086158115</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1429791237247826</v>
+        <v>0.1137918093483001</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1388915342936424</v>
+        <v>0.3007729891963441</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2142501647045889</v>
+        <v>0.1499057183378846</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1455536156684648</v>
+        <v>0.3027587870846387</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2473202275956524</v>
+        <v>0.2304520898156702</v>
       </c>
       <c r="M253" t="n">
-        <v>0.139456093885272</v>
+        <v>0.3002774575188095</v>
       </c>
       <c r="N253" t="n">
-        <v>0.4029925188266107</v>
+        <v>0.3090288397035711</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1474065777197285</v>
+        <v>0.3003387551859495</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1424356066455456</v>
+        <v>0.1187477783969376</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1396303190505234</v>
+        <v>0.3023728455218566</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2136339350691618</v>
+        <v>0.1469699361395332</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1463278370284034</v>
+        <v>0.3043692061648761</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2441260043064619</v>
+        <v>0.2265403886736134</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1401978816187043</v>
+        <v>0.3018746780375265</v>
       </c>
       <c r="N254" t="n">
-        <v>0.4069439406790363</v>
+        <v>0.3059211839891777</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1481906552607909</v>
+        <v>0.3019363017560875</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1418902683999697</v>
+        <v>0.1126948687576528</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1403691038074045</v>
+        <v>0.303972701847369</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2156333081856263</v>
+        <v>0.1458235093757622</v>
       </c>
       <c r="K255" t="n">
-        <v>0.147102058388342</v>
+        <v>0.3059796252451135</v>
       </c>
       <c r="L255" t="n">
-        <v>0.2405117409251288</v>
+        <v>0.2240125893990103</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1409396693521366</v>
+        <v>0.3034718985562436</v>
       </c>
       <c r="N255" t="n">
-        <v>0.4061089781457289</v>
+        <v>0.3028918053387426</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1489747328018533</v>
+        <v>0.3035338483262255</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1513430963822299</v>
+        <v>0.1176329691050022</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1411078885642856</v>
+        <v>0.3055725581728815</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2146485949524216</v>
+        <v>0.1422663035871695</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1478762797482807</v>
+        <v>0.307590044325351</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2398777570537433</v>
+        <v>0.2184684905195655</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1416814570855689</v>
+        <v>0.3050691190749607</v>
       </c>
       <c r="N256" t="n">
-        <v>0.4067877438861756</v>
+        <v>0.294940431821653</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1497588103429157</v>
+        <v>0.3051313948963636</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1497940779865013</v>
+        <v>0.1115619681135421</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1418466733211667</v>
+        <v>0.307172414498394</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2158801062679869</v>
+        <v>0.1409981843143538</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1486505011082193</v>
+        <v>0.3092004634055884</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2364243722943956</v>
+        <v>0.2163078905629832</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1424232448190012</v>
+        <v>0.3066663395936778</v>
       </c>
       <c r="N257" t="n">
-        <v>0.4050803505598632</v>
+        <v>0.2928667915072958</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1505428878839781</v>
+        <v>0.3067289414665016</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1392432006069589</v>
+        <v>0.109481754457829</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1425854580780477</v>
+        <v>0.3087722708239065</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2154281530307612</v>
+        <v>0.1391190170979129</v>
       </c>
       <c r="K258" t="n">
-        <v>0.149424722468158</v>
+        <v>0.3108108824858259</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2347519062491759</v>
+        <v>0.2114305880569681</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1431650325524335</v>
+        <v>0.3082635601123949</v>
       </c>
       <c r="N258" t="n">
-        <v>0.4055869108262793</v>
+        <v>0.2839706124650579</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1513269654250405</v>
+        <v>0.3083264880366397</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1416904516377779</v>
+        <v>0.09739221681241923</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1433242428349288</v>
+        <v>0.3103721271494189</v>
       </c>
       <c r="J259" t="n">
-        <v>0.2178930461391837</v>
+        <v>0.1361286674784452</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1501989438280966</v>
+        <v>0.3124213015660633</v>
       </c>
       <c r="L259" t="n">
-        <v>0.2335606785201744</v>
+        <v>0.2074363815292243</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1439068202858658</v>
+        <v>0.3098607806311119</v>
       </c>
       <c r="N259" t="n">
-        <v>0.4022075373449103</v>
+        <v>0.2786516227643272</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1521110429661028</v>
+        <v>0.3099240346067777</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1511358184731334</v>
+        <v>0.1112932438518691</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1440630275918099</v>
+        <v>0.3119719834749314</v>
       </c>
       <c r="J260" t="n">
-        <v>0.2180750964916935</v>
+        <v>0.1338270009965489</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1509731651880352</v>
+        <v>0.3140317206463007</v>
       </c>
       <c r="L260" t="n">
-        <v>0.2308510087094812</v>
+        <v>0.2049250695074567</v>
       </c>
       <c r="M260" t="n">
-        <v>0.144648608019298</v>
+        <v>0.311458001149829</v>
       </c>
       <c r="N260" t="n">
-        <v>0.4019423427752438</v>
+        <v>0.2741095504744901</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1528951205071652</v>
+        <v>0.3115215811769158</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1365792885072003</v>
+        <v>0.1001847242507352</v>
       </c>
       <c r="G261" t="n">
-        <v>0.144801812348691</v>
+        <v>0.3135718398004438</v>
       </c>
       <c r="J261" t="n">
-        <v>0.2185746149867298</v>
+        <v>0.1299138831928222</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1517473865479739</v>
+        <v>0.3156421397265382</v>
       </c>
       <c r="L261" t="n">
-        <v>0.2290232164191864</v>
+        <v>0.1987964505193692</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1453903957527304</v>
+        <v>0.313055221668546</v>
       </c>
       <c r="N261" t="n">
-        <v>0.4040914397767662</v>
+        <v>0.2696441236649343</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1536791980482276</v>
+        <v>0.3131191277470537</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1380208491341537</v>
+        <v>0.1050665466835738</v>
       </c>
       <c r="G262" t="n">
-        <v>0.145540597105572</v>
+        <v>0.3151716961259563</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2190919125227317</v>
+        <v>0.1281891796078633</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1525216079079125</v>
+        <v>0.3172525588067756</v>
       </c>
       <c r="L262" t="n">
-        <v>0.2261776212513802</v>
+        <v>0.1960503230926665</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1461321834861627</v>
+        <v>0.3146524421872631</v>
       </c>
       <c r="N262" t="n">
-        <v>0.4024549410089648</v>
+        <v>0.2657550704050465</v>
       </c>
       <c r="O262" t="n">
-        <v>0.15446327558929</v>
+        <v>0.3147166743171918</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1504604877481688</v>
+        <v>0.0999385998249412</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1462793818624531</v>
+        <v>0.3167715524514688</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2198272999981384</v>
+        <v>0.1258527557822703</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1532958292678512</v>
+        <v>0.3188629778870131</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2255145428081529</v>
+        <v>0.1932864857550529</v>
       </c>
       <c r="M263" t="n">
-        <v>0.146873971219595</v>
+        <v>0.3162496627059802</v>
       </c>
       <c r="N263" t="n">
-        <v>0.4056329591313269</v>
+        <v>0.2588421187642143</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1552473531303524</v>
+        <v>0.3163142208873298</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1498981917434207</v>
+        <v>0.102800772349394</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1470181666193342</v>
+        <v>0.3183714087769813</v>
       </c>
       <c r="J264" t="n">
-        <v>0.2187810883113889</v>
+        <v>0.1231044772566417</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1540700506277898</v>
+        <v>0.3204733969672505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.2226343006915946</v>
+        <v>0.1876047370342329</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1476157589530273</v>
+        <v>0.3178468832246973</v>
       </c>
       <c r="N264" t="n">
-        <v>0.4043256068033394</v>
+        <v>0.2560049968118243</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1560314306714148</v>
+        <v>0.3179117674574679</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1426.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1426.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.625393406584088</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.07491912822042214</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.07491912822042214</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.1198706051526754</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.2141933015577319</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.09439810155773191</v>
+        <v>0.1117856937998935</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00350920025973079</v>
+        <v>0.00415557494529552</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.04495147693225329</v>
+        <v>0.02435998732386567</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001169733419910263</v>
+        <v>0.0005466472216696517</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.05812856077594462</v>
+        <v>0.02435998732386567</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001512629280087569</v>
+        <v>0.0005466472216696517</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.06593856000000003</v>
+        <v>0.07897512073117202</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0009948915691489369</v>
+        <v>0.001191589288391533</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.09593856000000001</v>
+        <v>0.1204238860945313</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001016519646739131</v>
+        <v>0.001185735580152873</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.09439810155773191</v>
+        <v>0.04597909049818462</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00350920025973079</v>
+        <v>0.001093294443339303</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.08682466756812517</v>
+        <v>0.04597909049818462</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003220838160474879</v>
+        <v>0.001093294443339303</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1716850450677652</v>
+        <v>0.1127001462869254</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00298467470744681</v>
+        <v>0.001968396682035183</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.231584396335637</v>
+        <v>0.174088161688608</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003049558940217391</v>
+        <v>0.001963943691863753</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.09357517855481461</v>
+        <v>0.06371784546593927</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004799568976537406</v>
+        <v>0.001658074403172912</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1117856937998935</v>
+        <v>0.06371784546593927</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.005611188450000001</v>
+        <v>0.001658074403172912</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1938646095853483</v>
+        <v>0.1524288923761379</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004791661556151215</v>
+        <v>0.002952595023052775</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.262217982670278</v>
+        <v>0.231584396335637</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004792639710414087</v>
+        <v>0.00325751533009031</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.09576945875817851</v>
+        <v>0.07762780488743388</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006399425302049874</v>
+        <v>0.002186588886678607</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1176163100968993</v>
+        <v>0.07762780488743388</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006441676320949758</v>
+        <v>0.002186588886678607</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2136475436459053</v>
+        <v>0.1716850450677652</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006388882074868287</v>
+        <v>0.003700587852147616</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2843202519437227</v>
+        <v>0.2428116922223313</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006390186280552118</v>
+        <v>0.003927887383727506</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.001169733419910263</v>
+        <v>0.001658074403172912</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04495147693225329</v>
+        <v>0.06371784546593927</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.1157470607489619</v>
+        <v>0.09115925523179484</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007999281627562343</v>
+        <v>0.002733236108348259</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.127690914152556</v>
+        <v>0.09115925523179484</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008052095401187198</v>
+        <v>0.002733236108348259</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.2286065663521045</v>
+        <v>0.1860374241815891</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007986102593585358</v>
+        <v>0.004920991705087958</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.3095054675957022</v>
+        <v>0.2614302616869559</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007987732850690148</v>
+        <v>0.004909859229659383</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.1246084185129406</v>
+        <v>0.1023649341503157</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009599137953074812</v>
+        <v>0.00327988333001791</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.137654142789429</v>
+        <v>0.1023649341503157</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009662514481424639</v>
+        <v>0.00327988333001791</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2414801372973862</v>
+        <v>0.1993283563236031</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009583323112302431</v>
+        <v>0.005905190046105549</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.3256802814118721</v>
+        <v>0.2783977633390469</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009585279420828175</v>
+        <v>0.005891831075591259</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1214539660358907</v>
+        <v>0.1097729722350795</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01119899427858728</v>
+        <v>0.003826530551687562</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.145732408412213</v>
+        <v>0.1097729722350795</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01127293356166208</v>
+        <v>0.003826530551687562</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2546067160751904</v>
+        <v>0.2120377644733293</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0111805436310195</v>
+        <v>0.006889388387123141</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.3413513451778886</v>
+        <v>0.2928255517368641</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01118282599096621</v>
+        <v>0.006873802921523136</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1303841373035881</v>
+        <v>0.1117856937998935</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01279885060409975</v>
+        <v>0.00415557494529552</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1540521234256029</v>
+        <v>0.1117856937998935</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01288335264189952</v>
+        <v>0.00415557494529552</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2650247622789573</v>
+        <v>0.2240710035477491</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01277776414973657</v>
+        <v>0.007873586728140734</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.3555253106794075</v>
+        <v>0.3085249814386676</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01278037256110424</v>
+        <v>0.007855774767455012</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1374993663018085</v>
+        <v>0.1139664990875659</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01439870692961222</v>
+        <v>0.004919824995026865</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1618397002342934</v>
+        <v>0.1139664990875659</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01449377172213696</v>
+        <v>0.004919824995026865</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2722727355021268</v>
+        <v>0.2348334284638437</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01437498466845365</v>
+        <v>0.008857785069158325</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.3688088297020846</v>
+        <v>0.3224074070027175</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01437791913124226</v>
+        <v>0.00883774661338689</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1399000870163282</v>
+        <v>0.1154919799351792</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01599856325512469</v>
+        <v>0.005466472216696517</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1682215512429794</v>
+        <v>0.1154919799351792</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.0161041908023744</v>
+        <v>0.005466472216696517</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2800890953381391</v>
+        <v>0.2458303941385944</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01597220518717072</v>
+        <v>0.009841983410175916</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.3782085540315757</v>
+        <v>0.3386841829872738</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0159754657013803</v>
+        <v>0.009819718459318767</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1466867334329227</v>
+        <v>0.116989070042802</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01759841958063715</v>
+        <v>0.006013119438366169</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1762240888563557</v>
+        <v>0.116989070042802</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01771460988261184</v>
+        <v>0.006013119438366169</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2854123013804343</v>
+        <v>0.2526672554889826</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01756942570588779</v>
+        <v>0.01082618175119351</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.386831135453537</v>
+        <v>0.3522666639505967</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01757301227151832</v>
+        <v>0.01080169030525064</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1459597395373682</v>
+        <v>0.1184580258258156</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01919827590614962</v>
+        <v>0.00655976666003582</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1816737254791169</v>
+        <v>0.1184580258258156</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01932502896284928</v>
+        <v>0.00655976666003582</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2908808132224522</v>
+        <v>0.2637493674319893</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01916664622460486</v>
+        <v>0.0118103800922111</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3946832257536241</v>
+        <v>0.3615662044509459</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01917055884165635</v>
+        <v>0.01178366215118252</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1498195393154405</v>
+        <v>0.1198991036996011</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02079813223166209</v>
+        <v>0.007106413881705471</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1848968735159579</v>
+        <v>0.1198991036996011</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02093544804308671</v>
+        <v>0.007106413881705471</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2951330904576332</v>
+        <v>0.2729820848845964</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02076386674332193</v>
+        <v>0.01279457843322869</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3994714767174931</v>
+        <v>0.3734941590465819</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02076810541179438</v>
+        <v>0.01276563399711439</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1583665667529155</v>
+        <v>0.12131256007954</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02239798855717456</v>
+        <v>0.007653061103375124</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1892199453715736</v>
+        <v>0.12131256007954</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02254586712332415</v>
+        <v>0.007653061103375124</v>
       </c>
       <c r="L79" t="n">
-        <v>0.3017075926794172</v>
+        <v>0.2796707627637844</v>
       </c>
       <c r="M79" t="n">
-        <v>0.022361087262039</v>
+        <v>0.01377877677424628</v>
       </c>
       <c r="N79" t="n">
-        <v>0.4074025401307998</v>
+        <v>0.3829618822957643</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02236565198193241</v>
+        <v>0.01374760584304627</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1677012558355693</v>
+        <v>0.1226986513810132</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02399784488268703</v>
+        <v>0.008199708325044776</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1928693534506588</v>
+        <v>0.1226986513810132</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02415628620356159</v>
+        <v>0.008199708325044776</v>
       </c>
       <c r="L80" t="n">
-        <v>0.3050427794812444</v>
+        <v>0.2872207559865355</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02395830778075608</v>
+        <v>0.01476297511526387</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4088830677792001</v>
+        <v>0.3952807287567538</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02396319855207044</v>
+        <v>0.01472957768897815</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1609251346855265</v>
+        <v>0.1240576340194023</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0255977012081995</v>
+        <v>0.008746355546714428</v>
       </c>
       <c r="J81" t="n">
-        <v>0.196971510157908</v>
+        <v>0.1240576340194023</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02576670528379903</v>
+        <v>0.008746355546714428</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3088476124222703</v>
+        <v>0.2942374194698301</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02555552829947315</v>
+        <v>0.01574717345628147</v>
       </c>
       <c r="N81" t="n">
-        <v>0.4140908411482862</v>
+        <v>0.4056620529878096</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02556074512220847</v>
+        <v>0.01571154953491002</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1690897623071128</v>
+        <v>0.1253897644100883</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02719755753371197</v>
+        <v>0.009293002768384078</v>
       </c>
       <c r="J82" t="n">
-        <v>0.198998882050765</v>
+        <v>0.1253897644100883</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02737712436403647</v>
+        <v>0.009293002768384078</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3141421229909128</v>
+        <v>0.3022261081306502</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02715274881819022</v>
+        <v>0.01673137179729906</v>
       </c>
       <c r="N82" t="n">
-        <v>0.4192513379159916</v>
+        <v>0.4111172095471923</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0271582916923465</v>
+        <v>0.0166935213808419</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1721838326218368</v>
+        <v>0.1266952989684526</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02879741385922444</v>
+        <v>0.009839649990053731</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2013938638098527</v>
+        <v>0.1266952989684526</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02898754344427391</v>
+        <v>0.009839649990053731</v>
       </c>
       <c r="L83" t="n">
-        <v>0.3171012379730573</v>
+        <v>0.3088921768859768</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02874996933690729</v>
+        <v>0.01771557013831665</v>
       </c>
       <c r="N83" t="n">
-        <v>0.4273303770362402</v>
+        <v>0.417557552993162</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02875583826248453</v>
+        <v>0.01767549322677378</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1761935601981415</v>
+        <v>0.1279744941098763</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0303972701847369</v>
+        <v>0.01038629721172338</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2037074108614743</v>
+        <v>0.1279744941098763</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03059796252451135</v>
+        <v>0.01038629721172338</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3201000090509482</v>
+        <v>0.3129409806527911</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03034718985562436</v>
+        <v>0.01869976847933424</v>
       </c>
       <c r="N84" t="n">
-        <v>0.4321942853366605</v>
+        <v>0.4275944378839786</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03035338483262255</v>
+        <v>0.01865746507270566</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.161105159604469</v>
+        <v>0.1292276062497407</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03199712651024937</v>
+        <v>0.01093294443339303</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2070228730956417</v>
+        <v>0.1292276062497407</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03220838160474879</v>
+        <v>0.01093294443339303</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3215134879068296</v>
+        <v>0.3185778743480748</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03194441037434143</v>
+        <v>0.01968396682035183</v>
       </c>
       <c r="N85" t="n">
-        <v>0.4337093896448806</v>
+        <v>0.4332392187779019</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03195093140276059</v>
+        <v>0.01963943691863753</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1629048454092622</v>
+        <v>0.1304548918034272</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03359698283576184</v>
+        <v>0.01147959165506269</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2090236004023667</v>
+        <v>0.1304548918034272</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03381880068498624</v>
+        <v>0.01147959165506269</v>
       </c>
       <c r="L86" t="n">
-        <v>0.3258167262229456</v>
+        <v>0.3240082128888087</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0335416308930585</v>
+        <v>0.02066816516136942</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4419420167885288</v>
+        <v>0.4389032502331925</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03354847797289862</v>
+        <v>0.02062140876456941</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1755788321809636</v>
+        <v>0.1316566071863168</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03519683916127431</v>
+        <v>0.01202623887673234</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2107929426716608</v>
+        <v>0.1316566071863168</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03542921976522367</v>
+        <v>0.01202623887673234</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3297847756815406</v>
+        <v>0.3254373511919743</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03513885141177558</v>
+        <v>0.02165236350238702</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4423584935952336</v>
+        <v>0.4455978868081101</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03514602454303665</v>
+        <v>0.02160338061050129</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1791133344880159</v>
+        <v>0.132833008813791</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03679669548678678</v>
+        <v>0.01257288609840199</v>
       </c>
       <c r="J88" t="n">
-        <v>0.213314249793536</v>
+        <v>0.132833008813791</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03703963884546111</v>
+        <v>0.01257288609840199</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3316926879648588</v>
+        <v>0.3300706441745532</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03673607193049265</v>
+        <v>0.02263656184340461</v>
       </c>
       <c r="N88" t="n">
-        <v>0.4492251468926234</v>
+        <v>0.4483344830609146</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03674357111317467</v>
+        <v>0.02258535245643316</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1674945668988614</v>
+        <v>0.1339843531012309</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03839655181229925</v>
+        <v>0.01311953332007164</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2158708716580039</v>
+        <v>0.1339843531012309</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03865005792569855</v>
+        <v>0.01311953332007164</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3338155147551444</v>
+        <v>0.3333134467535262</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03833329244920972</v>
+        <v>0.0236207601844222</v>
       </c>
       <c r="N89" t="n">
-        <v>0.4510083035083261</v>
+        <v>0.4509243935498664</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0383411176833127</v>
+        <v>0.02356732430236504</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1807087439819431</v>
+        <v>0.1351108964640177</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03999640813781171</v>
+        <v>0.01366618054174129</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2167461581550762</v>
+        <v>0.1351108964640177</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04026047700593599</v>
+        <v>0.01366618054174129</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3365283077346415</v>
+        <v>0.3364711138458751</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0399305129679268</v>
+        <v>0.02460495852543979</v>
       </c>
       <c r="N90" t="n">
-        <v>0.4561742902699706</v>
+        <v>0.4538789728332253</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03993866425345074</v>
+        <v>0.02454929614829691</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1747420803057034</v>
+        <v>0.1362128953175328</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04159626446332419</v>
+        <v>0.01421282776341094</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2195234591747648</v>
+        <v>0.1362128953175328</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04187089608617343</v>
+        <v>0.01421282776341094</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3395061185855947</v>
+        <v>0.3384490003685808</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04152773348664387</v>
+        <v>0.02558915686645738</v>
       </c>
       <c r="N91" t="n">
-        <v>0.4586894340051849</v>
+        <v>0.4564095754692516</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04153621082358876</v>
+        <v>0.02553126799422879</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1695807904385848</v>
+        <v>0.1372906060771572</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04319612078883665</v>
+        <v>0.0147594749850806</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2196861246070812</v>
+        <v>0.1372906060771572</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04348131516641087</v>
+        <v>0.0147594749850806</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3414239989902478</v>
+        <v>0.3383524612386247</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04312495400536093</v>
+        <v>0.02657335520747497</v>
       </c>
       <c r="N92" t="n">
-        <v>0.4593200615415974</v>
+        <v>0.4591275560162053</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0431337573937268</v>
+        <v>0.02651323984016067</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.17721108894903</v>
+        <v>0.1383442851582725</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04479597711434912</v>
+        <v>0.01530612220675025</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2219175043420374</v>
+        <v>0.1383442851582725</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04509173424664831</v>
+        <v>0.01530612220675025</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3421570006308454</v>
+        <v>0.3395868513729882</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04472217452407801</v>
+        <v>0.02755755354849257</v>
       </c>
       <c r="N93" t="n">
-        <v>0.4601324997068365</v>
+        <v>0.4594442690323463</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04473130396386482</v>
+        <v>0.02749521168609255</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1887962031154639</v>
+        <v>0.1393741889762597</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04639583343986159</v>
+        <v>0.0158527694284199</v>
       </c>
       <c r="J94" t="n">
-        <v>0.222100948269645</v>
+        <v>0.1393741889762597</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04670215332688575</v>
+        <v>0.0158527694284199</v>
       </c>
       <c r="L94" t="n">
         <v>0.3433700901355304</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04631939504279509</v>
+        <v>0.02854175188951016</v>
       </c>
       <c r="N94" t="n">
         <v>0.463168792671274</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04632885053400285</v>
+        <v>0.02847718353202442</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1747913093763823</v>
+        <v>0.1403805739465001</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04799568976537406</v>
+        <v>0.01639941665008955</v>
       </c>
       <c r="J95" t="n">
-        <v>0.223571387599787</v>
+        <v>0.1403805739465001</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04831257240712319</v>
+        <v>0.01639941665008955</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3419693494743865</v>
+        <v>0.3421700226992226</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04791661556151215</v>
+        <v>0.02952595023052775</v>
       </c>
       <c r="N95" t="n">
-        <v>0.4605684612232984</v>
+        <v>0.4631537391335852</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04792639710414088</v>
+        <v>0.0294591553779563</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1767569552470328</v>
+        <v>0.141363696484375</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04959554609088652</v>
+        <v>0.0169460638717592</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2225574282628612</v>
+        <v>0.141363696484375</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04992299148736063</v>
+        <v>0.0169460638717592</v>
       </c>
       <c r="L96" t="n">
-        <v>0.3425417097455426</v>
+        <v>0.3423064481003553</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04951383608022922</v>
+        <v>0.03051014857154534</v>
       </c>
       <c r="N96" t="n">
-        <v>0.4604063206895128</v>
+        <v>0.4596986439108112</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04952394367427891</v>
+        <v>0.03044112722388818</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1866022041755424</v>
+        <v>0.1423238130052656</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05119540241639899</v>
+        <v>0.01749271109342886</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2230359582116693</v>
+        <v>0.1423238130052656</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05153341056759807</v>
+        <v>0.01749271109342886</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3399039568038794</v>
+        <v>0.3409288450648612</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0511110565989463</v>
+        <v>0.03149434691256293</v>
       </c>
       <c r="N97" t="n">
-        <v>0.460260036129133</v>
+        <v>0.46248508623303</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05112149024441694</v>
+        <v>0.03142309906982005</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1793367987085337</v>
+        <v>0.1432611799245531</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05279525874191146</v>
+        <v>0.01803935831509851</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2227650662391758</v>
+        <v>0.1432611799245531</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0531438296478355</v>
+        <v>0.01803935831509851</v>
       </c>
       <c r="L98" t="n">
-        <v>0.3402692391323235</v>
+        <v>0.3403447433839887</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05270827711766337</v>
+        <v>0.03247854525358052</v>
       </c>
       <c r="N98" t="n">
-        <v>0.4617473542750792</v>
+        <v>0.4604248475136637</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05271903681455497</v>
+        <v>0.03240507091575193</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1859680041659872</v>
+        <v>0.1441760536576189</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05439511506742394</v>
+        <v>0.01858600553676816</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2225605652189676</v>
+        <v>0.1441760536576189</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05475424872807295</v>
+        <v>0.01858600553676816</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3405507052138017</v>
+        <v>0.3414616728489856</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05430549763638044</v>
+        <v>0.03346274359459812</v>
       </c>
       <c r="N99" t="n">
-        <v>0.4600860218602718</v>
+        <v>0.4589297091661344</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05431658338469299</v>
+        <v>0.03338704276168381</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1795030858678834</v>
+        <v>0.145068690619844</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0559949713929364</v>
+        <v>0.01913265275843781</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2215312302391712</v>
+        <v>0.145068690619844</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05636466780831039</v>
+        <v>0.01913265275843781</v>
       </c>
       <c r="L100" t="n">
-        <v>0.340261503531241</v>
+        <v>0.3409871632511003</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05590271815509751</v>
+        <v>0.0344469419356157</v>
       </c>
       <c r="N100" t="n">
-        <v>0.4572937856176312</v>
+        <v>0.459611452603864</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05591412995483103</v>
+        <v>0.03436901460761568</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.176949309134203</v>
+        <v>0.14593934722661</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05759482771844887</v>
+        <v>0.01967929998010746</v>
       </c>
       <c r="J101" t="n">
-        <v>0.221085836387913</v>
+        <v>0.14593934722661</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05797508688854782</v>
+        <v>0.01967929998010746</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3384147825675684</v>
+        <v>0.3397287443815808</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05749993867381459</v>
+        <v>0.0354311402766333</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4569883922800777</v>
+        <v>0.4577818592402743</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05751167652496906</v>
+        <v>0.03535098645354756</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1693139392849264</v>
+        <v>0.1467882798932978</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05919468404396134</v>
+        <v>0.02022594720177711</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2193331587533193</v>
+        <v>0.1467882798932978</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05958550596878526</v>
+        <v>0.02022594720177711</v>
       </c>
       <c r="L102" t="n">
-        <v>0.3354236908057105</v>
+        <v>0.3382939460316752</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05909715919253165</v>
+        <v>0.03641533861765089</v>
       </c>
       <c r="N102" t="n">
-        <v>0.4543875885805314</v>
+        <v>0.4553527104887872</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05910922309510708</v>
+        <v>0.03633295829947943</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1736042416400342</v>
+        <v>0.1476157450352888</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0607945403694738</v>
+        <v>0.02077259442344677</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2185819724235164</v>
+        <v>0.1476157450352888</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06119592504902271</v>
+        <v>0.02077259442344677</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3360013767285944</v>
+        <v>0.3390902979926314</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06069437971124873</v>
+        <v>0.03739953695866848</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4521091212519129</v>
+        <v>0.4557357877628249</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06070676966524511</v>
+        <v>0.03731493014541131</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1778274815195071</v>
+        <v>0.1484219990679644</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06239439669498627</v>
+        <v>0.02131924164511642</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2187410524866308</v>
+        <v>0.1484219990679644</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06280634412926016</v>
+        <v>0.02131924164511642</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3353609888191469</v>
+        <v>0.3377253300556977</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06229160022996581</v>
+        <v>0.03838373529968607</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4522707370271425</v>
+        <v>0.4526428724758091</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06230431623538315</v>
+        <v>0.03829690199134319</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1759909242433255</v>
+        <v>0.1492072984067055</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06399425302049874</v>
+        <v>0.02186588886678607</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2172191740307889</v>
+        <v>0.1492072984067055</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06441676320949759</v>
+        <v>0.02186588886678607</v>
       </c>
       <c r="L105" t="n">
-        <v>0.333715675560295</v>
+        <v>0.3370065720121224</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06388882074868286</v>
+        <v>0.03936793364070366</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4497901826391405</v>
+        <v>0.4546857460411621</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06390186280552118</v>
+        <v>0.03927887383727507</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1831018351314699</v>
+        <v>0.1499718994668937</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06559410934601122</v>
+        <v>0.02241253608845572</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2168251121441169</v>
+        <v>0.1499718994668937</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06602718228973503</v>
+        <v>0.02241253608845572</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3310785854349654</v>
+        <v>0.3362415536531532</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06548604126739994</v>
+        <v>0.04035213198172125</v>
       </c>
       <c r="N106" t="n">
-        <v>0.445385204820827</v>
+        <v>0.4543761898723054</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06549940937565921</v>
+        <v>0.04026084568320694</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1821674795039211</v>
+        <v>0.15071605866391</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06719396567152368</v>
+        <v>0.02295918331012537</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2163676419147413</v>
+        <v>0.15071605866391</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06763760136997247</v>
+        <v>0.02295918331012537</v>
       </c>
       <c r="L107" t="n">
-        <v>0.329262866926085</v>
+        <v>0.3356378047700384</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06708326178611701</v>
+        <v>0.04133633032273885</v>
       </c>
       <c r="N107" t="n">
-        <v>0.4433735503051225</v>
+        <v>0.4496259853826612</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06709695594579723</v>
+        <v>0.04124281752913882</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1681951226806594</v>
+        <v>0.1514400324131358</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06879382199703614</v>
+        <v>0.02350583053179503</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2141555384307884</v>
+        <v>0.1514400324131358</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0692480204502099</v>
+        <v>0.02350583053179503</v>
       </c>
       <c r="L108" t="n">
-        <v>0.3274816685165809</v>
+        <v>0.3354028551540263</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06868048230483409</v>
+        <v>0.04232052866375644</v>
       </c>
       <c r="N108" t="n">
-        <v>0.4402729658249473</v>
+        <v>0.4514469139856515</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06869450251593526</v>
+        <v>0.0422247893750707</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1741920299816655</v>
+        <v>0.1521440771299523</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07039367832254861</v>
+        <v>0.02405247775346468</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2141975767803845</v>
+        <v>0.1521440771299523</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07085843953044735</v>
+        <v>0.02405247775346468</v>
       </c>
       <c r="L109" t="n">
-        <v>0.32624813868938</v>
+        <v>0.3347442345963645</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07027770282355116</v>
+        <v>0.04330472700477404</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4377011981132218</v>
+        <v>0.4499507570946981</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0702920490860733</v>
+        <v>0.04320676122100257</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.16816546672692</v>
+        <v>0.1528284492297407</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07199353464806109</v>
+        <v>0.02459912497513433</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2126025320516561</v>
+        <v>0.1528284492297407</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07246885861068479</v>
+        <v>0.02459912497513433</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3236754259274088</v>
+        <v>0.3316694728883016</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07187492334226823</v>
+        <v>0.04428892534579162</v>
       </c>
       <c r="N110" t="n">
-        <v>0.4380759939028662</v>
+        <v>0.4491492961232232</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07188959565621132</v>
+        <v>0.04418873306693444</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1711226982364032</v>
+        <v>0.1534934051278822</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07359339097357356</v>
+        <v>0.02514577219680398</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2114791793327295</v>
+        <v>0.1534934051278822</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07407927769092222</v>
+        <v>0.02514577219680398</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3217766787135946</v>
+        <v>0.3316860998210853</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0734721438609853</v>
+        <v>0.04527312368680922</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4327150999268008</v>
+        <v>0.4458543124846484</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07348714222634935</v>
+        <v>0.04517070491286632</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.168070989830096</v>
+        <v>0.1541392012397582</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07519324729908602</v>
+        <v>0.02569241941847363</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2106362937117311</v>
+        <v>0.1541392012397582</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07568969677115966</v>
+        <v>0.02569241941847363</v>
       </c>
       <c r="L112" t="n">
-        <v>0.3203650455308641</v>
+        <v>0.331901645185964</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07506936437970237</v>
+        <v>0.04625732202782681</v>
       </c>
       <c r="N112" t="n">
-        <v>0.4333362629179461</v>
+        <v>0.4460775875923957</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07508468879648737</v>
+        <v>0.0461526767587982</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1600176068279788</v>
+        <v>0.1547660939807499</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0767931036245985</v>
+        <v>0.02623906664014328</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2083826502767872</v>
+        <v>0.1547660939807499</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07730011585139711</v>
+        <v>0.02623906664014328</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3163536748621442</v>
+        <v>0.3309236387741857</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07666658489841945</v>
+        <v>0.04724152036884439</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4272572296092222</v>
+        <v>0.4416309028598875</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0766822353666254</v>
+        <v>0.04713464860473007</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1709698145500321</v>
+        <v>0.1553743397662385</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07839295995011096</v>
+        <v>0.02678571386181294</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2079270241160243</v>
+        <v>0.1553743397662385</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07891053493163454</v>
+        <v>0.02678571386181294</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3171557151903617</v>
+        <v>0.3270596103769984</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07826380541713651</v>
+        <v>0.04822571870986199</v>
       </c>
       <c r="N114" t="n">
-        <v>0.4282957467335495</v>
+        <v>0.4423260397005452</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07827978193676344</v>
+        <v>0.04811662045066195</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1709332296325252</v>
+        <v>0.1559641950116053</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07999281627562342</v>
+        <v>0.02733236108348259</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2062781903175685</v>
+        <v>0.1559641950116053</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08052095401187198</v>
+        <v>0.02733236108348259</v>
       </c>
       <c r="L115" t="n">
-        <v>0.3126598737912136</v>
+        <v>0.3267170897856506</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07986102593585359</v>
+        <v>0.04920991705087958</v>
       </c>
       <c r="N115" t="n">
-        <v>0.4259416638933969</v>
+        <v>0.438974779527791</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07987732850690148</v>
+        <v>0.04909859229659383</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1598016889917368</v>
+        <v>0.1565359161322316</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0815926726011359</v>
+        <v>0.02787900830515224</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2053422363656405</v>
+        <v>0.1565359161322316</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08213137309210942</v>
+        <v>0.02787900830515224</v>
       </c>
       <c r="L116" t="n">
-        <v>0.3116368497853264</v>
+        <v>0.3259036067913899</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08145824645457066</v>
+        <v>0.05019411539189717</v>
       </c>
       <c r="N116" t="n">
-        <v>0.4224885860538226</v>
+        <v>0.4398889037550467</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0814748750770395</v>
+        <v>0.05008056414252571</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1715250319260301</v>
+        <v>0.1570897595434984</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08319252892664837</v>
+        <v>0.02842565552682189</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2034885567716377</v>
+        <v>0.1570897595434984</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08374179217234685</v>
+        <v>0.02842565552682189</v>
       </c>
       <c r="L117" t="n">
-        <v>0.308761229456121</v>
+        <v>0.3268266911854645</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08305546697328774</v>
+        <v>0.05117831373291476</v>
       </c>
       <c r="N117" t="n">
-        <v>0.4199928976624474</v>
+        <v>0.4385801937957344</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08307242164717753</v>
+        <v>0.05106253598845758</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1691269297163633</v>
+        <v>0.1576259816607872</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08479238525216085</v>
+        <v>0.02897230274849154</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2029615912187802</v>
+        <v>0.1576259816607872</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0853522112525843</v>
+        <v>0.02897230274849154</v>
       </c>
       <c r="L118" t="n">
-        <v>0.3080758521326801</v>
+        <v>0.3258938727591228</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0846526874920048</v>
+        <v>0.05216251207393235</v>
       </c>
       <c r="N118" t="n">
-        <v>0.4130124196964856</v>
+        <v>0.4357604310632762</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08466996821731557</v>
+        <v>0.05204450783438946</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1526310536436949</v>
+        <v>0.1581448388994793</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08639224157767331</v>
+        <v>0.02951894997016119</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2013899299931155</v>
+        <v>0.1581448388994793</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08696263033282174</v>
+        <v>0.02951894997016119</v>
       </c>
       <c r="L119" t="n">
-        <v>0.3034235571440863</v>
+        <v>0.3244126813036125</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08624990801072187</v>
+        <v>0.05314671041494995</v>
       </c>
       <c r="N119" t="n">
-        <v>0.4123049731331512</v>
+        <v>0.4349413969710937</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08626751478745359</v>
+        <v>0.05302647968032134</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1540610749889832</v>
+        <v>0.1586465876749556</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08799209790318577</v>
+        <v>0.03006559719183084</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1980021633806917</v>
+        <v>0.1586465876749556</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08857304941305917</v>
+        <v>0.03006559719183084</v>
       </c>
       <c r="L120" t="n">
-        <v>0.3004471838194221</v>
+        <v>0.3233906466101821</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08784712852943895</v>
+        <v>0.05413090875596754</v>
       </c>
       <c r="N120" t="n">
-        <v>0.4060283789496584</v>
+        <v>0.4344348729326092</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08786506135759162</v>
+        <v>0.05400845152625321</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1634406650331864</v>
+        <v>0.1591314844025978</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08959195422869824</v>
+        <v>0.0306122444135005</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1958268816675564</v>
+        <v>0.1591314844025978</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09018346849329661</v>
+        <v>0.0306122444135005</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2983895714877704</v>
+        <v>0.3212352984700794</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08944434904815601</v>
+        <v>0.05511510709698513</v>
       </c>
       <c r="N121" t="n">
-        <v>0.4042404581232212</v>
+        <v>0.4362526403612442</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08946260792772964</v>
+        <v>0.05499042337218509</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1457934950572628</v>
+        <v>0.1595997854977868</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0911918105542107</v>
+        <v>0.03115889163517015</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1938926751397575</v>
+        <v>0.1595997854977868</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09179388757353406</v>
+        <v>0.03115889163517015</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2952935594782136</v>
+        <v>0.3202541666745527</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09104156956687309</v>
+        <v>0.05609930543800272</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3991990316310537</v>
+        <v>0.4336064806704212</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09106015449786767</v>
+        <v>0.05597239521811696</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1521432363421708</v>
+        <v>0.1600517473759039</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09279166687972318</v>
+        <v>0.0317055388568398</v>
       </c>
       <c r="J123" t="n">
-        <v>0.192828134083343</v>
+        <v>0.1600517473759039</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0934043066537715</v>
+        <v>0.0317055388568398</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2923019871198346</v>
+        <v>0.3213546670683781</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09263879008559017</v>
+        <v>0.05708350377902032</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3960619204503699</v>
+        <v>0.4367976166262401</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09265770106800571</v>
+        <v>0.05695436706404885</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1605135601688686</v>
+        <v>0.1604876264523304</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09439152320523565</v>
+        <v>0.03225218607850946</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1905618487843604</v>
+        <v>0.1604876264523304</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09501472573400893</v>
+        <v>0.03225218607850946</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2893576937417159</v>
+        <v>0.3224010539344562</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09423601060430724</v>
+        <v>0.05806770212003791</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3929869455583843</v>
+        <v>0.4371237626037897</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09425524763814373</v>
+        <v>0.05793633890998072</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1509281378183147</v>
+        <v>0.1609076791424477</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09599137953074811</v>
+        <v>0.0327988333001791</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1883224095288578</v>
+        <v>0.1609076791424477</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09662514481424637</v>
+        <v>0.0327988333001791</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2860035186729402</v>
+        <v>0.3196602354291914</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0958332311230243</v>
+        <v>0.0590519004610555</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3860319279323106</v>
+        <v>0.4368565737276225</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09585279420828176</v>
+        <v>0.0589183107559126</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1514106405714672</v>
+        <v>0.1613121618616368</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09759123585626059</v>
+        <v>0.03334548052184876</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1876384066028829</v>
+        <v>0.1613121618616368</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09823556389448382</v>
+        <v>0.03334548052184876</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2852819220211713</v>
+        <v>0.3196317593658906</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09743045164174137</v>
+        <v>0.06003609880207308</v>
       </c>
       <c r="N126" t="n">
-        <v>0.382954646074564</v>
+        <v>0.4337963683280823</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09745034077841978</v>
+        <v>0.05990028260184447</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1558974911250304</v>
+        <v>0.1617013310252791</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09919109218177305</v>
+        <v>0.03389212774351841</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1851384302924836</v>
+        <v>0.1617013310252791</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09984598297472126</v>
+        <v>0.03389212774351841</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2811784936919059</v>
+        <v>0.3186151735578605</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09902767216045845</v>
+        <v>0.06102029714309069</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3815828939616328</v>
+        <v>0.4345434647355132</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09904788734855782</v>
+        <v>0.06088225444777635</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1522453112055127</v>
+        <v>0.1620754430487558</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1007909485072855</v>
+        <v>0.03443877496518806</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1827203171594663</v>
+        <v>0.1620754430487558</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1014564020549587</v>
+        <v>0.03443877496518806</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2764283322724462</v>
+        <v>0.3205100258184083</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1006248926791755</v>
+        <v>0.06200449548410827</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3729758755776355</v>
+        <v>0.434998181280259</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1006454339186958</v>
+        <v>0.06186422629370823</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1504832582928508</v>
+        <v>0.1624347543474481</v>
       </c>
       <c r="G129" t="n">
-        <v>0.102390804832798</v>
+        <v>0.03498542218685771</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1824352134414874</v>
+        <v>0.1624347543474481</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1030668211351961</v>
+        <v>0.03498542218685771</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2746927622749238</v>
+        <v>0.319115863960841</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1022221131978926</v>
+        <v>0.06298869382512587</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3719163616683928</v>
+        <v>0.4324608362926637</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1022429804888339</v>
+        <v>0.0628461981396401</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1496452178326713</v>
+        <v>0.1627795213367373</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1039906611583105</v>
+        <v>0.03553206940852736</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1781226940913904</v>
+        <v>0.1627795213367373</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1046772402154336</v>
+        <v>0.03553206940852736</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2708331082114701</v>
+        <v>0.3170322357984651</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1038193337166097</v>
+        <v>0.06397289216614345</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3662871229797253</v>
+        <v>0.435231748103071</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1038405270589719</v>
+        <v>0.06382816998557198</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1407650752706004</v>
+        <v>0.1631100004320047</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1055905174838229</v>
+        <v>0.03607871663019702</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1762236861120281</v>
+        <v>0.1631100004320047</v>
       </c>
       <c r="K131" t="n">
-        <v>0.106287659295671</v>
+        <v>0.03607871663019702</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2694106945942171</v>
+        <v>0.3169586891445879</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1054165542353267</v>
+        <v>0.06495709050716104</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3624709302574536</v>
+        <v>0.4335112350418248</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1054380736291099</v>
+        <v>0.06481014183150385</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1348767160522645</v>
+        <v>0.1634264480486316</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1071903738093354</v>
+        <v>0.03662536385186667</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1747791165062538</v>
+        <v>0.1634264480486316</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1078980783759085</v>
+        <v>0.03662536385186667</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2632868459352963</v>
+        <v>0.3165947718125162</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1070137747540438</v>
+        <v>0.06594128884817864</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3566505542473987</v>
+        <v>0.4331996154392692</v>
       </c>
       <c r="O132" t="n">
-        <v>0.107035620199248</v>
+        <v>0.06579211367743573</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.13301402562329</v>
+        <v>0.163729120601999</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1087902301348479</v>
+        <v>0.03717201107353631</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1723299122769203</v>
+        <v>0.163729120601999</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1095084974561459</v>
+        <v>0.03717201107353631</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2600228867468393</v>
+        <v>0.3172400316155571</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1086109952727609</v>
+        <v>0.06692548718919623</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3525087656953813</v>
+        <v>0.4334972076257477</v>
       </c>
       <c r="O133" t="n">
-        <v>0.108633166769386</v>
+        <v>0.06677408552336761</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1272108894293032</v>
+        <v>0.1640182745074883</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1103900864603603</v>
+        <v>0.03771865829520597</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1701170004268809</v>
+        <v>0.1640182745074883</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1111189165363833</v>
+        <v>0.03771865829520597</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2583801415409778</v>
+        <v>0.3183940163670174</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1102082157914779</v>
+        <v>0.06790968553021381</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3484283353472217</v>
+        <v>0.4325043299316046</v>
       </c>
       <c r="O134" t="n">
-        <v>0.110230713339524</v>
+        <v>0.06775605736929949</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1325011929159304</v>
+        <v>0.1642941661804808</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1119899427858728</v>
+        <v>0.03826530551687563</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1680813079589884</v>
+        <v>0.1642941661804808</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1127293356166208</v>
+        <v>0.03826530551687563</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2567199348298434</v>
+        <v>0.3171562738802038</v>
       </c>
       <c r="M135" t="n">
-        <v>0.111805436310195</v>
+        <v>0.06889388387123141</v>
       </c>
       <c r="N135" t="n">
-        <v>0.343792033948741</v>
+        <v>0.4340213006871836</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1118282599096621</v>
+        <v>0.06873802921523135</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.128918821528798</v>
+        <v>0.1645570520363577</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1135897991113853</v>
+        <v>0.03881195273854527</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1666637618760958</v>
+        <v>0.1645570520363577</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1143397546968582</v>
+        <v>0.03881195273854527</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2509035911255677</v>
+        <v>0.3169263519684237</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1134026568289121</v>
+        <v>0.069878082212249</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3390826322457599</v>
+        <v>0.4313484382228285</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1134258064798001</v>
+        <v>0.06972000106116324</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1264976607135324</v>
+        <v>0.1648071884905001</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1151896554368977</v>
+        <v>0.03935859996021492</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1646052891810563</v>
+        <v>0.1648071884905001</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1159501737770956</v>
+        <v>0.03935859996021492</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2489924349402826</v>
+        <v>0.3168037984449837</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1149998773476292</v>
+        <v>0.0708622805532666</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3364829009840989</v>
+        <v>0.4301860608688833</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1150233530499381</v>
+        <v>0.07070197290709512</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1342715959157599</v>
+        <v>0.1650448319582896</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1167895117624102</v>
+        <v>0.03990524718188457</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1621468168767228</v>
+        <v>0.1650448319582896</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1175605928573331</v>
+        <v>0.03990524718188457</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2461477907861195</v>
+        <v>0.3148881611231908</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1165970978663462</v>
+        <v>0.07184647889428419</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3323756109095789</v>
+        <v>0.4317344869556922</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1166208996200761</v>
+        <v>0.07168394475302699</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1192745125811068</v>
+        <v>0.1652702388551071</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1183893680879227</v>
+        <v>0.04045189440355423</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1610292719659484</v>
+        <v>0.1652702388551071</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1191710119375705</v>
+        <v>0.04045189440355423</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2463309831752102</v>
+        <v>0.314878987816352</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1181943183850633</v>
+        <v>0.07283067723530177</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3321435327680206</v>
+        <v>0.4323940348135983</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1182184461902142</v>
+        <v>0.07266591659895887</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1215402961551994</v>
+        <v>0.165483665596334</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1199892244134352</v>
+        <v>0.04099854162522388</v>
       </c>
       <c r="J140" t="n">
-        <v>0.160093581451586</v>
+        <v>0.165483665596334</v>
       </c>
       <c r="K140" t="n">
-        <v>0.120781431017808</v>
+        <v>0.04099854162522388</v>
       </c>
       <c r="L140" t="n">
-        <v>0.2451033366196863</v>
+        <v>0.3158758263377742</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1197915389037804</v>
+        <v>0.07381487557631938</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3314694373052444</v>
+        <v>0.4315650227729462</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1198159927603522</v>
+        <v>0.07364788844489074</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1301028320836642</v>
+        <v>0.1656853685973515</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1215890807389476</v>
+        <v>0.04154518884689353</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1603806723364887</v>
+        <v>0.1656853685973515</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1223918500980454</v>
+        <v>0.04154518884689353</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2440261756316794</v>
+        <v>0.3155782245007644</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1213887594224975</v>
+        <v>0.07479907391733696</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3289360952670716</v>
+        <v>0.4329477691640795</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1214135393304902</v>
+        <v>0.07462986029082262</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1219902562901183</v>
+        <v>0.165875604273541</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1231889370644601</v>
+        <v>0.04209183606856318</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1598314716235095</v>
+        <v>0.165875604273541</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1240022691782829</v>
+        <v>0.04209183606856318</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2450169439378299</v>
+        <v>0.3129857301186293</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1229859799412145</v>
+        <v>0.07578327225835456</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3267743689965878</v>
+        <v>0.4335425923173422</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1230110859006283</v>
+        <v>0.0756118321367545</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1310257385629161</v>
+        <v>0.1660546290402835</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1247887933899725</v>
+        <v>0.04263848329023284</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1585583173680592</v>
+        <v>0.1660546290402835</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1256126882585203</v>
+        <v>0.04263848329023284</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2445996260093142</v>
+        <v>0.3137978910046761</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1245832004599316</v>
+        <v>0.07676747059937214</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3267828873788315</v>
+        <v>0.4316498105630779</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1246086324707663</v>
+        <v>0.07659380398268638</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1201104499550514</v>
+        <v>0.1662226993129605</v>
       </c>
       <c r="G144" t="n">
-        <v>0.126388649715485</v>
+        <v>0.04318513051190248</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1594128481811355</v>
+        <v>0.1662226993129605</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1272231073387577</v>
+        <v>0.04318513051190248</v>
       </c>
       <c r="L144" t="n">
-        <v>0.242870648202053</v>
+        <v>0.3146142549722117</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1261804209786486</v>
+        <v>0.07775166894038975</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3310107657999607</v>
+        <v>0.4304697422316308</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1262061790409043</v>
+        <v>0.07757577582861826</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1222419005763228</v>
+        <v>0.166380071506953</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1279885060409975</v>
+        <v>0.04373177773357214</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1597258275800193</v>
+        <v>0.166380071506953</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1288335264189952</v>
+        <v>0.04373177773357214</v>
       </c>
       <c r="L145" t="n">
-        <v>0.2457255044132336</v>
+        <v>0.3131343698345427</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1277776414973657</v>
+        <v>0.07873586728140733</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3302519222957226</v>
+        <v>0.4322027056533448</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1278037256110424</v>
+        <v>0.07855774767455014</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1184176005365292</v>
+        <v>0.1665270020376424</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1295883623665099</v>
+        <v>0.04427842495524179</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1585942482634494</v>
+        <v>0.1665270020376424</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1304439454992326</v>
+        <v>0.04427842495524179</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2460596885400431</v>
+        <v>0.3132577834049764</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1293748620160828</v>
+        <v>0.07972006562242492</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3323002749018656</v>
+        <v>0.4304490191585637</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1294012721811804</v>
+        <v>0.079539719520482</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1296350599454693</v>
+        <v>0.1666637473204099</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1311882186920224</v>
+        <v>0.04482507217691144</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1598151029301644</v>
+        <v>0.1666637473204099</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1320543645794701</v>
+        <v>0.04482507217691144</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2450686944796687</v>
+        <v>0.3116840434968196</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1309720825347999</v>
+        <v>0.0807042639634425</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3306497416541376</v>
+        <v>0.4314090010776312</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1309988187513184</v>
+        <v>0.08052169136641388</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1268917889129418</v>
+        <v>0.1667905637706368</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1327880750175349</v>
+        <v>0.0453717193985811</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1591853842789032</v>
+        <v>0.1667905637706368</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1336647836597075</v>
+        <v>0.0453717193985811</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2464480161292972</v>
+        <v>0.3134126979233793</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1325693030535169</v>
+        <v>0.0816884623044601</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3308942405882859</v>
+        <v>0.4333827190241096</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1325963653214564</v>
+        <v>0.08150366321234576</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1331852975487456</v>
+        <v>0.1669077078037044</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1343879313430474</v>
+        <v>0.04591836662025075</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1588020850084045</v>
+        <v>0.1669077078037044</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1352752027399449</v>
+        <v>0.04591836662025075</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2443931473861161</v>
+        <v>0.3135465120042375</v>
       </c>
       <c r="M149" t="n">
-        <v>0.134166523572234</v>
+        <v>0.08267266064547769</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3302276897400589</v>
+        <v>0.430362111060607</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1341939118915945</v>
+        <v>0.08248563505827763</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1255130959626793</v>
+        <v>0.1670154358349938</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1359877876685598</v>
+        <v>0.04646501384192039</v>
       </c>
       <c r="J150" t="n">
-        <v>0.160762197817407</v>
+        <v>0.1670154358349938</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1368856218201824</v>
+        <v>0.04646501384192039</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2480995821473124</v>
+        <v>0.3128890929963214</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1357637440909511</v>
+        <v>0.08365685898649529</v>
       </c>
       <c r="N150" t="n">
-        <v>0.334944007145204</v>
+        <v>0.4313431134008712</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1357914584617325</v>
+        <v>0.08346760690420951</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1258726942645418</v>
+        <v>0.1671140042798863</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1375876439940723</v>
+        <v>0.04701166106359005</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1612627154046496</v>
+        <v>0.1671140042798863</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1384960409004198</v>
+        <v>0.04701166106359005</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2457628143100732</v>
+        <v>0.3124399429569593</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1373609646096682</v>
+        <v>0.08464105732751288</v>
       </c>
       <c r="N151" t="n">
-        <v>0.3322371108394693</v>
+        <v>0.4305256358687224</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1373890050318705</v>
+        <v>0.08444957875014139</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1312616025641318</v>
+        <v>0.1672036695537631</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1391875003195848</v>
+        <v>0.0475583082852597</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1608006304688711</v>
+        <v>0.1672036695537631</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1401064599806572</v>
+        <v>0.0475583082852597</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2487783377715857</v>
+        <v>0.3121985493650216</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1389581851283853</v>
+        <v>0.08562525566853046</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3351009188586026</v>
+        <v>0.4312095882879808</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1389865516020086</v>
+        <v>0.08543155059607326</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1346773309712481</v>
+        <v>0.1672846880720056</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1407873566450972</v>
+        <v>0.04810495550692935</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1612729357088101</v>
+        <v>0.1672846880720056</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1417168790608947</v>
+        <v>0.04810495550692935</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2483416464290369</v>
+        <v>0.3099643996993794</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1405554056471023</v>
+        <v>0.08660945400954807</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3374293492383516</v>
+        <v>0.4286948804824665</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1405840981721466</v>
+        <v>0.08641352244200515</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1311173895956894</v>
+        <v>0.167357316249995</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1423872129706097</v>
+        <v>0.048651602728599</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1631766238232055</v>
+        <v>0.167357316249995</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1433272981411321</v>
+        <v>0.048651602728599</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2480511855172697</v>
+        <v>0.3120369814389032</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1421526261658194</v>
+        <v>0.08759365235056565</v>
       </c>
       <c r="N154" t="n">
-        <v>0.336618475216437</v>
+        <v>0.4293814222759996</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1421816447422846</v>
+        <v>0.08739549428793703</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1327558131671787</v>
+        <v>0.1674218105031125</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1439870692961222</v>
+        <v>0.04919824995026865</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1633176899104704</v>
+        <v>0.1674218105031125</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1449377172213696</v>
+        <v>0.04919824995026865</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2494503182813892</v>
+        <v>0.3102157820624642</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1437498466845365</v>
+        <v>0.08857785069158325</v>
       </c>
       <c r="N155" t="n">
-        <v>0.3392475491814771</v>
+        <v>0.4303691234924003</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1437791913124226</v>
+        <v>0.08837746613386889</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1258002029010526</v>
+        <v>0.1674784272467392</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1455869256216346</v>
+        <v>0.04974489717193831</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1630231977018294</v>
+        <v>0.1674784272467392</v>
       </c>
       <c r="K156" t="n">
-        <v>0.146548136301607</v>
+        <v>0.04974489717193831</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2524647533180976</v>
+        <v>0.3100002890489331</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1453470672032535</v>
+        <v>0.08956204903260083</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3393459662761596</v>
+        <v>0.4323578939554886</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1453767378825607</v>
+        <v>0.08935943797980077</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1271775227358011</v>
+        <v>0.1675274228962566</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1471867819471471</v>
+        <v>0.05029154439360796</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1652924909342431</v>
+        <v>0.1675274228962566</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1481585553818444</v>
+        <v>0.05029154439360796</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2572584622593413</v>
+        <v>0.3114899898771805</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1469442877219706</v>
+        <v>0.09054624737361844</v>
       </c>
       <c r="N157" t="n">
-        <v>0.3434301266790564</v>
+        <v>0.4299476434890849</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1469742844526987</v>
+        <v>0.09034140982573265</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1378126088958131</v>
+        <v>0.1675690538670458</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1487866382726596</v>
+        <v>0.05083819161527761</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1677347864410151</v>
+        <v>0.1675690538670458</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1497689744620819</v>
+        <v>0.05083819161527761</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2575954167370665</v>
+        <v>0.3095843720260774</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1485415082406877</v>
+        <v>0.09153044571463602</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3504164305687382</v>
+        <v>0.4295382819170089</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1485718310228367</v>
+        <v>0.09132338167166452</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1446302976054774</v>
+        <v>0.1676035765744882</v>
       </c>
       <c r="G159" t="n">
-        <v>0.150386494598172</v>
+        <v>0.05138483883694726</v>
       </c>
       <c r="J159" t="n">
-        <v>0.169059301055449</v>
+        <v>0.1676035765744882</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1513793935423193</v>
+        <v>0.05138483883694726</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2636395883832198</v>
+        <v>0.3097829229744947</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1501387287594047</v>
+        <v>0.09251464405565361</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3555212781237763</v>
+        <v>0.431429719063081</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1501693775929747</v>
+        <v>0.0923053535175964</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.134555425089183</v>
+        <v>0.167631247433965</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1519863509236845</v>
+        <v>0.05193148605861692</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1718752516108483</v>
+        <v>0.167631247433965</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1529898126225568</v>
+        <v>0.05193148605861692</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2663549488297471</v>
+        <v>0.3094851302013029</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1517359492781218</v>
+        <v>0.09349884239667121</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3572610695227422</v>
+        <v>0.4290218647511215</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1517669241631128</v>
+        <v>0.09328732536352828</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1345128275713187</v>
+        <v>0.1676523228608572</v>
       </c>
       <c r="G161" t="n">
-        <v>0.153586207249197</v>
+        <v>0.05247813328028656</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1739918549405166</v>
+        <v>0.1676523228608572</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1546002317027942</v>
+        <v>0.05247813328028656</v>
       </c>
       <c r="L161" t="n">
-        <v>0.269705469708595</v>
+        <v>0.310390481185373</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1533331697968389</v>
+        <v>0.09448304073768879</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3639522049442067</v>
+        <v>0.4306146288049499</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1533644707332508</v>
+        <v>0.09426929720946015</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1494273412762734</v>
+        <v>0.1676670592705464</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1551860635747095</v>
+        <v>0.05302478050195622</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1748183278777575</v>
+        <v>0.1676670592705464</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1562106507830316</v>
+        <v>0.05302478050195622</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2709551226517099</v>
+        <v>0.3085984634055759</v>
       </c>
       <c r="M162" t="n">
-        <v>0.154930390315556</v>
+        <v>0.0954672390787064</v>
       </c>
       <c r="N162" t="n">
-        <v>0.3660110845667415</v>
+        <v>0.4326079210483871</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1549620173033888</v>
+        <v>0.09525126905539204</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.151223802428436</v>
+        <v>0.1676757130784137</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1567859199002219</v>
+        <v>0.05357142772362587</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1784638872558745</v>
+        <v>0.1676757130784137</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1578210698632691</v>
+        <v>0.05357142772362587</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2755678792910378</v>
+        <v>0.3101085643407821</v>
       </c>
       <c r="M163" t="n">
-        <v>0.156527610834273</v>
+        <v>0.09645143741972398</v>
       </c>
       <c r="N163" t="n">
-        <v>0.3720541085689175</v>
+        <v>0.4287016513052527</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1565595638735269</v>
+        <v>0.0962332409013239</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1408270472521955</v>
+        <v>0.1676785406998402</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1583857762257344</v>
+        <v>0.05411807494529552</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1799377499081714</v>
+        <v>0.1676785406998402</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1594314889435065</v>
+        <v>0.05411807494529552</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2768077112585251</v>
+        <v>0.3108202714698629</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1581248313529901</v>
+        <v>0.09743563576074157</v>
       </c>
       <c r="N164" t="n">
-        <v>0.374697677129306</v>
+        <v>0.4306957293993672</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1581571104436649</v>
+        <v>0.09721521274725578</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1462232857860979</v>
+        <v>0.1676785406998402</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1599856325512468</v>
+        <v>0.05411807494529552</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1819491659497192</v>
+        <v>0.1676785406998402</v>
       </c>
       <c r="K165" t="n">
-        <v>0.161041908023744</v>
+        <v>0.05411807494529552</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2803139882139643</v>
+        <v>0.3090330722716886</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1597220518717072</v>
+        <v>0.09841983410175915</v>
       </c>
       <c r="N165" t="n">
-        <v>0.3769830196178036</v>
+        <v>0.4290900651545502</v>
       </c>
       <c r="O165" t="n">
-        <v>0.159754657013803</v>
+        <v>0.09819718459318766</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1495716072444201</v>
+        <v>0.1649525035098867</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1615854888767593</v>
+        <v>0.0541178064168315</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1823825971333811</v>
+        <v>0.1649525035098867</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1626523271039814</v>
+        <v>0.0541178064168315</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2817525072410194</v>
+        <v>0.3100464542251303</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1613192723904243</v>
+        <v>0.09940403244277676</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3806745942548162</v>
+        <v>0.4324845683946221</v>
       </c>
       <c r="O166" t="n">
-        <v>0.161352203583941</v>
+        <v>0.09917915643911954</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1488880813454675</v>
+        <v>0.162256983362906</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1631853452022718</v>
+        <v>0.05411753788836749</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1850759640613898</v>
+        <v>0.162256983362906</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1642627461842188</v>
+        <v>0.05411753788836749</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2874339929689249</v>
+        <v>0.3078599048090587</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1629164929091413</v>
+        <v>0.1003882307837943</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3858890892863067</v>
+        <v>0.4304791489434032</v>
       </c>
       <c r="O167" t="n">
-        <v>0.162949750154079</v>
+        <v>0.1001611282850514</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.156175092510429</v>
+        <v>0.1595934128143283</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1647852015277843</v>
+        <v>0.05411726935990346</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1854321466490306</v>
+        <v>0.1595934128143283</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1658731652644563</v>
+        <v>0.05411726935990346</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2892627606269316</v>
+        <v>0.3101729115023449</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1645137134278584</v>
+        <v>0.1013724291248119</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3907323290512067</v>
+        <v>0.4291737166247136</v>
       </c>
       <c r="O168" t="n">
-        <v>0.164547296724217</v>
+        <v>0.1011431001309833</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1514350251604937</v>
+        <v>0.1569632244199309</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1663850578532967</v>
+        <v>0.05411700083143945</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1874540248115886</v>
+        <v>0.1569632244199309</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1674835843446937</v>
+        <v>0.05411700083143945</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2920431254442902</v>
+        <v>0.3075849617838591</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1661109339465755</v>
+        <v>0.1023566274658295</v>
       </c>
       <c r="N169" t="n">
-        <v>0.3894101378884477</v>
+        <v>0.4326681812623734</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1661448432943551</v>
+        <v>0.1021250719769152</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1546702637168508</v>
+        <v>0.1543678507351427</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1679849141788092</v>
+        <v>0.05411673230297544</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1892444784643492</v>
+        <v>0.1543678507351427</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1690940034249312</v>
+        <v>0.05411673230297544</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2934794026502512</v>
+        <v>0.3068955431324729</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1677081544652925</v>
+        <v>0.1033408258068471</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3932283401369612</v>
+        <v>0.4312624526802025</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1677423898644931</v>
+        <v>0.103107043822847</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1448831926006892</v>
+        <v>0.1518087243155091</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1695847705043217</v>
+        <v>0.05411646377451142</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1914063875225979</v>
+        <v>0.1518087243155091</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1707044225051686</v>
+        <v>0.05411646377451142</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2945759074740651</v>
+        <v>0.3064041430270565</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1693053749840096</v>
+        <v>0.1043250241478647</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3989927601356785</v>
+        <v>0.4311564407020211</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1693399364346311</v>
+        <v>0.1040890156687789</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1640761962331982</v>
+        <v>0.1492872777164666</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1711846268298341</v>
+        <v>0.0541161952460474</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1931426319016197</v>
+        <v>0.1492872777164666</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1723148415854061</v>
+        <v>0.0541161952460474</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2979369551449828</v>
+        <v>0.3093102489464809</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1709025955027267</v>
+        <v>0.1053092224888823</v>
       </c>
       <c r="N172" t="n">
-        <v>0.399509222223531</v>
+        <v>0.4307500551516495</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1709374830047692</v>
+        <v>0.1050709875147108</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1472516590355668</v>
+        <v>0.1468049434937801</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1727844831553466</v>
+        <v>0.05411592671758338</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1930560915167001</v>
+        <v>0.1468049434937801</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1739252606656435</v>
+        <v>0.05411592671758338</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2989668608922547</v>
+        <v>0.3074133483696168</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1724998160214437</v>
+        <v>0.1062934208298999</v>
       </c>
       <c r="N173" t="n">
-        <v>0.4016835507394503</v>
+        <v>0.4299432058529076</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1725350295749072</v>
+        <v>0.1060529593606427</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1554119654289839</v>
+        <v>0.1443631542028847</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1743843394808591</v>
+        <v>0.05411565818911936</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1958496462831242</v>
+        <v>0.1443631542028847</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1755356797458809</v>
+        <v>0.05411565818911936</v>
       </c>
       <c r="L174" t="n">
-        <v>0.3026699399451316</v>
+        <v>0.3084129287753353</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1740970365401608</v>
+        <v>0.1072776191709175</v>
       </c>
       <c r="N174" t="n">
-        <v>0.405521570022368</v>
+        <v>0.4291358026296158</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1741325761450452</v>
+        <v>0.1070349312065745</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1565594998346389</v>
+        <v>0.1419633423993257</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1759841958063715</v>
+        <v>0.05411538966065535</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1971261761161776</v>
+        <v>0.1419633423993257</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1771460988261183</v>
+        <v>0.05411538966065535</v>
       </c>
       <c r="L175" t="n">
-        <v>0.3017505075328639</v>
+        <v>0.305708477642507</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1756942570588779</v>
+        <v>0.1082618175119351</v>
       </c>
       <c r="N175" t="n">
-        <v>0.4084291044112152</v>
+        <v>0.4305277553055938</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1757301227151832</v>
+        <v>0.1080169030525064</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1546976897592119</v>
+        <v>0.139606940638547</v>
       </c>
       <c r="G176" t="n">
-        <v>0.177584052131884</v>
+        <v>0.05411512113219132</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1970885609311454</v>
+        <v>0.139606940638547</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1787565179063558</v>
+        <v>0.05411512113219132</v>
       </c>
       <c r="L176" t="n">
-        <v>0.30542060500656</v>
+        <v>0.3083994824500028</v>
       </c>
       <c r="M176" t="n">
-        <v>0.177291477577595</v>
+        <v>0.1092460158529527</v>
       </c>
       <c r="N176" t="n">
-        <v>0.4110211506348219</v>
+        <v>0.4290189737046624</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1773276692853213</v>
+        <v>0.1089988748984383</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1688858681962529</v>
+        <v>0.1372953814762989</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1791839084573965</v>
+        <v>0.05411485260372731</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1997587523514078</v>
+        <v>0.1372953814762989</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1803669369865932</v>
+        <v>0.05411485260372731</v>
       </c>
       <c r="L177" t="n">
-        <v>0.3061967479531838</v>
+        <v>0.3077854306766932</v>
       </c>
       <c r="M177" t="n">
-        <v>0.178888698096312</v>
+        <v>0.1102302141939703</v>
       </c>
       <c r="N177" t="n">
-        <v>0.4162541176411308</v>
+        <v>0.4288093676506411</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1789252158554593</v>
+        <v>0.1099808467443702</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1651280073396436</v>
+        <v>0.1350300974680238</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1807837647829089</v>
+        <v>0.0541145840752633</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2017086165578809</v>
+        <v>0.1350300974680238</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1819773560668307</v>
+        <v>0.0541145840752633</v>
       </c>
       <c r="L178" t="n">
-        <v>0.3107600653000348</v>
+        <v>0.3053658098014496</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1804859186150291</v>
+        <v>0.1112144125349878</v>
       </c>
       <c r="N178" t="n">
-        <v>0.4182064979649541</v>
+        <v>0.4321988469673502</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1805227624255973</v>
+        <v>0.1109628185903021</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1603831470388266</v>
+        <v>0.1328125211692668</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1823836211084214</v>
+        <v>0.05411431554679928</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2015019857423114</v>
+        <v>0.1328125211692668</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1835877751470681</v>
+        <v>0.05411431554679928</v>
       </c>
       <c r="L179" t="n">
-        <v>0.3137364290194795</v>
+        <v>0.3067401073031424</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1820831391337462</v>
+        <v>0.1121986108760054</v>
       </c>
       <c r="N179" t="n">
-        <v>0.4201782397360012</v>
+        <v>0.4294873214786099</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1821203089957353</v>
+        <v>0.1119447904362339</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1716103271432445</v>
+        <v>0.1306440851354803</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1839834774339339</v>
+        <v>0.05411404701833526</v>
       </c>
       <c r="J180" t="n">
-        <v>0.202789388039486</v>
+        <v>0.1306440851354803</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1851981942273056</v>
+        <v>0.05411404701833526</v>
       </c>
       <c r="L180" t="n">
-        <v>0.3159517110838838</v>
+        <v>0.3077078106606424</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1836803596524633</v>
+        <v>0.113182809217023</v>
       </c>
       <c r="N180" t="n">
-        <v>0.4219692910839802</v>
+        <v>0.4312747010082404</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1837178555658734</v>
+        <v>0.1129267622821658</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.17376858750234</v>
+        <v>0.1285262219223983</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1855833337594464</v>
+        <v>0.05411377848987124</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2059213515841912</v>
+        <v>0.1285262219223983</v>
       </c>
       <c r="K181" t="n">
-        <v>0.186808613307543</v>
+        <v>0.05411377848987124</v>
       </c>
       <c r="L181" t="n">
-        <v>0.316731783465614</v>
+        <v>0.3064684073528206</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1852775801711803</v>
+        <v>0.1141670075580406</v>
       </c>
       <c r="N181" t="n">
-        <v>0.4249796001386004</v>
+        <v>0.4311608953800617</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1853154021360114</v>
+        <v>0.1139087341280977</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1658169679655556</v>
+        <v>0.1264603640854708</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1871831900849588</v>
+        <v>0.05411350996140723</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2069484045112137</v>
+        <v>0.1264603640854708</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1884190323877804</v>
+        <v>0.05411350996140723</v>
       </c>
       <c r="L182" t="n">
-        <v>0.3171025181370365</v>
+        <v>0.3045213848585476</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1868748006898974</v>
+        <v>0.1151512058990582</v>
       </c>
       <c r="N182" t="n">
-        <v>0.4275091150295707</v>
+        <v>0.429845814417894</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1869129487061494</v>
+        <v>0.1148907059740296</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1647145083823339</v>
+        <v>0.1244479441802435</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1887830464104713</v>
+        <v>0.05411324143294322</v>
       </c>
       <c r="J183" t="n">
-        <v>0.20652107495534</v>
+        <v>0.1244479441802435</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1900294514680179</v>
+        <v>0.05411324143294322</v>
       </c>
       <c r="L183" t="n">
-        <v>0.3193897870705177</v>
+        <v>0.3053662306566944</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1884720212086145</v>
+        <v>0.1161354042400758</v>
       </c>
       <c r="N183" t="n">
-        <v>0.4322577838865999</v>
+        <v>0.4319293679455575</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1885104952762875</v>
+        <v>0.1158726778199614</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1604202486021176</v>
+        <v>0.1224903947621775</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1903829027359838</v>
+        <v>0.05411297290447919</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2085898910513567</v>
+        <v>0.1224903947621775</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1916398705482553</v>
+        <v>0.05411297290447919</v>
       </c>
       <c r="L184" t="n">
-        <v>0.3203194622384238</v>
+        <v>0.3046024322261316</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1900692417273315</v>
+        <v>0.1171196025810934</v>
       </c>
       <c r="N184" t="n">
-        <v>0.4311255548393967</v>
+        <v>0.4311114657868721</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1901080418464255</v>
+        <v>0.1168546496658933</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1749182429559785</v>
+        <v>0.120589148386989</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1919827590614962</v>
+        <v>0.05411270437601517</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2096053809340505</v>
+        <v>0.120589148386989</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1932502896284927</v>
+        <v>0.05411270437601517</v>
       </c>
       <c r="L185" t="n">
-        <v>0.3205939065130388</v>
+        <v>0.3054294770457305</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1916664622460486</v>
+        <v>0.118103800922111</v>
       </c>
       <c r="N185" t="n">
-        <v>0.4358097794444058</v>
+        <v>0.432192017765658</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1917055884165635</v>
+        <v>0.1178366215118252</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1683700128408682</v>
+        <v>0.1187456376101368</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1935826153870087</v>
+        <v>0.05411243584755115</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2088506739167943</v>
+        <v>0.1187456376101368</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1948607087087302</v>
+        <v>0.05411243584755115</v>
       </c>
       <c r="L186" t="n">
-        <v>0.3226119331565474</v>
+        <v>0.3034468525943613</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1932636827647657</v>
+        <v>0.1190879992631286</v>
       </c>
       <c r="N186" t="n">
-        <v>0.4355138124042799</v>
+        <v>0.4316709337057354</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1933031349867015</v>
+        <v>0.1188185933577571</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1748120548612825</v>
+        <v>0.1169612949871664</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1951824717125212</v>
+        <v>0.05411216731908714</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2112835492784011</v>
+        <v>0.1169612949871664</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1964711277889676</v>
+        <v>0.05411216731908714</v>
       </c>
       <c r="L187" t="n">
-        <v>0.3220122905359865</v>
+        <v>0.30505133868119</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1948609032834827</v>
+        <v>0.1200721976041462</v>
       </c>
       <c r="N187" t="n">
-        <v>0.4379940075843511</v>
+        <v>0.4314552345111604</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1949006815568396</v>
+        <v>0.1198005652036889</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1672442182783248</v>
+        <v>0.1152375530735496</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1967823280380336</v>
+        <v>0.05411189879062311</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2101046634239295</v>
+        <v>0.1152375530735496</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1980815468692051</v>
+        <v>0.05411189879062311</v>
       </c>
       <c r="L188" t="n">
-        <v>0.3259947058501833</v>
+        <v>0.3034374442917333</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1964581238021998</v>
+        <v>0.1210563959451638</v>
       </c>
       <c r="N188" t="n">
-        <v>0.4359499967801983</v>
+        <v>0.4310459622500576</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1964982281269776</v>
+        <v>0.1207825370496208</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1796663523530986</v>
+        <v>0.113575844424982</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1983821843635461</v>
+        <v>0.0541116302621591</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2108138342902213</v>
+        <v>0.113575844424982</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1996919659494425</v>
+        <v>0.0541116302621591</v>
       </c>
       <c r="L189" t="n">
-        <v>0.3263589062979651</v>
+        <v>0.3026059647357731</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1980553443209169</v>
+        <v>0.1220405942861814</v>
       </c>
       <c r="N189" t="n">
-        <v>0.4389814117874</v>
+        <v>0.4288540968863521</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1980957746971156</v>
+        <v>0.1217645088955527</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.172078306346707</v>
+        <v>0.1119717519951225</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1999820406890586</v>
+        <v>0.05411136173369509</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2129108798141181</v>
+        <v>0.1119717519951225</v>
       </c>
       <c r="K190" t="n">
-        <v>0.20130238502968</v>
+        <v>0.05411136173369509</v>
       </c>
       <c r="L190" t="n">
-        <v>0.3245046190781597</v>
+        <v>0.3042578986308053</v>
       </c>
       <c r="M190" t="n">
-        <v>0.199652564839634</v>
+        <v>0.123024792627199</v>
       </c>
       <c r="N190" t="n">
-        <v>0.439587884401535</v>
+        <v>0.4278907354893783</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1996933212672537</v>
+        <v>0.1227464807414846</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1654799295202535</v>
+        <v>0.1103916107286528</v>
       </c>
       <c r="G191" t="n">
-        <v>0.201581897014571</v>
+        <v>0.05411109320523107</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2123956179324614</v>
+        <v>0.1103916107286528</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2029128041099174</v>
+        <v>0.05411109320523107</v>
       </c>
       <c r="L191" t="n">
-        <v>0.3276315713895946</v>
+        <v>0.3012942445943254</v>
       </c>
       <c r="M191" t="n">
-        <v>0.201249785358351</v>
+        <v>0.1240089909682165</v>
       </c>
       <c r="N191" t="n">
-        <v>0.4413690464181814</v>
+        <v>0.4274669751284704</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2012908678373917</v>
+        <v>0.1237284525874165</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1728710711348413</v>
+        <v>0.1088310035792399</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2031817533400835</v>
+        <v>0.05411082467676705</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2124678665820929</v>
+        <v>0.1088310035792399</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2045232231901548</v>
+        <v>0.05411082467676705</v>
       </c>
       <c r="L192" t="n">
-        <v>0.3286394904310974</v>
+        <v>0.3043160012438291</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2028470058770681</v>
+        <v>0.1249931893092341</v>
       </c>
       <c r="N192" t="n">
-        <v>0.4437245296329183</v>
+        <v>0.4269939128729631</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2028884144075297</v>
+        <v>0.1247104244333483</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1662515804515741</v>
+        <v>0.1072913631025651</v>
       </c>
       <c r="G193" t="n">
-        <v>0.204781609665596</v>
+        <v>0.05411055614830303</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2126274436998543</v>
+        <v>0.1072913631025651</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2061336422703923</v>
+        <v>0.05411055614830303</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3286281034014953</v>
+        <v>0.3022241671968123</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2044442263957852</v>
+        <v>0.1259773876502517</v>
       </c>
       <c r="N193" t="n">
-        <v>0.4426539658413239</v>
+        <v>0.4273826457921909</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2044859609776678</v>
+        <v>0.1256923962792802</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1776213067315548</v>
+        <v>0.1057741218541055</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2063814659911085</v>
+        <v>0.05411028761983902</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2141741672225873</v>
+        <v>0.1057741218541055</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2077440613506297</v>
+        <v>0.05411028761983902</v>
       </c>
       <c r="L194" t="n">
-        <v>0.3288971374996162</v>
+        <v>0.3006197410707704</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2060414469145023</v>
+        <v>0.1269615859912693</v>
       </c>
       <c r="N194" t="n">
-        <v>0.4411569868389773</v>
+        <v>0.4241442709554878</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2060835075478058</v>
+        <v>0.1266743681252121</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.167980099235887</v>
+        <v>0.1042807123894065</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2079813223166209</v>
+        <v>0.05411001909137501</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2145078550871332</v>
+        <v>0.1042807123894065</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2093544804308672</v>
+        <v>0.05411001909137501</v>
       </c>
       <c r="L195" t="n">
-        <v>0.3308463199242874</v>
+        <v>0.3004037214831994</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2076386674332193</v>
+        <v>0.1279457843322869</v>
       </c>
       <c r="N195" t="n">
-        <v>0.4442332244214567</v>
+        <v>0.4241898854321887</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2076810541179438</v>
+        <v>0.127656339971144</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1693278072256739</v>
+        <v>0.1028125672639503</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2095811786421334</v>
+        <v>0.05410975056291098</v>
       </c>
       <c r="J196" t="n">
-        <v>0.2139283252303339</v>
+        <v>0.1028125672639503</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2109648995111046</v>
+        <v>0.05410975056291098</v>
       </c>
       <c r="L196" t="n">
-        <v>0.3297753778743366</v>
+        <v>0.301877107051595</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2092358879519364</v>
+        <v>0.1289299826733045</v>
       </c>
       <c r="N196" t="n">
-        <v>0.4463823103843408</v>
+        <v>0.4241305862916278</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2092786006880819</v>
+        <v>0.1286383118170758</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.167664279962019</v>
+        <v>0.1013711190334101</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2111810349676458</v>
+        <v>0.05410948203444697</v>
       </c>
       <c r="J197" t="n">
-        <v>0.215735395589031</v>
+        <v>0.1013711190334101</v>
       </c>
       <c r="K197" t="n">
-        <v>0.212575318591342</v>
+        <v>0.05410948203444697</v>
       </c>
       <c r="L197" t="n">
-        <v>0.3289840385485911</v>
+        <v>0.3014408963934528</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2108331084706535</v>
+        <v>0.1299141810143221</v>
       </c>
       <c r="N197" t="n">
-        <v>0.4437038765232085</v>
+        <v>0.4214774706031394</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2108761472582199</v>
+        <v>0.1296202836630077</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1799893667060256</v>
+        <v>0.09995780025326685</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2127808912931583</v>
+        <v>0.05410921350598295</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2159288841000661</v>
+        <v>0.09995780025326685</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2141857376715795</v>
+        <v>0.05410921350598295</v>
       </c>
       <c r="L198" t="n">
-        <v>0.3324720291458788</v>
+        <v>0.2996960881262684</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2124303289893705</v>
+        <v>0.1308983793553397</v>
       </c>
       <c r="N198" t="n">
-        <v>0.448097554633638</v>
+        <v>0.417941635436058</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2124736938283579</v>
+        <v>0.1306022555089396</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1723029167187969</v>
+        <v>0.09857404347906611</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2143807476186708</v>
+        <v>0.05410894497751893</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2155086087002808</v>
+        <v>0.09857404347906611</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2157961567518169</v>
+        <v>0.05410894497751893</v>
       </c>
       <c r="L199" t="n">
-        <v>0.3327390768650265</v>
+        <v>0.2995436808675379</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2140275495080876</v>
+        <v>0.1318825776963573</v>
       </c>
       <c r="N199" t="n">
-        <v>0.4470629765112079</v>
+        <v>0.4157341778597182</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2140712403984959</v>
+        <v>0.1315842273548715</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1716047792614364</v>
+        <v>0.09722128126629505</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2159806039441833</v>
+        <v>0.05410867644905491</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2168743873265167</v>
+        <v>0.09722128126629505</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2174065758320544</v>
+        <v>0.05410867644905491</v>
       </c>
       <c r="L200" t="n">
-        <v>0.3326849089048625</v>
+        <v>0.2983846732347566</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2156247700268047</v>
+        <v>0.1328667760373749</v>
       </c>
       <c r="N200" t="n">
-        <v>0.4504997739514972</v>
+        <v>0.4131661949434543</v>
       </c>
       <c r="O200" t="n">
-        <v>0.215668786968634</v>
+        <v>0.1325661992008033</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1708948035950474</v>
+        <v>0.09590094617061697</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2175804602696957</v>
+        <v>0.05410840792059089</v>
       </c>
       <c r="J201" t="n">
-        <v>0.2162260379156156</v>
+        <v>0.09590094617061697</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2190169949122918</v>
+        <v>0.05410840792059089</v>
       </c>
       <c r="L201" t="n">
-        <v>0.333909252464214</v>
+        <v>0.2988200638454203</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2172219905455218</v>
+        <v>0.1338509743783925</v>
       </c>
       <c r="N201" t="n">
-        <v>0.4497075787500843</v>
+        <v>0.4151487837566007</v>
       </c>
       <c r="O201" t="n">
-        <v>0.217266333538772</v>
+        <v>0.1335481710467352</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1791728389807332</v>
+        <v>0.09461447074751771</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2191803165952082</v>
+        <v>0.05410813939212688</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2163633784044189</v>
+        <v>0.09461447074751771</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2206274139925292</v>
+        <v>0.05410813939212688</v>
       </c>
       <c r="L202" t="n">
-        <v>0.3345118347419085</v>
+        <v>0.299750851317025</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2188192110642388</v>
+        <v>0.1348351727194101</v>
       </c>
       <c r="N202" t="n">
-        <v>0.4487860227025477</v>
+        <v>0.4107930413684919</v>
       </c>
       <c r="O202" t="n">
-        <v>0.21886388010891</v>
+        <v>0.1345301428926671</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1744387346795973</v>
+        <v>0.09336328755254276</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2207801729207207</v>
+        <v>0.05410787086366287</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2170862267297684</v>
+        <v>0.09336328755254276</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2222378330727667</v>
+        <v>0.05410787086366287</v>
       </c>
       <c r="L203" t="n">
-        <v>0.3321923829367735</v>
+        <v>0.299178034267066</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2204164315829559</v>
+        <v>0.1358193710604276</v>
       </c>
       <c r="N203" t="n">
-        <v>0.4483347376044661</v>
+        <v>0.4095100648484622</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2204614266790481</v>
+        <v>0.135512114738599</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1696923399527427</v>
+        <v>0.09214882914118548</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2223800292462332</v>
+        <v>0.05410760233519884</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2175944008285056</v>
+        <v>0.09214882914118548</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2238482521530041</v>
+        <v>0.05410760233519884</v>
       </c>
       <c r="L204" t="n">
-        <v>0.3359506242476367</v>
+        <v>0.2958026113130391</v>
       </c>
       <c r="M204" t="n">
-        <v>0.222013652101673</v>
+        <v>0.1368035694014452</v>
       </c>
       <c r="N204" t="n">
-        <v>0.4494533552514181</v>
+        <v>0.4071109512658462</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2220589732491861</v>
+        <v>0.1364940865845309</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1769335040612731</v>
+        <v>0.0909725280690971</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2239798855717456</v>
+        <v>0.05410733380673483</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2183877186374722</v>
+        <v>0.0909725280690971</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2254586712332416</v>
+        <v>0.05410733380673483</v>
       </c>
       <c r="L205" t="n">
-        <v>0.3335862858733253</v>
+        <v>0.2971255810724403</v>
       </c>
       <c r="M205" t="n">
-        <v>0.22361087262039</v>
+        <v>0.1377877677424628</v>
       </c>
       <c r="N205" t="n">
-        <v>0.4493415074389824</v>
+        <v>0.4050067976899784</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2236565198193241</v>
+        <v>0.1374760584304627</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1831620762662918</v>
+        <v>0.08983581689176938</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2255797418972581</v>
+        <v>0.05410706527827081</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2171659980935098</v>
+        <v>0.08983581689176938</v>
       </c>
       <c r="K206" t="n">
-        <v>0.227069090313479</v>
+        <v>0.05410706527827081</v>
       </c>
       <c r="L206" t="n">
-        <v>0.3336990950126673</v>
+        <v>0.2977479421627651</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2252080931391071</v>
+        <v>0.1387719660834804</v>
       </c>
       <c r="N206" t="n">
-        <v>0.4529988259627374</v>
+        <v>0.4052087011901927</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2252540663894622</v>
+        <v>0.1384580302763946</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1853779058289019</v>
+        <v>0.08874012816474779</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2271795982227705</v>
+        <v>0.0541067967498068</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2190290571334602</v>
+        <v>0.08874012816474779</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2286795093937165</v>
+        <v>0.0541067967498068</v>
       </c>
       <c r="L207" t="n">
-        <v>0.3354887788644899</v>
+        <v>0.2960706932015092</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2268053136578242</v>
+        <v>0.139756164424498</v>
       </c>
       <c r="N207" t="n">
-        <v>0.4506249426182618</v>
+        <v>0.4030277588358239</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2268516129596002</v>
+        <v>0.1394400021223265</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1705808420102069</v>
+        <v>0.08768689444353282</v>
       </c>
       <c r="G208" t="n">
-        <v>0.228779454548283</v>
+        <v>0.05410652822134277</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2177767136941647</v>
+        <v>0.08768689444353282</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2302899284739539</v>
+        <v>0.05410652822134277</v>
       </c>
       <c r="L208" t="n">
-        <v>0.3350550646276205</v>
+        <v>0.2969948328061683</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2284025341765413</v>
+        <v>0.1407403627655156</v>
       </c>
       <c r="N208" t="n">
-        <v>0.4509194892011343</v>
+        <v>0.3999750676962065</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2284491595297382</v>
+        <v>0.1404219739682583</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1697707340713102</v>
+        <v>0.08667754828376172</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2303793108737955</v>
+        <v>0.05410625969287876</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2185087857124653</v>
+        <v>0.08667754828376172</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2319003475541913</v>
+        <v>0.05410625969287876</v>
       </c>
       <c r="L209" t="n">
-        <v>0.335697679500887</v>
+        <v>0.2955213595942383</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2299997546952584</v>
+        <v>0.1417245611065332</v>
       </c>
       <c r="N209" t="n">
-        <v>0.4526820975069336</v>
+        <v>0.3981617248406747</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2300467060998762</v>
+        <v>0.1414039458141902</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1769474312733151</v>
+        <v>0.08571352224093308</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2319791671993079</v>
+        <v>0.05410599116441474</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2200250911252034</v>
+        <v>0.08571352224093308</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2335107666344288</v>
+        <v>0.05410599116441474</v>
       </c>
       <c r="L210" t="n">
-        <v>0.3361163506831167</v>
+        <v>0.2948512721832146</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2315969752139754</v>
+        <v>0.1427087594475508</v>
       </c>
       <c r="N210" t="n">
-        <v>0.4553123993312379</v>
+        <v>0.3948988273385633</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2316442526700143</v>
+        <v>0.1423859176601221</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1731107828773248</v>
+        <v>0.08479624887059241</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2335790235248204</v>
+        <v>0.05410572263595072</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2185254478692206</v>
+        <v>0.08479624887059241</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2351211857146662</v>
+        <v>0.05410572263595072</v>
       </c>
       <c r="L211" t="n">
-        <v>0.335210805373137</v>
+        <v>0.2955855691905929</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2331941957326925</v>
+        <v>0.1436929577885684</v>
       </c>
       <c r="N211" t="n">
-        <v>0.4533100264696261</v>
+        <v>0.3932974722592063</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2332417992401523</v>
+        <v>0.143367889506054</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1852606381444429</v>
+        <v>0.08392716072824837</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2351788798503329</v>
+        <v>0.0541054541074867</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2199096738813586</v>
+        <v>0.08392716072824837</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2367316047949037</v>
+        <v>0.0541054541074867</v>
       </c>
       <c r="L212" t="n">
-        <v>0.3360807707697755</v>
+        <v>0.2945252492338695</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2347914162514095</v>
+        <v>0.144677156129586</v>
       </c>
       <c r="N212" t="n">
-        <v>0.4555746107176769</v>
+        <v>0.3925687566719382</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2348393458102903</v>
+        <v>0.1443498613519859</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1803968463357726</v>
+        <v>0.08310769036952202</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2367787361758454</v>
+        <v>0.05410518557902268</v>
       </c>
       <c r="J213" t="n">
-        <v>0.219377587098459</v>
+        <v>0.08310769036952202</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2383420238751411</v>
+        <v>0.05410518557902268</v>
       </c>
       <c r="L213" t="n">
-        <v>0.3386259740718601</v>
+        <v>0.2937713109305394</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2363886367701266</v>
+        <v>0.1456613544706035</v>
       </c>
       <c r="N213" t="n">
-        <v>0.4552057838709688</v>
+        <v>0.3901237776460935</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2364368923804283</v>
+        <v>0.1453318331979177</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1795192567124172</v>
+        <v>0.0823392703499201</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2383785925013578</v>
+        <v>0.05410491705055867</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2187290054573636</v>
+        <v>0.0823392703499201</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2399524429553785</v>
+        <v>0.05410491705055867</v>
       </c>
       <c r="L214" t="n">
-        <v>0.3381461424782179</v>
+        <v>0.2935247528980987</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2379858572888437</v>
+        <v>0.1466455528116211</v>
       </c>
       <c r="N214" t="n">
-        <v>0.4534031777250801</v>
+        <v>0.3906736322510068</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2380344389505664</v>
+        <v>0.1463138050438496</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1766277185354801</v>
+        <v>0.0823392703499201</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2399784488268703</v>
+        <v>0.05410491705055867</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2192637468949137</v>
+        <v>0.0823392703499201</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2415628620356159</v>
+        <v>0.05410491705055867</v>
       </c>
       <c r="L215" t="n">
-        <v>0.3378410031876765</v>
+        <v>0.2910865737540431</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2395830778075607</v>
+        <v>0.1476297511526388</v>
       </c>
       <c r="N215" t="n">
-        <v>0.4552664240755898</v>
+        <v>0.3889294175560122</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2396319855207044</v>
+        <v>0.1472957768897815</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1737220810660646</v>
+        <v>0.08010457037801184</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2415783051523828</v>
+        <v>0.05408845409144908</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2190816293479512</v>
+        <v>0.08010457037801184</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2431732811158534</v>
+        <v>0.05408845409144908</v>
       </c>
       <c r="L216" t="n">
-        <v>0.3394102833990634</v>
+        <v>0.2919577721158681</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2411802983262778</v>
+        <v>0.1486139494936563</v>
       </c>
       <c r="N216" t="n">
-        <v>0.4562951547180765</v>
+        <v>0.3894022306304444</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2412295320908424</v>
+        <v>0.1482777487357134</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1778021935652742</v>
+        <v>0.07789205206513884</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2431781614778952</v>
+        <v>0.0540719911323395</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2201824707533176</v>
+        <v>0.07789205206513884</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2447837001960908</v>
+        <v>0.0540719911323395</v>
       </c>
       <c r="L217" t="n">
-        <v>0.3382537103112064</v>
+        <v>0.2930393466010695</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2427775188449949</v>
+        <v>0.1495981478346739</v>
       </c>
       <c r="N217" t="n">
-        <v>0.4555890014481186</v>
+        <v>0.3861031685436378</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2428270786609804</v>
+        <v>0.1492597205816452</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.183867905294212</v>
+        <v>0.07570242022057684</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2447780178034077</v>
+        <v>0.05405552817322992</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2202660890478547</v>
+        <v>0.07570242022057684</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2463941192763283</v>
+        <v>0.05405552817322992</v>
       </c>
       <c r="L218" t="n">
-        <v>0.3386710111229327</v>
+        <v>0.2897322958271432</v>
       </c>
       <c r="M218" t="n">
-        <v>0.244374739363712</v>
+        <v>0.1505823461756915</v>
       </c>
       <c r="N218" t="n">
-        <v>0.457347596061295</v>
+        <v>0.3882433283649265</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2444246252311185</v>
+        <v>0.1502416924275771</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1799190655139816</v>
+        <v>0.07353637965360631</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2463778741289201</v>
+        <v>0.05403906521412032</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2194323021684039</v>
+        <v>0.07353637965360631</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2480045383565657</v>
+        <v>0.05403906521412032</v>
       </c>
       <c r="L219" t="n">
-        <v>0.3382619130330698</v>
+        <v>0.2904376184115846</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2459719598824291</v>
+        <v>0.1515665445167091</v>
       </c>
       <c r="N219" t="n">
-        <v>0.4555705703531838</v>
+        <v>0.3829338071636452</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2460221718012565</v>
+        <v>0.151223664273509</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1709555234856861</v>
+        <v>0.07139463517350768</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2479777304544326</v>
+        <v>0.05402260225501074</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2208809280518069</v>
+        <v>0.07139463517350768</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2496149574368031</v>
+        <v>0.05402260225501074</v>
       </c>
       <c r="L220" t="n">
-        <v>0.3372261432404455</v>
+        <v>0.2888563129718897</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2475691804011461</v>
+        <v>0.1525507428577267</v>
       </c>
       <c r="N220" t="n">
-        <v>0.4573575561193642</v>
+        <v>0.3854857020091285</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2476197183713945</v>
+        <v>0.1522056361194409</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.183977128470429</v>
+        <v>0.06927789158955679</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2495775867799451</v>
+        <v>0.05400613929590115</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2214117846349055</v>
+        <v>0.06927789158955679</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2512253765170406</v>
+        <v>0.05400613929590115</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3373634289438872</v>
+        <v>0.2902888573178548</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2491664009198632</v>
+        <v>0.1535349411987443</v>
       </c>
       <c r="N221" t="n">
-        <v>0.4560081851554143</v>
+        <v>0.3824976919350742</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2492172649415326</v>
+        <v>0.1531876079653728</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1839828175389026</v>
+        <v>0.06718685371103401</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2511774431054576</v>
+        <v>0.05398967633679156</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2208246898545411</v>
+        <v>0.06718685371103401</v>
       </c>
       <c r="K222" t="n">
-        <v>0.252835795597278</v>
+        <v>0.05398967633679156</v>
       </c>
       <c r="L222" t="n">
-        <v>0.3386661808688279</v>
+        <v>0.2891265442064829</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2507636214385802</v>
+        <v>0.1545191395397619</v>
       </c>
       <c r="N222" t="n">
-        <v>0.4564134564254047</v>
+        <v>0.3835484652247166</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2508148115116706</v>
+        <v>0.1541695798113046</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1777225070327483</v>
+        <v>0.06512222634721974</v>
       </c>
       <c r="G223" t="n">
-        <v>0.25277729943097</v>
+        <v>0.05397321337768198</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2190516826392637</v>
+        <v>0.06512222634721974</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2544462146775155</v>
+        <v>0.05397321337768198</v>
       </c>
       <c r="L223" t="n">
-        <v>0.3393374978060551</v>
+        <v>0.2892659839864173</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2523608419572973</v>
+        <v>0.1555033378807795</v>
       </c>
       <c r="N223" t="n">
-        <v>0.4563094964926684</v>
+        <v>0.3825047984625176</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2524123580818087</v>
+        <v>0.1551515516572365</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1740328783041667</v>
+        <v>0.06308471430739003</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2543771557564825</v>
+        <v>0.05395675041857239</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2192610203325467</v>
+        <v>0.06308471430739003</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2560566337577529</v>
+        <v>0.05395675041857239</v>
       </c>
       <c r="L224" t="n">
-        <v>0.3360363238503629</v>
+        <v>0.2899072171868364</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2539580624760144</v>
+        <v>0.1564875362217971</v>
       </c>
       <c r="N224" t="n">
-        <v>0.4533621446393648</v>
+        <v>0.3842669331101068</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2540099046519467</v>
+        <v>0.1561335235031684</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1819609232066772</v>
+        <v>0.06107502240082503</v>
       </c>
       <c r="G225" t="n">
-        <v>0.255977012081995</v>
+        <v>0.0539402874594628</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2175967204196153</v>
+        <v>0.06107502240082503</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2576670528379904</v>
+        <v>0.0539402874594628</v>
       </c>
       <c r="L225" t="n">
-        <v>0.3354477029620113</v>
+        <v>0.2867502843369192</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2555552829947315</v>
+        <v>0.1574717345628147</v>
       </c>
       <c r="N225" t="n">
-        <v>0.4525861861572728</v>
+        <v>0.3839351106291139</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2556074512220847</v>
+        <v>0.1571154953491003</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1665536335937989</v>
+        <v>0.05909385543680525</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2575768684075075</v>
+        <v>0.05392382450035322</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2159155398852897</v>
+        <v>0.05909385543680525</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2592774719182278</v>
+        <v>0.05392382450035322</v>
       </c>
       <c r="L226" t="n">
-        <v>0.3317566791012598</v>
+        <v>0.2875952259658444</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2571525035134485</v>
+        <v>0.1584559329038323</v>
       </c>
       <c r="N226" t="n">
-        <v>0.4479964063381714</v>
+        <v>0.3839095724811682</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2572049977922227</v>
+        <v>0.1580974671950321</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.166858001319051</v>
+        <v>0.05714191822460664</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2591767247330199</v>
+        <v>0.05390736154124363</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2147742357143907</v>
+        <v>0.05714191822460664</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2608878909984652</v>
+        <v>0.05390736154124363</v>
       </c>
       <c r="L227" t="n">
-        <v>0.3282482962283681</v>
+        <v>0.2873420826027906</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2587497240321656</v>
+        <v>0.1594401312448498</v>
       </c>
       <c r="N227" t="n">
-        <v>0.44170759047384</v>
+        <v>0.3826905601278993</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2588025443623608</v>
+        <v>0.159079439040964</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.164921018235953</v>
+        <v>0.05521991557351093</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2607765810585324</v>
+        <v>0.05389089858213405</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2121295648917386</v>
+        <v>0.05521991557351093</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2624983100787027</v>
+        <v>0.05389089858213405</v>
       </c>
       <c r="L228" t="n">
-        <v>0.3252075983035959</v>
+        <v>0.2887908947769371</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2603469445508827</v>
+        <v>0.1604243295858674</v>
       </c>
       <c r="N228" t="n">
-        <v>0.4405345238560574</v>
+        <v>0.3792783150309366</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2604000909324988</v>
+        <v>0.1600614108868959</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1597896761980237</v>
+        <v>0.05332855229279422</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2623764373840449</v>
+        <v>0.05387443562302446</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2109382844021541</v>
+        <v>0.05332855229279422</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2641087291589401</v>
+        <v>0.05387443562302446</v>
       </c>
       <c r="L229" t="n">
-        <v>0.3228196292872028</v>
+        <v>0.2856417030174622</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2619441650695998</v>
+        <v>0.161408527926885</v>
       </c>
       <c r="N229" t="n">
-        <v>0.4351919917766028</v>
+        <v>0.3805730786519097</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2619976375026368</v>
+        <v>0.1610433827328278</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1655109670587827</v>
+        <v>0.05146853319173682</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2639762937095573</v>
+        <v>0.05385797266391487</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2062571512304575</v>
+        <v>0.05146853319173682</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2657191482391776</v>
+        <v>0.05385797266391487</v>
       </c>
       <c r="L230" t="n">
-        <v>0.3175694331394486</v>
+        <v>0.285694547853545</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2635413855883169</v>
+        <v>0.1623927262679026</v>
       </c>
       <c r="N230" t="n">
-        <v>0.4268947795272553</v>
+        <v>0.3802750924524479</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2635951840727748</v>
+        <v>0.1620253545787596</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.171131882671749</v>
+        <v>0.04964056307961888</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2655761500350698</v>
+        <v>0.05384150970480529</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2041429223614694</v>
+        <v>0.04964056307961888</v>
       </c>
       <c r="K231" t="n">
-        <v>0.267329567319415</v>
+        <v>0.05384150970480529</v>
       </c>
       <c r="L231" t="n">
-        <v>0.314442053820593</v>
+        <v>0.2878494698143643</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2651386061070339</v>
+        <v>0.1633769246089202</v>
       </c>
       <c r="N231" t="n">
-        <v>0.4231576723997936</v>
+        <v>0.3797845978941811</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2651927306429129</v>
+        <v>0.1630073264246915</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1656994148904419</v>
+        <v>0.04784534676571679</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2671760063605823</v>
+        <v>0.0538250467456957</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2008523547800102</v>
+        <v>0.04784534676571679</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2689399863996524</v>
+        <v>0.0538250467456957</v>
       </c>
       <c r="L232" t="n">
-        <v>0.3073225352908955</v>
+        <v>0.2871065094290986</v>
       </c>
       <c r="M232" t="n">
-        <v>0.266735826625751</v>
+        <v>0.1643611229499378</v>
       </c>
       <c r="N232" t="n">
-        <v>0.4158954556859972</v>
+        <v>0.3788018364387382</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2667902772130509</v>
+        <v>0.1639892982706234</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1592605555683806</v>
+        <v>0.04608358905931061</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2687758626860947</v>
+        <v>0.05380858378658611</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1977422054709004</v>
+        <v>0.04608358905931061</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2705504054798899</v>
+        <v>0.05380858378658611</v>
       </c>
       <c r="L233" t="n">
-        <v>0.3031959215106159</v>
+        <v>0.283865707226927</v>
       </c>
       <c r="M233" t="n">
-        <v>0.268333047144468</v>
+        <v>0.1653453212909554</v>
       </c>
       <c r="N233" t="n">
-        <v>0.409722914677645</v>
+        <v>0.3806270495477493</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2683878237831889</v>
+        <v>0.1649712701165553</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1638622965590846</v>
+        <v>0.04435599476968057</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2703757190116072</v>
+        <v>0.05379212082747653</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1967692314189606</v>
+        <v>0.04435599476968057</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2721608245601273</v>
+        <v>0.05379212082747653</v>
       </c>
       <c r="L234" t="n">
-        <v>0.3013472564400139</v>
+        <v>0.2842271037370281</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2699302676631851</v>
+        <v>0.166329519631973</v>
       </c>
       <c r="N234" t="n">
-        <v>0.4024548346665162</v>
+        <v>0.3802604786828435</v>
       </c>
       <c r="O234" t="n">
-        <v>0.269985370353327</v>
+        <v>0.1659532419624871</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1555516297160727</v>
+        <v>0.04266326870610306</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2719755753371197</v>
+        <v>0.05377565786836694</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1936901896090112</v>
+        <v>0.04266326870610306</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2737712436403648</v>
+        <v>0.05377565786836694</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2950615840393492</v>
+        <v>0.2846907394885809</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2715274881819022</v>
+        <v>0.1673137179729906</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3998060009443897</v>
+        <v>0.3772023653056503</v>
       </c>
       <c r="O235" t="n">
-        <v>0.271582916923465</v>
+        <v>0.166935213808419</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1513755468928644</v>
+        <v>0.04100611567785818</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2735754316626322</v>
+        <v>0.05375919490925735</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1895618370258728</v>
+        <v>0.04100611567785818</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2753816627206022</v>
+        <v>0.05375919490925735</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2916239482688813</v>
+        <v>0.2832566550107639</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2731247087006193</v>
+        <v>0.1682979163140082</v>
       </c>
       <c r="N236" t="n">
-        <v>0.3911911988030445</v>
+        <v>0.3758529508777995</v>
       </c>
       <c r="O236" t="n">
-        <v>0.273180463493603</v>
+        <v>0.1679171856543509</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.148379644574662</v>
+        <v>0.039385240494226</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2751752879881446</v>
+        <v>0.05374273195014777</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1891409306543658</v>
+        <v>0.039385240494226</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2769920818008396</v>
+        <v>0.05374273195014777</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2890143634554924</v>
+        <v>0.2840248908327562</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2747219292193364</v>
+        <v>0.1692821146550258</v>
       </c>
       <c r="N237" t="n">
-        <v>0.3890189072122775</v>
+        <v>0.3778124768609203</v>
       </c>
       <c r="O237" t="n">
-        <v>0.274778010063741</v>
+        <v>0.1688991575002828</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1544625323697243</v>
+        <v>0.03780134796448313</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2767751443136571</v>
+        <v>0.05372626899103818</v>
       </c>
       <c r="J238" t="n">
-        <v>0.186056535856008</v>
+        <v>0.03780134796448313</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2786025008810771</v>
+        <v>0.05372626899103818</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2831328322019755</v>
+        <v>0.2839954874837364</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2763191497380534</v>
+        <v>0.1702663129960433</v>
       </c>
       <c r="N238" t="n">
-        <v>0.3851218359112032</v>
+        <v>0.3781811847166423</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2763755566338791</v>
+        <v>0.1698811293462147</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1375383226839622</v>
+        <v>0.03625514289790958</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2783750006391695</v>
+        <v>0.05370980603192859</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1830642870107377</v>
+        <v>0.03625514289790958</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2802129199613145</v>
+        <v>0.05370980603192859</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2808384263726418</v>
+        <v>0.2833684854928833</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2779163702567705</v>
+        <v>0.1712505113370609</v>
       </c>
       <c r="N239" t="n">
-        <v>0.3796073925638931</v>
+        <v>0.3764593159065951</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2779731032040171</v>
+        <v>0.1708631011921465</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.150606904191932</v>
+        <v>0.03474445213256321</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2799748569646821</v>
+        <v>0.05369334307281901</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1802634104910742</v>
+        <v>0.03474445213256321</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2818233390415519</v>
+        <v>0.05369334307281901</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2762309444951956</v>
+        <v>0.2830439253893758</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2795135907754876</v>
+        <v>0.1722347096780786</v>
       </c>
       <c r="N240" t="n">
-        <v>0.3740753052397341</v>
+        <v>0.374547111892408</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2795706497741552</v>
+        <v>0.1718450730380784</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1336681655681901</v>
+        <v>0.0332527126503878</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2815747132901945</v>
+        <v>0.05367688011370942</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1781537718376162</v>
+        <v>0.0332527126503878</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2834337581217894</v>
+        <v>0.05367688011370942</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2755101850973414</v>
+        <v>0.2819218477023925</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2811108112942046</v>
+        <v>0.1732189080190961</v>
       </c>
       <c r="N241" t="n">
-        <v>0.3709253020081135</v>
+        <v>0.3766448141357106</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2811681963442932</v>
+        <v>0.1728270448840103</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1327219954872929</v>
+        <v>0.03177775128944126</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2831745696157069</v>
+        <v>0.05366041715459983</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1766352365909616</v>
+        <v>0.03177775128944126</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2850441772020268</v>
+        <v>0.05366041715459983</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2691759467067835</v>
+        <v>0.2830022929611127</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2827080318129217</v>
+        <v>0.1742031063601137</v>
       </c>
       <c r="N242" t="n">
-        <v>0.3629571109384183</v>
+        <v>0.3745526640981324</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2827657429144312</v>
+        <v>0.1738090167299421</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1447682826237967</v>
+        <v>0.03032027285900347</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2847744259412194</v>
+        <v>0.05364395419549025</v>
       </c>
       <c r="J243" t="n">
-        <v>0.174707670291709</v>
+        <v>0.03032027285900347</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2866545962822643</v>
+        <v>0.05364395419549025</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2681280278512264</v>
+        <v>0.2830853016947145</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2843052523316388</v>
+        <v>0.1751873047011313</v>
       </c>
       <c r="N243" t="n">
-        <v>0.3580704601000356</v>
+        <v>0.3740709032413029</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2843632894845692</v>
+        <v>0.1747909885758741</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1428069156522579</v>
+        <v>0.02888098216835132</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2863742822667319</v>
+        <v>0.05362749123638066</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1727709384804561</v>
+        <v>0.02888098216835132</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2882650153625017</v>
+        <v>0.05362749123638066</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2650662270583745</v>
+        <v>0.2835709144323772</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2859024728503559</v>
+        <v>0.1761715030421489</v>
       </c>
       <c r="N244" t="n">
-        <v>0.3530650775623528</v>
+        <v>0.3760997730268515</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2859608360547073</v>
+        <v>0.1757729604218059</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1268377832472332</v>
+        <v>0.02746058402676461</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2879741385922444</v>
+        <v>0.05361102827727107</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1694249066978015</v>
+        <v>0.02746058402676461</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2898754344427392</v>
+        <v>0.05361102827727107</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2580903428559321</v>
+        <v>0.2826591717032793</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2874996933690729</v>
+        <v>0.1771557013831665</v>
       </c>
       <c r="N245" t="n">
-        <v>0.3522406913947568</v>
+        <v>0.3735395149164078</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2875583826248453</v>
+        <v>0.1767549322677378</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1368607740832785</v>
+        <v>0.02605978324352336</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2895739949177568</v>
+        <v>0.05359456531816149</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1675694404843434</v>
+        <v>0.02605978324352336</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2914858535229766</v>
+        <v>0.05359456531816149</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2560001737716038</v>
+        <v>0.2814501140365998</v>
       </c>
       <c r="M246" t="n">
-        <v>0.28909691388779</v>
+        <v>0.1781398997241841</v>
       </c>
       <c r="N246" t="n">
-        <v>0.3462970296666346</v>
+        <v>0.3755903703716011</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2891559291949833</v>
+        <v>0.1777369041136697</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1338757768349506</v>
+        <v>0.0246792846279044</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2911738512432693</v>
+        <v>0.05357810235905189</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1658044053806797</v>
+        <v>0.0246792846279044</v>
       </c>
       <c r="K247" t="n">
-        <v>0.293096272603214</v>
+        <v>0.05357810235905189</v>
       </c>
       <c r="L247" t="n">
-        <v>0.253895518333094</v>
+        <v>0.2807437819615173</v>
       </c>
       <c r="M247" t="n">
-        <v>0.290694134406507</v>
+        <v>0.1791240980652017</v>
       </c>
       <c r="N247" t="n">
-        <v>0.3425338204473737</v>
+        <v>0.3724525808540613</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2907534757651213</v>
+        <v>0.1787188759596015</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1218826801768056</v>
+        <v>0.02331979298918764</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2927737075687817</v>
+        <v>0.05356163939994231</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1632296669274089</v>
+        <v>0.02331979298918764</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2947066916834514</v>
+        <v>0.05356163939994231</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2497761750681071</v>
+        <v>0.2813402160072109</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2922913549252241</v>
+        <v>0.1801082964062193</v>
       </c>
       <c r="N248" t="n">
-        <v>0.335250791806361</v>
+        <v>0.3739263878254176</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2923510223352594</v>
+        <v>0.1797008478055334</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1178813727834001</v>
+        <v>0.02198201313665295</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2943735638942943</v>
+        <v>0.05354517644083273</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1599450906651291</v>
+        <v>0.02198201313665295</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2963171107636889</v>
+        <v>0.05354517644083273</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2461419425043475</v>
+        <v>0.2813394567028589</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2938885754439412</v>
+        <v>0.1810924947472369</v>
       </c>
       <c r="N249" t="n">
-        <v>0.3298476718129837</v>
+        <v>0.3726120327472996</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2939485689053974</v>
+        <v>0.1806828196514653</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1308717433292904</v>
+        <v>0.02066664987957724</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2959734202198067</v>
+        <v>0.05352871348172314</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1576505421344386</v>
+        <v>0.02066664987957724</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2979275298439263</v>
+        <v>0.05352871348172314</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2406926191695197</v>
+        <v>0.2798415445776407</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2954857959626582</v>
+        <v>0.1820766930882545</v>
       </c>
       <c r="N250" t="n">
-        <v>0.3251241885366288</v>
+        <v>0.3736097570813366</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2955461154755354</v>
+        <v>0.1816647914973972</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.130853680489033</v>
+        <v>0.01937440802724046</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2975732765453191</v>
+        <v>0.05351225052261355</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1557458868759355</v>
+        <v>0.01937440802724046</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2995379489241638</v>
+        <v>0.05351225052261355</v>
       </c>
       <c r="L251" t="n">
-        <v>0.2377280035913278</v>
+        <v>0.2801465201607346</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2970830164813753</v>
+        <v>0.183060891429272</v>
       </c>
       <c r="N251" t="n">
-        <v>0.3224800700466838</v>
+        <v>0.3728198022891585</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2971436620456734</v>
+        <v>0.182646763343329</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.124827072937184</v>
+        <v>0.01810599238892231</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2991731328708316</v>
+        <v>0.05349578756350397</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1527309904302181</v>
+        <v>0.01810599238892231</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3011483680044012</v>
+        <v>0.05349578756350397</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2345478942974765</v>
+        <v>0.2812544239813196</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2986802370000924</v>
+        <v>0.1840450897702896</v>
       </c>
       <c r="N252" t="n">
-        <v>0.3151150444125355</v>
+        <v>0.3757424098323944</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2987412086158115</v>
+        <v>0.1836287351892609</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1137918093483001</v>
+        <v>0.01686210777389992</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3007729891963441</v>
+        <v>0.05347932460439438</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1499057183378846</v>
+        <v>0.01686210777389992</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3027587870846387</v>
+        <v>0.05347932460439438</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2304520898156702</v>
+        <v>0.2786652965685745</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3002774575188095</v>
+        <v>0.1850292881113072</v>
       </c>
       <c r="N253" t="n">
-        <v>0.3090288397035711</v>
+        <v>0.3749778211726738</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3003387551859495</v>
+        <v>0.1846107070351928</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1187477783969376</v>
+        <v>0.01564345899145396</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3023728455218566</v>
+        <v>0.0534628616452848</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1469699361395332</v>
+        <v>0.01564345899145396</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3043692061648761</v>
+        <v>0.0534628616452848</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2265403886736134</v>
+        <v>0.278979178451678</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3018746780375265</v>
+        <v>0.1860134864523248</v>
       </c>
       <c r="N254" t="n">
-        <v>0.3059211839891777</v>
+        <v>0.3753262777716264</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3019363017560875</v>
+        <v>0.1855926788811247</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1126948687576528</v>
+        <v>0.0144507508508616</v>
       </c>
       <c r="G255" t="n">
-        <v>0.303972701847369</v>
+        <v>0.05344639868617521</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1458235093757622</v>
+        <v>0.0144507508508616</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3059796252451135</v>
+        <v>0.05344639868617521</v>
       </c>
       <c r="L255" t="n">
-        <v>0.2240125893990103</v>
+        <v>0.2792961101598091</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3034718985562436</v>
+        <v>0.1869976847933424</v>
       </c>
       <c r="N255" t="n">
-        <v>0.3028918053387426</v>
+        <v>0.3729880210908815</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3035338483262255</v>
+        <v>0.1865746507270566</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1176329691050022</v>
+        <v>0.01328468816140256</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3055725581728815</v>
+        <v>0.05342993572706561</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1422663035871695</v>
+        <v>0.01328468816140256</v>
       </c>
       <c r="K256" t="n">
-        <v>0.307590044325351</v>
+        <v>0.05342993572706561</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2184684905195655</v>
+        <v>0.2783161322221464</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3050691190749607</v>
+        <v>0.18798188313436</v>
       </c>
       <c r="N256" t="n">
-        <v>0.294940431821653</v>
+        <v>0.3716632925920689</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3051313948963636</v>
+        <v>0.1875566225729884</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1115619681135421</v>
+        <v>0.01214597573235655</v>
       </c>
       <c r="G257" t="n">
-        <v>0.307172414498394</v>
+        <v>0.05341347276795604</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1409981843143538</v>
+        <v>0.01214597573235655</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3092004634055884</v>
+        <v>0.05341347276795604</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2163078905629832</v>
+        <v>0.2771392851678687</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3066663395936778</v>
+        <v>0.1889660814753776</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2928667915072958</v>
+        <v>0.3707523337368178</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3067289414665016</v>
+        <v>0.1885385944189203</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.109481754457829</v>
+        <v>0.01103531837300091</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3087722708239065</v>
+        <v>0.05339700980884645</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1391190170979129</v>
+        <v>0.01103531837300091</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3108108824858259</v>
+        <v>0.05339700980884645</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2114305880569681</v>
+        <v>0.2776656095261549</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3082635601123949</v>
+        <v>0.1899502798163952</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2839706124650579</v>
+        <v>0.3734553859867579</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3083264880366397</v>
+        <v>0.1895205662648522</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.09739221681241923</v>
+        <v>0.009953420892615264</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3103721271494189</v>
+        <v>0.05338054684973686</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1361286674784452</v>
+        <v>0.009953420892615264</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3124213015660633</v>
+        <v>0.05338054684973686</v>
       </c>
       <c r="L259" t="n">
-        <v>0.2074363815292243</v>
+        <v>0.2784951458261837</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3098607806311119</v>
+        <v>0.1909344781574128</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2786516227643272</v>
+        <v>0.3728726908035187</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3099240346067777</v>
+        <v>0.1905025381107841</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1112932438518691</v>
+        <v>0.008900988100479276</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3119719834749314</v>
+        <v>0.05336408389062728</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1338270009965489</v>
+        <v>0.008900988100479276</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3140317206463007</v>
+        <v>0.05336408389062728</v>
       </c>
       <c r="L260" t="n">
-        <v>0.2049250695074567</v>
+        <v>0.276327934597134</v>
       </c>
       <c r="M260" t="n">
-        <v>0.311458001149829</v>
+        <v>0.1919186764984304</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2741095504744901</v>
+        <v>0.3717044896487295</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3115215811769158</v>
+        <v>0.1914845099567159</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1001847242507352</v>
+        <v>0.007878724805870332</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3135718398004438</v>
+        <v>0.05334762093151769</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1299138831928222</v>
+        <v>0.007878724805870332</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3156421397265382</v>
+        <v>0.05334762093151769</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1987964505193692</v>
+        <v>0.2754640163681845</v>
       </c>
       <c r="M261" t="n">
-        <v>0.313055221668546</v>
+        <v>0.192902874839448</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2696441236649343</v>
+        <v>0.3711510239840198</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3131191277470537</v>
+        <v>0.1924664818026478</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1050665466835738</v>
+        <v>0.006887335818068094</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3151716961259563</v>
+        <v>0.0533311579724081</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1281891796078633</v>
+        <v>0.006887335818068094</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3172525588067756</v>
+        <v>0.0533311579724081</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1960503230926665</v>
+        <v>0.275503431668514</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3146524421872631</v>
+        <v>0.1938870731804656</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2657550704050465</v>
+        <v>0.3720125352710193</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3147166743171918</v>
+        <v>0.1934484536485797</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0999385998249412</v>
+        <v>0.005927525946352166</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3167715524514688</v>
+        <v>0.05331469501329852</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1258527557822703</v>
+        <v>0.005927525946352166</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3188629778870131</v>
+        <v>0.05331469501329852</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1932864857550529</v>
+        <v>0.2758462210273014</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3162496627059802</v>
+        <v>0.1948712715214831</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2588421187642143</v>
+        <v>0.3723892649713573</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3163142208873298</v>
+        <v>0.1944304254945116</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.102800772349394</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3183714087769813</v>
+        <v>0.05329823205418893</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1231044772566417</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3204733969672505</v>
+        <v>0.05329823205418893</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1876047370342329</v>
+        <v>0.2752924249737254</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3178468832246973</v>
+        <v>0.1958554698625007</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2560049968118243</v>
+        <v>0.3708814545466633</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3179117674574679</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1954123973404434</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05328507415945208</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05328507415945208</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.007009870006850757</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05328534268791609</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.007009870006850757</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.05328534268791609</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.009009349044115503</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05328561121638011</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.009009349044115503</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05328561121638011</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01099832985101139</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05328587974484413</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01099832985101139</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.05328587974484413</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01297670516649622</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05328614827330815</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01297670516649622</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.05328614827330815</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01494436772978767</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05328641680177217</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01494436772978767</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05328641680177217</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01690121028001669</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05328668533023618</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01690121028001669</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.05328668533023618</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01884712555639852</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05328695385870021</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01884712555639852</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.05328695385870021</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.02078200629789469</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05328722238716422</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.02078200629789469</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05328722238716422</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.02270574524372103</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05328749091562823</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.02270574524372103</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.05328749091562823</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.02461823513300841</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05328775944409225</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.02461823513300841</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.05328775944409225</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.02651936870497025</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05328802797255627</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.02651936870497025</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05328802797255627</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.02840903869857191</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05328829650102029</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.02840903869857191</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.05328829650102029</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.03028713785302729</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0532885650294843</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.03028713785302729</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.0532885650294843</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.03215355890746725</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05328883355794831</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.03215355890746725</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05328883355794831</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.03400819460110317</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05328910208641234</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.03400819460110317</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.05328910208641234</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.03585093767290447</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05328937061487635</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.03585093767290447</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.05328937061487635</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.03768168086208303</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05328963914334037</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.03768168086208303</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05328963914334037</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.03950031690776974</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05328990767180439</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.03950031690776974</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.05328990767180439</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.04130673854917384</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05329017620026841</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.04130673854917384</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.05329017620026841</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.04310083852526896</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05329044472873243</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.04310083852526896</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05329044472873243</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.04488250957526486</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05329071325719644</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.04488250957526486</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.05329071325719644</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.04665164443829246</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05329098178566045</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.04665164443829246</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.05329098178566045</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.04840813585355887</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05329125031412448</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.04840813585355887</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05329125031412448</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.05015187656004193</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0532915188425885</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.05015187656004193</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.0532915188425885</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.0518831972788316</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05329178737105251</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.0518831972788316</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05329178737105251</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.05360461864035206</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05329205589951652</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.05360461864035206</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05329205589951652</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.05531647136569061</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05329232442798055</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.05531647136569061</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05329232442798055</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.05701864819382919</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05329259295644456</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.05701864819382919</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05329259295644456</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.0587110418639734</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05329286148490858</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.0587110418639734</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05329286148490858</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.06039354511525406</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0532931300133726</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.06039354511525406</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.0532931300133726</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.06206605068687469</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05329339854183662</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.06206605068687469</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05329339854183662</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.06372845131782055</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05329366707030064</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.06372845131782055</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.05329366707030064</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.06538063974729556</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05329393559876465</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.06538063974729556</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05329393559876465</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.06702250871443062</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05329420412722866</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.06702250871443062</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05329420412722866</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0686539509584274</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05329447265569269</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.0686539509584274</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.05329447265569269</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.07027485921827474</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0532947411841567</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.07027485921827474</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.0532947411841567</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.07188512623317476</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05329500971262072</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.07188512623317476</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05329500971262072</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.07348464474225837</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05329527824108473</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.07348464474225837</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.05329527824108473</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.07507330748472534</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05329554676954876</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.07507330748472534</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05329554676954876</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.07665100719956829</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05329581529801277</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.07665100719956829</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05329581529801277</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.07821763662598748</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05329608382647679</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.07821763662598748</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.05329608382647679</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.07977308850311383</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0532963523549408</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.07977308850311383</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.0532963523549408</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.08131725557014512</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05329662088340483</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.08131725557014512</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05329662088340483</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.08285003056607788</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05329688941186884</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.08285003056607788</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.05329688941186884</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.08437130623011045</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05329715794033286</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.08437130623011045</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.05329715794033286</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.08588097530137363</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05329742646879687</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.08588097530137363</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05329742646879687</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.08737893051906336</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0532976949972609</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.08737893051906336</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.0532976949972609</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.08886506462218004</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05329796352572491</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.08886506462218004</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05329796352572491</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.09033927034992011</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05329823205418893</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.09033927034992011</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05329823205418893</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.09033927034992011</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05328507415945208</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.09033927034992011</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05328507415945208</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.09227416988433688</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0533020741754897</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.09227416988433688</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.0533020741754897</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.0941944626088871</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05331907419152732</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.0941944626088871</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05331907419152732</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.09609988248869801</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05333607420756494</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.09609988248869801</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.05333607420756494</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.09799016348889815</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05335307422360257</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.09799016348889815</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.05335307422360257</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.09986503957461214</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05337007423964019</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.09986503957461214</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05337007423964019</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.1017242447109687</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05338707425567781</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.1017242447109687</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05338707425567781</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.103567512863095</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05340407427171543</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.103567512863095</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05340407427171543</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.1053945779961182</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05342107428775305</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.1053945779961182</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.05342107428775305</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.1072051740751658</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05343807430379067</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.1072051740751658</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05343807430379067</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.1089990350653648</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05345507431982829</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.1089990350653648</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.05345507431982829</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.1107758949318439</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05347207433586592</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.1107758949318439</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05347207433586592</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.1125354876397278</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05348907435190354</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.1125354876397278</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.05348907435190354</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.1142775471541451</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05350607436794116</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.1142775471541451</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.05350607436794116</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.1160018074402229</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05352307438397878</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.1160018074402229</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.05352307438397878</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.1177080024630886</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0535400744000164</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.1177080024630886</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.0535400744000164</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.1193958661878694</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05355707441605401</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.1193958661878694</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05355707441605401</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1210651325796926</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05357407443209163</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.1210651325796926</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.05357407443209163</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.1227155356036866</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05359107444812927</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.1227155356036866</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05359107444812927</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1243468092249763</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05360807446416688</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1243468092249763</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.05360807446416688</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1259586874086902</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0536250744802045</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1259586874086902</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.0536250744802045</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.1275509041199556</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05364207449624212</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.1275509041199556</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05364207449624212</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.1291231933238997</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05365907451227975</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.1291231933238997</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.05365907451227975</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1306752889856497</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05367607452831737</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.1306752889856497</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.05367607452831737</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1322069250703329</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05369307454435499</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.1322069250703329</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.05369307454435499</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1337189218521413</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05371007456039262</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.1337189218521413</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.05371007456039262</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.1352175311505822</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05372707457643024</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.1352175311505822</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.05372707457643024</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1367035732398474</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05374407459246786</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.1367035732398474</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.05374407459246786</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1381767820850643</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05376107460850547</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.1381767820850643</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.05376107460850547</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1396368916513602</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05377807462454309</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.1396368916513602</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05377807462454309</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.1410836359038622</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05379507464058071</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.1410836359038622</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05379507464058071</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.1425167488076977</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05381207465661833</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.1425167488076977</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.05381207465661833</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.1439359643279949</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05382907467265596</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.1439359643279949</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.05382907467265596</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.1453410164298791</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05384607468869358</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.1453410164298791</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05384607468869358</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.1467316390784785</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0538630747047312</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.1467316390784785</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.0538630747047312</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.1481075662389205</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05388007472076882</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.1481075662389205</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05388007472076882</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1494685318763321</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05389707473680644</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.1494685318763321</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.05389707473680644</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.1508142699558409</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05391407475284406</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.1508142699558409</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.05391407475284406</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.1521445144425739</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05393107476888168</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.1521445144425739</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.05393107476888168</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.1534589993016593</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05394807478491931</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.1534589993016593</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.05394807478491931</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.1547574584982228</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05396507480095693</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.1547574584982228</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05396507480095693</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.1560396259973923</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05398207481699455</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1560396259973923</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05398207481699455</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.1573052357642952</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05399907483303217</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.1573052357642952</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05399907483303217</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1585540217640586</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05401607484906979</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.1585540217640586</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.05401607484906979</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1597857179618101</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05403307486510741</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.1597857179618101</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.05403307486510741</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1610000583226766</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05405007488114503</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.1610000583226766</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.05405007488114503</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1621967768117863</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05406707489718266</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.1621967768117863</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05406707489718266</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1633756073942649</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05408407491322028</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.1633756073942649</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.05408407491322028</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1645362840352405</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0541010749292579</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1645362840352405</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.0541010749292579</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1656785406998402</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05411807494529552</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1656785406998402</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05411807494529552</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1656785406998402</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05411807494529552</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1656785406998402</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05411807494529552</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.1628640657129067</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05729850129395462</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.1628640657129067</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.05729850129395462</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.1603813920069087</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06047892764261371</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.1603813920069087</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.06047892764261371</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.1582107028952748</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06365935399127282</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.1582107028952748</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.06365935399127282</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.156332181691434</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0668397803399319</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.156332181691434</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.0668397803399319</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.1547260117088148</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07002020668859099</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.1547260117088148</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.07002020668859099</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.1533723762608461</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07320063303725009</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.1533723762608461</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07320063303725009</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.1522514586609567</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07638105938590919</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.1522514586609567</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.07638105938590919</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.1513434422225754</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07956148573456828</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1513434422225754</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07956148573456828</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1506285102591309</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08274191208322738</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1506285102591309</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08274191208322738</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.150086846084052</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08592233843188647</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.150086846084052</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.08592233843188647</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1496986330107674</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08910276478054557</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.1496986330107674</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08910276478054557</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1494440543527061</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09228319112920468</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.1494440543527061</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.09228319112920468</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.1493032934232966</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09546361747786376</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.1493032934232966</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.09546361747786376</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.1492565335359678</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09864404382652286</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.1492565335359678</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09864404382652286</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.1497451520287547</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.101824470175182</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.1497451520287547</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.101824470175182</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.1512075906612227</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1050048965238411</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.1512075906612227</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1050048965238411</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.1533294848563273</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1081853228725001</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.1533294848563273</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1081853228725001</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.1557919271815948</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1113657492211592</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1557919271815948</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1113657492211592</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.1582760102045517</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1145461755698183</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.1582760102045517</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1145461755698183</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.1604628264927244</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1177266019184774</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1604628264927244</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1177266019184774</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.1620334686136392</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1209070282671365</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.1620334686136392</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1209070282671365</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.1626690291348226</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1240874546157956</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.1626690291348226</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1240874546157956</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.1623858902497667</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1272678809644547</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.1623858902497667</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1272678809644547</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.1615073194827911</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1304483073131138</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.1615073194827911</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1304483073131138</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.1600887350866626</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1336287336617729</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.1600887350866626</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1336287336617729</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.158184817491407</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.136809160010432</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.158184817491407</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.136809160010432</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.1558502471270501</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1399895863590911</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.1558502471270501</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1399895863590911</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.1531397044236177</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1431700127077502</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.1531397044236177</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1431700127077502</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.1501078698111358</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1463504390564093</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.1501078698111358</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1463504390564093</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.1468094237196301</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.1468094237196301</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.1432990465791264</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1527112917537275</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.1432990465791264</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1527112917537275</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.1396314188196506</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1558917181023866</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.1396314188196506</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1558917181023866</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1358612208712286</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1590721444510457</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1358612208712286</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1590721444510457</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.1317101751172782</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1622525707997048</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.1317101751172782</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1622525707997048</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.1245609322938615</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1654329971483639</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.1245609322938615</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1654329971483639</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.1165762645712356</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.168613423497023</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.1165762645712356</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.168613423497023</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1111817469069322</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1717938498456821</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.1111817469069322</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1717938498456821</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.110517153883262</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1749742761943411</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.110517153883262</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1749742761943411</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1105573163088789</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1781547025430003</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.1105573163088789</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1781547025430003</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1106380088119035</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1813351288916593</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.1106380088119035</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1813351288916593</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.1107619932178841</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1845155552403185</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.1107619932178841</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1845155552403185</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1109320313523686</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1876959815889775</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.1109320313523686</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1876959815889775</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.111150885040905</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1908764079376366</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.111150885040905</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1908764079376366</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1114213161090414</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1940568342862957</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.1114213161090414</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1940568342862957</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1117460863823259</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1972372606349548</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.1117460863823259</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1972372606349548</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1123449389690944</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2004176869836139</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.1123449389690944</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.2004176869836139</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.115173740640122</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.203598113332273</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.115173740640122</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.203598113332273</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1191430172604057</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2067785396809321</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.1191430172604057</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2067785396809321</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1223109570661803</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2099589660295912</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.1223109570661803</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2099589660295912</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1245817224900247</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2131393923782503</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.1245817224900247</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2131393923782503</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1266296389433864</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2163198187269094</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1266296389433864</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2163198187269094</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.128516634360576</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2195002450755685</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.128516634360576</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2195002450755685</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1303046366759043</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2226806714242276</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1303046366759043</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2226806714242276</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.1320555738236817</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2258610977728867</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.1320555738236817</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2258610977728867</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1338080187842497</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2290415241215458</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.1338080187842497</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2290415241215458</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1353706020354131</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2322219504702049</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.1353706020354131</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2322219504702049</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1368521641931433</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.235402376818864</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.1368521641931433</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.235402376818864</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1384627313612634</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2385828031675231</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.1384627313612634</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2385828031675231</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1404123296435962</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2417632295161821</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.1404123296435962</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2417632295161821</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1430449743165957</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2449436558648413</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.1430449743165957</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2449436558648413</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1465168624599055</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2481240822135004</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.1465168624599055</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2481240822135004</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.1507142776795916</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2513045085621595</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.1507142776795916</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2513045085621595</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1555232416363163</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2544849349108185</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.1555232416363163</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2544849349108185</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1608297759907424</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2576653612594776</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.1608297759907424</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2576653612594776</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1665199024035323</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2608457876081368</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.1665199024035323</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2608457876081368</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1724796425353485</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2640262139567959</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1724796425353485</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2640262139567959</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1785950180468536</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2672066403054549</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1785950180468536</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2672066403054549</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1847520505987101</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.270387066654114</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1847520505987101</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.270387066654114</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1908367618515805</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2735674930027732</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1908367618515805</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2735674930027732</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.1967351734661274</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2767479193514322</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.1967351734661274</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2767479193514322</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.2023333071030132</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2799283457000913</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.2023333071030132</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2799283457000913</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.2075171844229005</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2831087720487505</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.2075171844229005</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2831087720487505</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.2121728270864519</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2862891983974095</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.2121728270864519</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2862891983974095</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.2161862567543298</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2894696247460686</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.2161862567543298</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2894696247460686</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.2194434950871967</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2926500510947277</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.2194434950871967</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2926500510947277</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.2218305637457152</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2958304774433868</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.2218305637457152</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2958304774433868</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.223571387599787</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2990109037920459</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.223571387599787</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2990109037920459</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.2233347103223999</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.302191330140705</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.2233347103223999</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.302191330140705</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.2175912375390045</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3053717564893641</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.2175912375390045</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3053717564893641</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.2057446218067366</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3085521828380232</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.2057446218067366</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3085521828380232</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1898982761256536</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3117326091866823</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1898982761256536</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3117326091866823</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.172155613495813</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3149130355353414</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.172155613495813</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3149130355353414</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1546200469172723</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3180934618840005</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.1546200469172723</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3180934618840005</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.1393949893900888</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3212738882326596</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.1393949893900888</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3212738882326596</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1285838539143201</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3244543145813187</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1285838539143201</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3244543145813187</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1227612988685992</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3276347409299777</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.1227612988685992</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3276347409299777</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1175955341835828</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3308151672786369</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.1175955341835828</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3308151672786369</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.1126664519656656</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.333995593627296</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.1126664519656656</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.333995593627296</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1080047793681602</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.337176019975955</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.1080047793681602</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.337176019975955</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.1036412435443789</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3403564463246141</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.1036412435443789</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3403564463246141</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.09960657164763405</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3435368726732733</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.09960657164763405</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3435368726732733</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.09593149083123816</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3467172990219323</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.09593149083123816</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3467172990219323</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09264672824850366</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3498977253705914</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.09264672824850366</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3498977253705914</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.08978301105274296</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3530781517192506</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.08978301105274296</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3530781517192506</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.08737106639726842</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3562585780679097</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.08737106639726842</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3562585780679097</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.08544162143539256</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3594390044165687</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.08544162143539256</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3594390044165687</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.08402540332042781</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3626194307652278</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.08402540332042781</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3626194307652278</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.08315313920568644</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3657998571138869</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.08315313920568644</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3657998571138869</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.08285555624448103</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.368980283462546</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.08285555624448103</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.368980283462546</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
